--- a/SimResults/Hydraulic_Lift_Res.xlsx
+++ b/SimResults/Hydraulic_Lift_Res.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SMILLER\TMW\Simscape\zECLArch\zR2017a\Demos\ssczAll\Hydraulic_Lift\SimResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SMILLER\TMW\Simscape\zECLArch\zR2017b\Demos\ssczAll\Hydraulic_Lift\SimResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21204" windowHeight="11460" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21204" windowHeight="11460" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2015b" sheetId="4" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="2016a_nortp" sheetId="7" r:id="rId3"/>
     <sheet name="2016b" sheetId="11" r:id="rId4"/>
     <sheet name="2017a" sheetId="10" r:id="rId5"/>
+    <sheet name="2017b" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="27">
   <si>
     <t>Run</t>
   </si>
@@ -91,6 +92,24 @@
   </si>
   <si>
     <t>with rel.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>:</t>
   </si>
 </sst>
 </file>
@@ -225,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -303,12 +322,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -320,6 +333,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,14 +693,14 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="36" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="37"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
@@ -2991,14 +3019,14 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="36" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="37"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
@@ -5317,14 +5345,14 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="36" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="37"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
@@ -7643,14 +7671,14 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="36" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="37"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
@@ -9941,11 +9969,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="G40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S19" sqref="S19"/>
+      <selection pane="bottomRight" activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9969,25 +9997,25 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="36" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="37"/>
+      <c r="K1" s="49"/>
       <c r="M1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="41" t="s">
+      <c r="O1" s="52"/>
+      <c r="P1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="42"/>
+      <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
@@ -10026,16 +10054,16 @@
       <c r="M2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="47" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10073,19 +10101,19 @@
       <c r="K3" s="18">
         <v>1.4270622832266668</v>
       </c>
-      <c r="N3" s="43">
+      <c r="N3" s="41">
         <f>(H3-'2016b'!H3)/'2016b'!H3</f>
         <v>-4.889056036103798E-3</v>
       </c>
-      <c r="O3" s="44">
+      <c r="O3" s="42">
         <f>(I3-'2016b'!I3)/'2016b'!I3</f>
         <v>1.2273233433244592</v>
       </c>
-      <c r="P3" s="43">
+      <c r="P3" s="41">
         <f>(J3-'2016b'!J3)/'2016b'!J3</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="44">
+      <c r="Q3" s="42">
         <f>(K3-'2016b'!K3)/'2016b'!K3</f>
         <v>0.33865974005124744</v>
       </c>
@@ -10124,19 +10152,19 @@
       <c r="K4" s="11">
         <v>5.6229063934543388</v>
       </c>
-      <c r="N4" s="43">
+      <c r="N4" s="41">
         <f>(H4-'2016b'!H4)/'2016b'!H4</f>
         <v>-9.5505617977528091E-3</v>
       </c>
-      <c r="O4" s="44">
+      <c r="O4" s="42">
         <f>(I4-'2016b'!I4)/'2016b'!I4</f>
         <v>1.1735156418979809</v>
       </c>
-      <c r="P4" s="43">
+      <c r="P4" s="41">
         <f>(J4-'2016b'!J4)/'2016b'!J4</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="44">
+      <c r="Q4" s="42">
         <f>(K4-'2016b'!K4)/'2016b'!K4</f>
         <v>0.82069386869387317</v>
       </c>
@@ -10175,19 +10203,19 @@
       <c r="K5" s="11">
         <v>1.7806394518723285</v>
       </c>
-      <c r="N5" s="43">
+      <c r="N5" s="41">
         <f>(H5-'2016b'!H5)/'2016b'!H5</f>
         <v>-3.6781609195402297E-3</v>
       </c>
-      <c r="O5" s="44">
+      <c r="O5" s="42">
         <f>(I5-'2016b'!I5)/'2016b'!I5</f>
         <v>2.274522507294015</v>
       </c>
-      <c r="P5" s="43">
+      <c r="P5" s="41">
         <f>(J5-'2016b'!J5)/'2016b'!J5</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="Q5" s="42">
         <f>(K5-'2016b'!K5)/'2016b'!K5</f>
         <v>0.82885253335818776</v>
       </c>
@@ -10226,19 +10254,19 @@
       <c r="K6" s="11">
         <v>6.0084284056886794</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="41">
         <f>(H6-'2016b'!H6)/'2016b'!H6</f>
         <v>1.6582914572864323E-2</v>
       </c>
-      <c r="O6" s="44">
+      <c r="O6" s="42">
         <f>(I6-'2016b'!I6)/'2016b'!I6</f>
         <v>0.73886532815254025</v>
       </c>
-      <c r="P6" s="43">
+      <c r="P6" s="41">
         <f>(J6-'2016b'!J6)/'2016b'!J6</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="Q6" s="42">
         <f>(K6-'2016b'!K6)/'2016b'!K6</f>
         <v>0.78251555330003708</v>
       </c>
@@ -10277,19 +10305,19 @@
       <c r="K7" s="11">
         <v>1.446539001333522</v>
       </c>
-      <c r="N7" s="43">
+      <c r="N7" s="41">
         <f>(H7-'2016b'!H7)/'2016b'!H7</f>
         <v>5.6306306306306304E-3</v>
       </c>
-      <c r="O7" s="44">
+      <c r="O7" s="42">
         <f>(I7-'2016b'!I7)/'2016b'!I7</f>
         <v>1.3222470300945011</v>
       </c>
-      <c r="P7" s="43">
+      <c r="P7" s="41">
         <f>(J7-'2016b'!J7)/'2016b'!J7</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="44">
+      <c r="Q7" s="42">
         <f>(K7-'2016b'!K7)/'2016b'!K7</f>
         <v>0.61069755143120463</v>
       </c>
@@ -10328,19 +10356,19 @@
       <c r="K8" s="11">
         <v>5.4895838560222119</v>
       </c>
-      <c r="N8" s="43">
+      <c r="N8" s="41">
         <f>(H8-'2016b'!H8)/'2016b'!H8</f>
         <v>-2.2753128555176336E-3</v>
       </c>
-      <c r="O8" s="44">
+      <c r="O8" s="42">
         <f>(I8-'2016b'!I8)/'2016b'!I8</f>
         <v>0.71529737290500217</v>
       </c>
-      <c r="P8" s="43">
+      <c r="P8" s="41">
         <f>(J8-'2016b'!J8)/'2016b'!J8</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="44">
+      <c r="Q8" s="42">
         <f>(K8-'2016b'!K8)/'2016b'!K8</f>
         <v>0.82073213019168079</v>
       </c>
@@ -10379,19 +10407,19 @@
       <c r="K9" s="11">
         <v>1.7289012357505509</v>
       </c>
-      <c r="N9" s="43">
+      <c r="N9" s="41">
         <f>(H9-'2016b'!H9)/'2016b'!H9</f>
         <v>4.5475216007276036E-3</v>
       </c>
-      <c r="O9" s="44">
+      <c r="O9" s="42">
         <f>(I9-'2016b'!I9)/'2016b'!I9</f>
         <v>2.0890028724161973</v>
       </c>
-      <c r="P9" s="43">
+      <c r="P9" s="41">
         <f>(J9-'2016b'!J9)/'2016b'!J9</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="44">
+      <c r="Q9" s="42">
         <f>(K9-'2016b'!K9)/'2016b'!K9</f>
         <v>0.63182891754831561</v>
       </c>
@@ -10430,19 +10458,19 @@
       <c r="K10" s="11">
         <v>6.0200792358326609</v>
       </c>
-      <c r="N10" s="43">
+      <c r="N10" s="41">
         <f>(H10-'2016b'!H10)/'2016b'!H10</f>
         <v>-4.1747572815533977E-2</v>
       </c>
-      <c r="O10" s="44">
+      <c r="O10" s="42">
         <f>(I10-'2016b'!I10)/'2016b'!I10</f>
         <v>1.0548475279694063</v>
       </c>
-      <c r="P10" s="43">
+      <c r="P10" s="41">
         <f>(J10-'2016b'!J10)/'2016b'!J10</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="44">
+      <c r="Q10" s="42">
         <f>(K10-'2016b'!K10)/'2016b'!K10</f>
         <v>0.61450838432892974</v>
       </c>
@@ -10481,19 +10509,19 @@
       <c r="K11" s="11">
         <v>1.5269863317808523</v>
       </c>
-      <c r="N11" s="43">
+      <c r="N11" s="41">
         <f>(H11-'2016b'!H11)/'2016b'!H11</f>
         <v>-4.889056036103798E-3</v>
       </c>
-      <c r="O11" s="44">
+      <c r="O11" s="42">
         <f>(I11-'2016b'!I11)/'2016b'!I11</f>
         <v>0.51413101772990988</v>
       </c>
-      <c r="P11" s="43">
+      <c r="P11" s="41">
         <f>(J11-'2016b'!J11)/'2016b'!J11</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="44">
+      <c r="Q11" s="42">
         <f>(K11-'2016b'!K11)/'2016b'!K11</f>
         <v>0.61118316215779744</v>
       </c>
@@ -10532,19 +10560,19 @@
       <c r="K12" s="11">
         <v>5.6128555614856985</v>
       </c>
-      <c r="N12" s="43">
+      <c r="N12" s="41">
         <f>(H12-'2016b'!H12)/'2016b'!H12</f>
         <v>3.4032898468519569E-3</v>
       </c>
-      <c r="O12" s="44">
+      <c r="O12" s="42">
         <f>(I12-'2016b'!I12)/'2016b'!I12</f>
         <v>0.99570167707138491</v>
       </c>
-      <c r="P12" s="43">
+      <c r="P12" s="41">
         <f>(J12-'2016b'!J12)/'2016b'!J12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="44">
+      <c r="Q12" s="42">
         <f>(K12-'2016b'!K12)/'2016b'!K12</f>
         <v>0.83817339285197912</v>
       </c>
@@ -10583,19 +10611,19 @@
       <c r="K13" s="11">
         <v>1.7918588261054014</v>
       </c>
-      <c r="N13" s="43">
+      <c r="N13" s="41">
         <f>(H13-'2016b'!H13)/'2016b'!H13</f>
         <v>-3.6781609195402297E-3</v>
       </c>
-      <c r="O13" s="44">
+      <c r="O13" s="42">
         <f>(I13-'2016b'!I13)/'2016b'!I13</f>
         <v>2.2752326442802011</v>
       </c>
-      <c r="P13" s="43">
+      <c r="P13" s="41">
         <f>(J13-'2016b'!J13)/'2016b'!J13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="44">
+      <c r="Q13" s="42">
         <f>(K13-'2016b'!K13)/'2016b'!K13</f>
         <v>0.83763066571211209</v>
       </c>
@@ -10634,19 +10662,19 @@
       <c r="K14" s="11">
         <v>5.9071427050879102</v>
       </c>
-      <c r="N14" s="43">
+      <c r="N14" s="41">
         <f>(H14-'2016b'!H14)/'2016b'!H14</f>
         <v>1.6582914572864323E-2</v>
       </c>
-      <c r="O14" s="44">
+      <c r="O14" s="42">
         <f>(I14-'2016b'!I14)/'2016b'!I14</f>
         <v>0.80190552570978346</v>
       </c>
-      <c r="P14" s="43">
+      <c r="P14" s="41">
         <f>(J14-'2016b'!J14)/'2016b'!J14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="44">
+      <c r="Q14" s="42">
         <f>(K14-'2016b'!K14)/'2016b'!K14</f>
         <v>0.7049539133470184</v>
       </c>
@@ -10685,19 +10713,19 @@
       <c r="K15" s="11">
         <v>1.4487411370973016</v>
       </c>
-      <c r="N15" s="43">
+      <c r="N15" s="41">
         <f>(H15-'2016b'!H15)/'2016b'!H15</f>
         <v>5.6306306306306304E-3</v>
       </c>
-      <c r="O15" s="44">
+      <c r="O15" s="42">
         <f>(I15-'2016b'!I15)/'2016b'!I15</f>
         <v>0.75064396056924654</v>
       </c>
-      <c r="P15" s="43">
+      <c r="P15" s="41">
         <f>(J15-'2016b'!J15)/'2016b'!J15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="44">
+      <c r="Q15" s="42">
         <f>(K15-'2016b'!K15)/'2016b'!K15</f>
         <v>0.58677283871438168</v>
       </c>
@@ -10736,19 +10764,19 @@
       <c r="K16" s="11">
         <v>5.5537039064436327</v>
       </c>
-      <c r="N16" s="43">
+      <c r="N16" s="41">
         <f>(H16-'2016b'!H16)/'2016b'!H16</f>
         <v>-2.2753128555176336E-3</v>
       </c>
-      <c r="O16" s="44">
+      <c r="O16" s="42">
         <f>(I16-'2016b'!I16)/'2016b'!I16</f>
         <v>0.85525175140059218</v>
       </c>
-      <c r="P16" s="43">
+      <c r="P16" s="41">
         <f>(J16-'2016b'!J16)/'2016b'!J16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="44">
+      <c r="Q16" s="42">
         <f>(K16-'2016b'!K16)/'2016b'!K16</f>
         <v>0.8540841634361831</v>
       </c>
@@ -10787,19 +10815,19 @@
       <c r="K17" s="11">
         <v>1.9912933337590872</v>
       </c>
-      <c r="N17" s="43">
+      <c r="N17" s="41">
         <f>(H17-'2016b'!H17)/'2016b'!H17</f>
         <v>4.5475216007276036E-3</v>
       </c>
-      <c r="O17" s="44">
+      <c r="O17" s="42">
         <f>(I17-'2016b'!I17)/'2016b'!I17</f>
         <v>1.9327748681018133</v>
       </c>
-      <c r="P17" s="43">
+      <c r="P17" s="41">
         <f>(J17-'2016b'!J17)/'2016b'!J17</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="44">
+      <c r="Q17" s="42">
         <f>(K17-'2016b'!K17)/'2016b'!K17</f>
         <v>1.1503225082187993</v>
       </c>
@@ -10838,19 +10866,19 @@
       <c r="K18" s="11">
         <v>5.7812784627853118</v>
       </c>
-      <c r="N18" s="43">
+      <c r="N18" s="41">
         <f>(H18-'2016b'!H18)/'2016b'!H18</f>
         <v>-4.1747572815533977E-2</v>
       </c>
-      <c r="O18" s="44">
+      <c r="O18" s="42">
         <f>(I18-'2016b'!I18)/'2016b'!I18</f>
         <v>0.81216485824320095</v>
       </c>
-      <c r="P18" s="43">
+      <c r="P18" s="41">
         <f>(J18-'2016b'!J18)/'2016b'!J18</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="44">
+      <c r="Q18" s="42">
         <f>(K18-'2016b'!K18)/'2016b'!K18</f>
         <v>0.73841291080894222</v>
       </c>
@@ -10889,19 +10917,19 @@
       <c r="K19" s="11">
         <v>1.640894873771586</v>
       </c>
-      <c r="N19" s="43">
+      <c r="N19" s="41">
         <f>(H19-'2016b'!H19)/'2016b'!H19</f>
         <v>-7.4266617155588561E-4</v>
       </c>
-      <c r="O19" s="44">
+      <c r="O19" s="42">
         <f>(I19-'2016b'!I19)/'2016b'!I19</f>
         <v>2.8392678619382377</v>
       </c>
-      <c r="P19" s="43">
+      <c r="P19" s="41">
         <f>(J19-'2016b'!J19)/'2016b'!J19</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="44">
+      <c r="Q19" s="42">
         <f>(K19-'2016b'!K19)/'2016b'!K19</f>
         <v>0.61127536616374167</v>
       </c>
@@ -10940,19 +10968,19 @@
       <c r="K20" s="11">
         <v>5.8024224633813679</v>
       </c>
-      <c r="N20" s="43">
+      <c r="N20" s="41">
         <f>(H20-'2016b'!H20)/'2016b'!H20</f>
         <v>-2.2459292532285235E-3</v>
       </c>
-      <c r="O20" s="44">
+      <c r="O20" s="42">
         <f>(I20-'2016b'!I20)/'2016b'!I20</f>
         <v>1.3488057423385922</v>
       </c>
-      <c r="P20" s="43">
+      <c r="P20" s="41">
         <f>(J20-'2016b'!J20)/'2016b'!J20</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="44">
+      <c r="Q20" s="42">
         <f>(K20-'2016b'!K20)/'2016b'!K20</f>
         <v>0.62632724841569054</v>
       </c>
@@ -10991,19 +11019,19 @@
       <c r="K21" s="11">
         <v>1.8538793778519806</v>
       </c>
-      <c r="N21" s="43">
+      <c r="N21" s="41">
         <f>(H21-'2016b'!H21)/'2016b'!H21</f>
         <v>-4.1171088746569072E-3</v>
       </c>
-      <c r="O21" s="44">
+      <c r="O21" s="42">
         <f>(I21-'2016b'!I21)/'2016b'!I21</f>
         <v>0.42351237718504131</v>
       </c>
-      <c r="P21" s="43">
+      <c r="P21" s="41">
         <f>(J21-'2016b'!J21)/'2016b'!J21</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="44">
+      <c r="Q21" s="42">
         <f>(K21-'2016b'!K21)/'2016b'!K21</f>
         <v>0.62785721537457495</v>
       </c>
@@ -11042,19 +11070,19 @@
       <c r="K22" s="11">
         <v>5.9544029030330403</v>
       </c>
-      <c r="N22" s="43">
+      <c r="N22" s="41">
         <f>(H22-'2016b'!H22)/'2016b'!H22</f>
         <v>-1.1170471102476931E-2</v>
       </c>
-      <c r="O22" s="44">
+      <c r="O22" s="42">
         <f>(I22-'2016b'!I22)/'2016b'!I22</f>
         <v>1.1645173953666617</v>
       </c>
-      <c r="P22" s="43">
+      <c r="P22" s="41">
         <f>(J22-'2016b'!J22)/'2016b'!J22</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="44">
+      <c r="Q22" s="42">
         <f>(K22-'2016b'!K22)/'2016b'!K22</f>
         <v>0.65671861964037681</v>
       </c>
@@ -11093,19 +11121,19 @@
       <c r="K23" s="11">
         <v>1.5628104771940388</v>
       </c>
-      <c r="N23" s="43">
+      <c r="N23" s="41">
         <f>(H23-'2016b'!H23)/'2016b'!H23</f>
         <v>-1.1135857461024498E-3</v>
       </c>
-      <c r="O23" s="44">
+      <c r="O23" s="42">
         <f>(I23-'2016b'!I23)/'2016b'!I23</f>
         <v>0.84971792216112418</v>
       </c>
-      <c r="P23" s="43">
+      <c r="P23" s="41">
         <f>(J23-'2016b'!J23)/'2016b'!J23</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="44">
+      <c r="Q23" s="42">
         <f>(K23-'2016b'!K23)/'2016b'!K23</f>
         <v>0.64928427742878048</v>
       </c>
@@ -11144,19 +11172,19 @@
       <c r="K24" s="11">
         <v>5.4753188212092319</v>
       </c>
-      <c r="N24" s="43">
+      <c r="N24" s="41">
         <f>(H24-'2016b'!H24)/'2016b'!H24</f>
         <v>-2.2346368715083797E-3</v>
       </c>
-      <c r="O24" s="44">
+      <c r="O24" s="42">
         <f>(I24-'2016b'!I24)/'2016b'!I24</f>
         <v>0.964822321222776</v>
       </c>
-      <c r="P24" s="43">
+      <c r="P24" s="41">
         <f>(J24-'2016b'!J24)/'2016b'!J24</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="44">
+      <c r="Q24" s="42">
         <f>(K24-'2016b'!K24)/'2016b'!K24</f>
         <v>0.63894790223699938</v>
       </c>
@@ -11195,19 +11223,19 @@
       <c r="K25" s="11">
         <v>1.6703334717033347</v>
       </c>
-      <c r="N25" s="43">
+      <c r="N25" s="41">
         <f>(H25-'2016b'!H25)/'2016b'!H25</f>
         <v>4.1171088746569072E-3</v>
       </c>
-      <c r="O25" s="44">
+      <c r="O25" s="42">
         <f>(I25-'2016b'!I25)/'2016b'!I25</f>
         <v>0.68343308029691607</v>
       </c>
-      <c r="P25" s="43">
+      <c r="P25" s="41">
         <f>(J25-'2016b'!J25)/'2016b'!J25</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="44">
+      <c r="Q25" s="42">
         <f>(K25-'2016b'!K25)/'2016b'!K25</f>
         <v>0.44913422052832591</v>
       </c>
@@ -11246,19 +11274,19 @@
       <c r="K26" s="11">
         <v>5.9074943321518667</v>
       </c>
-      <c r="N26" s="43">
+      <c r="N26" s="41">
         <f>(H26-'2016b'!H26)/'2016b'!H26</f>
         <v>9.7943192948090115E-3</v>
       </c>
-      <c r="O26" s="44">
+      <c r="O26" s="42">
         <f>(I26-'2016b'!I26)/'2016b'!I26</f>
         <v>0.90711065246042344</v>
       </c>
-      <c r="P26" s="43">
+      <c r="P26" s="41">
         <f>(J26-'2016b'!J26)/'2016b'!J26</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="44">
+      <c r="Q26" s="42">
         <f>(K26-'2016b'!K26)/'2016b'!K26</f>
         <v>0.88097950656721991</v>
       </c>
@@ -11297,19 +11325,19 @@
       <c r="K27" s="11">
         <v>1.4759620136332465</v>
       </c>
-      <c r="N27" s="43">
+      <c r="N27" s="41">
         <f>(H27-'2016b'!H27)/'2016b'!H27</f>
         <v>-7.4266617155588561E-4</v>
       </c>
-      <c r="O27" s="44">
+      <c r="O27" s="42">
         <f>(I27-'2016b'!I27)/'2016b'!I27</f>
         <v>0.60698519836877751</v>
       </c>
-      <c r="P27" s="43">
+      <c r="P27" s="41">
         <f>(J27-'2016b'!J27)/'2016b'!J27</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="44">
+      <c r="Q27" s="42">
         <f>(K27-'2016b'!K27)/'2016b'!K27</f>
         <v>0.77503385512869294</v>
       </c>
@@ -11348,19 +11376,19 @@
       <c r="K28" s="11">
         <v>5.3092626551530664</v>
       </c>
-      <c r="N28" s="43">
+      <c r="N28" s="41">
         <f>(H28-'2016b'!H28)/'2016b'!H28</f>
         <v>-2.7995520716685329E-3</v>
       </c>
-      <c r="O28" s="44">
+      <c r="O28" s="42">
         <f>(I28-'2016b'!I28)/'2016b'!I28</f>
         <v>1.284802513143275</v>
       </c>
-      <c r="P28" s="43">
+      <c r="P28" s="41">
         <f>(J28-'2016b'!J28)/'2016b'!J28</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="44">
+      <c r="Q28" s="42">
         <f>(K28-'2016b'!K28)/'2016b'!K28</f>
         <v>0.66329026575462469</v>
       </c>
@@ -11399,19 +11427,19 @@
       <c r="K29" s="11">
         <v>1.7557180262659715</v>
       </c>
-      <c r="N29" s="43">
+      <c r="N29" s="41">
         <f>(H29-'2016b'!H29)/'2016b'!H29</f>
         <v>-4.1171088746569072E-3</v>
       </c>
-      <c r="O29" s="44">
+      <c r="O29" s="42">
         <f>(I29-'2016b'!I29)/'2016b'!I29</f>
         <v>1.9337113045214696</v>
       </c>
-      <c r="P29" s="43">
+      <c r="P29" s="41">
         <f>(J29-'2016b'!J29)/'2016b'!J29</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="44">
+      <c r="Q29" s="42">
         <f>(K29-'2016b'!K29)/'2016b'!K29</f>
         <v>0.46531231970600517</v>
       </c>
@@ -11450,19 +11478,19 @@
       <c r="K30" s="11">
         <v>5.827330584179899</v>
       </c>
-      <c r="N30" s="43">
+      <c r="N30" s="41">
         <f>(H30-'2016b'!H30)/'2016b'!H30</f>
         <v>-1.1622276029055689E-2</v>
       </c>
-      <c r="O30" s="44">
+      <c r="O30" s="42">
         <f>(I30-'2016b'!I30)/'2016b'!I30</f>
         <v>0.96128867113315919</v>
       </c>
-      <c r="P30" s="43">
+      <c r="P30" s="41">
         <f>(J30-'2016b'!J30)/'2016b'!J30</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="44">
+      <c r="Q30" s="42">
         <f>(K30-'2016b'!K30)/'2016b'!K30</f>
         <v>0.64222786394481113</v>
       </c>
@@ -11501,19 +11529,19 @@
       <c r="K31" s="11">
         <v>1.3994331391591666</v>
       </c>
-      <c r="N31" s="43">
+      <c r="N31" s="41">
         <f>(H31-'2016b'!H31)/'2016b'!H31</f>
         <v>-1.1135857461024498E-3</v>
       </c>
-      <c r="O31" s="44">
+      <c r="O31" s="42">
         <f>(I31-'2016b'!I31)/'2016b'!I31</f>
         <v>0.5819611581582258</v>
       </c>
-      <c r="P31" s="43">
+      <c r="P31" s="41">
         <f>(J31-'2016b'!J31)/'2016b'!J31</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="44">
+      <c r="Q31" s="42">
         <f>(K31-'2016b'!K31)/'2016b'!K31</f>
         <v>0.48828620750721458</v>
       </c>
@@ -11552,19 +11580,19 @@
       <c r="K32" s="11">
         <v>6.3226088979513637</v>
       </c>
-      <c r="N32" s="43">
+      <c r="N32" s="41">
         <f>(H32-'2016b'!H32)/'2016b'!H32</f>
         <v>5.6148231330713087E-4</v>
       </c>
-      <c r="O32" s="44">
+      <c r="O32" s="42">
         <f>(I32-'2016b'!I32)/'2016b'!I32</f>
         <v>0.79414854399821899</v>
       </c>
-      <c r="P32" s="43">
+      <c r="P32" s="41">
         <f>(J32-'2016b'!J32)/'2016b'!J32</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="44">
+      <c r="Q32" s="42">
         <f>(K32-'2016b'!K32)/'2016b'!K32</f>
         <v>0.92474779332456658</v>
       </c>
@@ -11603,19 +11631,19 @@
       <c r="K33" s="11">
         <v>2.2067939670679397</v>
       </c>
-      <c r="N33" s="43">
+      <c r="N33" s="41">
         <f>(H33-'2016b'!H33)/'2016b'!H33</f>
         <v>4.1171088746569072E-3</v>
       </c>
-      <c r="O33" s="44">
+      <c r="O33" s="42">
         <f>(I33-'2016b'!I33)/'2016b'!I33</f>
         <v>2.8611265710203986</v>
       </c>
-      <c r="P33" s="43">
+      <c r="P33" s="41">
         <f>(J33-'2016b'!J33)/'2016b'!J33</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="44">
+      <c r="Q33" s="42">
         <f>(K33-'2016b'!K33)/'2016b'!K33</f>
         <v>0.97796468513631163</v>
       </c>
@@ -11654,19 +11682,19 @@
       <c r="K34" s="11">
         <v>7.171548770863839</v>
       </c>
-      <c r="N34" s="43">
+      <c r="N34" s="41">
         <f>(H34-'2016b'!H34)/'2016b'!H34</f>
         <v>9.7943192948090115E-3</v>
       </c>
-      <c r="O34" s="44">
+      <c r="O34" s="42">
         <f>(I34-'2016b'!I34)/'2016b'!I34</f>
         <v>0.91856899380945345</v>
       </c>
-      <c r="P34" s="43">
+      <c r="P34" s="41">
         <f>(J34-'2016b'!J34)/'2016b'!J34</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="44">
+      <c r="Q34" s="42">
         <f>(K34-'2016b'!K34)/'2016b'!K34</f>
         <v>1.0710409766012339</v>
       </c>
@@ -11705,19 +11733,19 @@
       <c r="K35" s="11">
         <v>2.092457390402596</v>
       </c>
-      <c r="N35" s="43">
+      <c r="N35" s="41">
         <f>(H35-'2016b'!H35)/'2016b'!H35</f>
         <v>-1.4496955639315744E-3</v>
       </c>
-      <c r="O35" s="44">
+      <c r="O35" s="42">
         <f>(I35-'2016b'!I35)/'2016b'!I35</f>
         <v>0.2718921131909558</v>
       </c>
-      <c r="P35" s="43">
+      <c r="P35" s="41">
         <f>(J35-'2016b'!J35)/'2016b'!J35</f>
         <v>0</v>
       </c>
-      <c r="Q35" s="44">
+      <c r="Q35" s="42">
         <f>(K35-'2016b'!K35)/'2016b'!K35</f>
         <v>1.1382703927779758</v>
       </c>
@@ -11756,19 +11784,19 @@
       <c r="K36" s="11">
         <v>5.8172029644632381</v>
       </c>
-      <c r="N36" s="43">
+      <c r="N36" s="41">
         <f>(H36-'2016b'!H36)/'2016b'!H36</f>
         <v>-2.342606149341142E-3</v>
       </c>
-      <c r="O36" s="44">
+      <c r="O36" s="42">
         <f>(I36-'2016b'!I36)/'2016b'!I36</f>
         <v>0.89640050653073522</v>
       </c>
-      <c r="P36" s="43">
+      <c r="P36" s="41">
         <f>(J36-'2016b'!J36)/'2016b'!J36</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="44">
+      <c r="Q36" s="42">
         <f>(K36-'2016b'!K36)/'2016b'!K36</f>
         <v>0.9102968890103561</v>
       </c>
@@ -11807,19 +11835,19 @@
       <c r="K37" s="11">
         <v>1.7265295587213396</v>
       </c>
-      <c r="N37" s="43">
+      <c r="N37" s="41">
         <f>(H37-'2016b'!H37)/'2016b'!H37</f>
         <v>-1.8774353524619199E-2</v>
       </c>
-      <c r="O37" s="44">
+      <c r="O37" s="42">
         <f>(I37-'2016b'!I37)/'2016b'!I37</f>
         <v>2.0709962822611283</v>
       </c>
-      <c r="P37" s="43">
+      <c r="P37" s="41">
         <f>(J37-'2016b'!J37)/'2016b'!J37</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="44">
+      <c r="Q37" s="42">
         <f>(K37-'2016b'!K37)/'2016b'!K37</f>
         <v>0.7811000295085454</v>
       </c>
@@ -11858,19 +11886,19 @@
       <c r="K38" s="11">
         <v>1.1841754136274685</v>
       </c>
-      <c r="N38" s="43">
+      <c r="N38" s="41">
         <f>(H38-'2016b'!H38)/'2016b'!H38</f>
         <v>-0.20086984536082475</v>
       </c>
-      <c r="O38" s="44">
+      <c r="O38" s="42">
         <f>(I38-'2016b'!I38)/'2016b'!I38</f>
         <v>0.26647867500050398</v>
       </c>
-      <c r="P38" s="43">
+      <c r="P38" s="41">
         <f>(J38-'2016b'!J38)/'2016b'!J38</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="44">
+      <c r="Q38" s="42">
         <f>(K38-'2016b'!K38)/'2016b'!K38</f>
         <v>0.57359408983762017</v>
       </c>
@@ -11909,19 +11937,19 @@
       <c r="K39" s="11">
         <v>1.1873210503347489</v>
       </c>
-      <c r="N39" s="43">
+      <c r="N39" s="41">
         <f>(H39-'2016b'!H39)/'2016b'!H39</f>
         <v>-1.1611030478955006E-3</v>
       </c>
-      <c r="O39" s="44">
+      <c r="O39" s="42">
         <f>(I39-'2016b'!I39)/'2016b'!I39</f>
         <v>0.69263135706924461</v>
       </c>
-      <c r="P39" s="43">
+      <c r="P39" s="41">
         <f>(J39-'2016b'!J39)/'2016b'!J39</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="44">
+      <c r="Q39" s="42">
         <f>(K39-'2016b'!K39)/'2016b'!K39</f>
         <v>0.51968815001904922</v>
       </c>
@@ -11960,19 +11988,19 @@
       <c r="K40" s="11">
         <v>1.5452002335563979</v>
       </c>
-      <c r="N40" s="43">
+      <c r="N40" s="41">
         <f>(H40-'2016b'!H40)/'2016b'!H40</f>
         <v>4.0441176470588239E-3</v>
       </c>
-      <c r="O40" s="44">
+      <c r="O40" s="42">
         <f>(I40-'2016b'!I40)/'2016b'!I40</f>
         <v>0.83569586980792876</v>
       </c>
-      <c r="P40" s="43">
+      <c r="P40" s="41">
         <f>(J40-'2016b'!J40)/'2016b'!J40</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="44">
+      <c r="Q40" s="42">
         <f>(K40-'2016b'!K40)/'2016b'!K40</f>
         <v>1.2169085133971875</v>
       </c>
@@ -12011,19 +12039,19 @@
       <c r="K41" s="11">
         <v>1.4289386412674083</v>
       </c>
-      <c r="N41" s="43">
+      <c r="N41" s="41">
         <f>(H41-'2016b'!H41)/'2016b'!H41</f>
         <v>-5.9064527142369407E-2</v>
       </c>
-      <c r="O41" s="44">
+      <c r="O41" s="42">
         <f>(I41-'2016b'!I41)/'2016b'!I41</f>
         <v>2.1544117179492699</v>
       </c>
-      <c r="P41" s="43">
+      <c r="P41" s="41">
         <f>(J41-'2016b'!J41)/'2016b'!J41</f>
         <v>0</v>
       </c>
-      <c r="Q41" s="44">
+      <c r="Q41" s="42">
         <f>(K41-'2016b'!K41)/'2016b'!K41</f>
         <v>0.50392529317967105</v>
       </c>
@@ -12062,19 +12090,19 @@
       <c r="K42" s="11">
         <v>1.9997924449979245</v>
       </c>
-      <c r="N42" s="43">
+      <c r="N42" s="41">
         <f>(H42-'2016b'!H42)/'2016b'!H42</f>
         <v>-0.16405634788695425</v>
       </c>
-      <c r="O42" s="44">
+      <c r="O42" s="42">
         <f>(I42-'2016b'!I42)/'2016b'!I42</f>
         <v>0.40698372963553536</v>
       </c>
-      <c r="P42" s="43">
+      <c r="P42" s="41">
         <f>(J42-'2016b'!J42)/'2016b'!J42</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="44">
+      <c r="Q42" s="42">
         <f>(K42-'2016b'!K42)/'2016b'!K42</f>
         <v>1.6991186987730056</v>
       </c>
@@ -12113,19 +12141,19 @@
       <c r="K43" s="11">
         <v>1.4148271819504696</v>
       </c>
-      <c r="N43" s="43">
+      <c r="N43" s="41">
         <f>(H43-'2016b'!H43)/'2016b'!H43</f>
         <v>-1.4496955639315744E-3</v>
       </c>
-      <c r="O43" s="44">
+      <c r="O43" s="42">
         <f>(I43-'2016b'!I43)/'2016b'!I43</f>
         <v>0.63550569014007108</v>
       </c>
-      <c r="P43" s="43">
+      <c r="P43" s="41">
         <f>(J43-'2016b'!J43)/'2016b'!J43</f>
         <v>0</v>
       </c>
-      <c r="Q43" s="44">
+      <c r="Q43" s="42">
         <f>(K43-'2016b'!K43)/'2016b'!K43</f>
         <v>0.47604941544666673</v>
       </c>
@@ -12164,19 +12192,19 @@
       <c r="K44" s="11">
         <v>5.5691237985758537</v>
       </c>
-      <c r="N44" s="43">
+      <c r="N44" s="41">
         <f>(H44-'2016b'!H44)/'2016b'!H44</f>
         <v>1.3973670662646171E-3</v>
       </c>
-      <c r="O44" s="44">
+      <c r="O44" s="42">
         <f>(I44-'2016b'!I44)/'2016b'!I44</f>
         <v>0.90830104120466915</v>
       </c>
-      <c r="P44" s="43">
+      <c r="P44" s="41">
         <f>(J44-'2016b'!J44)/'2016b'!J44</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="44">
+      <c r="Q44" s="42">
         <f>(K44-'2016b'!K44)/'2016b'!K44</f>
         <v>0.5600866010790444</v>
       </c>
@@ -12215,19 +12243,19 @@
       <c r="K45" s="11">
         <v>1.7168303538166552</v>
       </c>
-      <c r="N45" s="43">
+      <c r="N45" s="41">
         <f>(H45-'2016b'!H45)/'2016b'!H45</f>
         <v>-1.8774353524619199E-2</v>
       </c>
-      <c r="O45" s="44">
+      <c r="O45" s="42">
         <f>(I45-'2016b'!I45)/'2016b'!I45</f>
         <v>2.0378050768296214</v>
       </c>
-      <c r="P45" s="43">
+      <c r="P45" s="41">
         <f>(J45-'2016b'!J45)/'2016b'!J45</f>
         <v>0</v>
       </c>
-      <c r="Q45" s="44">
+      <c r="Q45" s="42">
         <f>(K45-'2016b'!K45)/'2016b'!K45</f>
         <v>0.52659248287677773</v>
       </c>
@@ -12266,19 +12294,19 @@
       <c r="K46" s="11">
         <v>1.4646373413496701</v>
       </c>
-      <c r="N46" s="43">
+      <c r="N46" s="41">
         <f>(H46-'2016b'!H46)/'2016b'!H46</f>
         <v>-0.20086984536082475</v>
       </c>
-      <c r="O46" s="44">
+      <c r="O46" s="42">
         <f>(I46-'2016b'!I46)/'2016b'!I46</f>
         <v>0.48191162928980946</v>
       </c>
-      <c r="P46" s="43">
+      <c r="P46" s="41">
         <f>(J46-'2016b'!J46)/'2016b'!J46</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="44">
+      <c r="Q46" s="42">
         <f>(K46-'2016b'!K46)/'2016b'!K46</f>
         <v>1.0145467091788436</v>
       </c>
@@ -12317,19 +12345,19 @@
       <c r="K47" s="11">
         <v>1.2389885609063691</v>
       </c>
-      <c r="N47" s="43">
+      <c r="N47" s="41">
         <f>(H47-'2016b'!H47)/'2016b'!H47</f>
         <v>-1.1611030478955006E-3</v>
       </c>
-      <c r="O47" s="44">
+      <c r="O47" s="42">
         <f>(I47-'2016b'!I47)/'2016b'!I47</f>
         <v>0.73758671766928896</v>
       </c>
-      <c r="P47" s="43">
+      <c r="P47" s="41">
         <f>(J47-'2016b'!J47)/'2016b'!J47</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="44">
+      <c r="Q47" s="42">
         <f>(K47-'2016b'!K47)/'2016b'!K47</f>
         <v>0.588412610392129</v>
       </c>
@@ -12368,19 +12396,19 @@
       <c r="K48" s="11">
         <v>1.4433390049828405</v>
       </c>
-      <c r="N48" s="43">
+      <c r="N48" s="41">
         <f>(H48-'2016b'!H48)/'2016b'!H48</f>
         <v>4.0441176470588239E-3</v>
       </c>
-      <c r="O48" s="44">
+      <c r="O48" s="42">
         <f>(I48-'2016b'!I48)/'2016b'!I48</f>
         <v>1.186950809314159</v>
       </c>
-      <c r="P48" s="43">
+      <c r="P48" s="41">
         <f>(J48-'2016b'!J48)/'2016b'!J48</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="44">
+      <c r="Q48" s="42">
         <f>(K48-'2016b'!K48)/'2016b'!K48</f>
         <v>1.0767001252481225</v>
       </c>
@@ -12419,19 +12447,19 @@
       <c r="K49" s="11">
         <v>1.3960464953615639</v>
       </c>
-      <c r="N49" s="43">
+      <c r="N49" s="41">
         <f>(H49-'2016b'!H49)/'2016b'!H49</f>
         <v>-5.9064527142369407E-2</v>
       </c>
-      <c r="O49" s="44">
+      <c r="O49" s="42">
         <f>(I49-'2016b'!I49)/'2016b'!I49</f>
         <v>2.3087283567703212</v>
       </c>
-      <c r="P49" s="43">
+      <c r="P49" s="41">
         <f>(J49-'2016b'!J49)/'2016b'!J49</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="44">
+      <c r="Q49" s="42">
         <f>(K49-'2016b'!K49)/'2016b'!K49</f>
         <v>0.47724688408625027</v>
       </c>
@@ -12470,19 +12498,19 @@
       <c r="K50" s="11">
         <v>1.2406604050439667</v>
       </c>
-      <c r="N50" s="43">
+      <c r="N50" s="41">
         <f>(H50-'2016b'!H50)/'2016b'!H50</f>
         <v>-0.16405634788695425</v>
       </c>
-      <c r="O50" s="44">
+      <c r="O50" s="42">
         <f>(I50-'2016b'!I50)/'2016b'!I50</f>
         <v>0.54719372759339358</v>
       </c>
-      <c r="P50" s="43">
+      <c r="P50" s="41">
         <f>(J50-'2016b'!J50)/'2016b'!J50</f>
         <v>0</v>
       </c>
-      <c r="Q50" s="44">
+      <c r="Q50" s="42">
         <f>(K50-'2016b'!K50)/'2016b'!K50</f>
         <v>0.7216094638038385</v>
       </c>
@@ -12521,19 +12549,19 @@
       <c r="K51" s="11">
         <v>1.3943818738339286</v>
       </c>
-      <c r="N51" s="43">
+      <c r="N51" s="41">
         <f>(H51-'2016b'!H51)/'2016b'!H51</f>
         <v>3.2945736434108527E-3</v>
       </c>
-      <c r="O51" s="44">
+      <c r="O51" s="42">
         <f>(I51-'2016b'!I51)/'2016b'!I51</f>
         <v>0.61995711928105224</v>
       </c>
-      <c r="P51" s="43">
+      <c r="P51" s="41">
         <f>(J51-'2016b'!J51)/'2016b'!J51</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="44">
+      <c r="Q51" s="42">
         <f>(K51-'2016b'!K51)/'2016b'!K51</f>
         <v>0.64709428437653116</v>
       </c>
@@ -12572,19 +12600,19 @@
       <c r="K52" s="11">
         <v>1.5125316084220193</v>
       </c>
-      <c r="N52" s="43">
+      <c r="N52" s="41">
         <f>(H52-'2016b'!H52)/'2016b'!H52</f>
         <v>4.6807087930458038E-4</v>
       </c>
-      <c r="O52" s="44">
+      <c r="O52" s="42">
         <f>(I52-'2016b'!I52)/'2016b'!I52</f>
         <v>1.1313793536112005</v>
       </c>
-      <c r="P52" s="43">
+      <c r="P52" s="41">
         <f>(J52-'2016b'!J52)/'2016b'!J52</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="44">
+      <c r="Q52" s="42">
         <f>(K52-'2016b'!K52)/'2016b'!K52</f>
         <v>1.1009100067311024</v>
       </c>
@@ -12623,19 +12651,19 @@
       <c r="K53" s="11">
         <v>1.6320623820623821</v>
       </c>
-      <c r="N53" s="43">
+      <c r="N53" s="41">
         <f>(H53-'2016b'!H53)/'2016b'!H53</f>
         <v>2.5808671713695802E-2</v>
       </c>
-      <c r="O53" s="44">
+      <c r="O53" s="42">
         <f>(I53-'2016b'!I53)/'2016b'!I53</f>
         <v>2.5120817107351678</v>
       </c>
-      <c r="P53" s="43">
+      <c r="P53" s="41">
         <f>(J53-'2016b'!J53)/'2016b'!J53</f>
         <v>0</v>
       </c>
-      <c r="Q53" s="44">
+      <c r="Q53" s="42">
         <f>(K53-'2016b'!K53)/'2016b'!K53</f>
         <v>0.20387314882731269</v>
       </c>
@@ -12674,19 +12702,19 @@
       <c r="K54" s="11">
         <v>1.6356892726755741</v>
       </c>
-      <c r="N54" s="43">
+      <c r="N54" s="41">
         <f>(H54-'2016b'!H54)/'2016b'!H54</f>
         <v>-0.53520011021560931</v>
       </c>
-      <c r="O54" s="44">
+      <c r="O54" s="42">
         <f>(I54-'2016b'!I54)/'2016b'!I54</f>
         <v>2.9065537272394863E-2</v>
       </c>
-      <c r="P54" s="43">
+      <c r="P54" s="41">
         <f>(J54-'2016b'!J54)/'2016b'!J54</f>
         <v>0</v>
       </c>
-      <c r="Q54" s="44">
+      <c r="Q54" s="42">
         <f>(K54-'2016b'!K54)/'2016b'!K54</f>
         <v>1.1739626463891881</v>
       </c>
@@ -12725,19 +12753,19 @@
       <c r="K55" s="11">
         <v>1.2421140503332284</v>
       </c>
-      <c r="N55" s="43">
+      <c r="N55" s="41">
         <f>(H55-'2016b'!H55)/'2016b'!H55</f>
         <v>-1.9312475859405175E-3</v>
       </c>
-      <c r="O55" s="44">
+      <c r="O55" s="42">
         <f>(I55-'2016b'!I55)/'2016b'!I55</f>
         <v>0.73804404763260767</v>
       </c>
-      <c r="P55" s="43">
+      <c r="P55" s="41">
         <f>(J55-'2016b'!J55)/'2016b'!J55</f>
         <v>0</v>
       </c>
-      <c r="Q55" s="44">
+      <c r="Q55" s="42">
         <f>(K55-'2016b'!K55)/'2016b'!K55</f>
         <v>0.53594637663751732</v>
       </c>
@@ -12776,19 +12804,19 @@
       <c r="K56" s="11">
         <v>5.7145875433546669</v>
       </c>
-      <c r="N56" s="43">
+      <c r="N56" s="41">
         <f>(H56-'2016b'!H56)/'2016b'!H56</f>
         <v>1.5386673802515387E-3</v>
       </c>
-      <c r="O56" s="44">
+      <c r="O56" s="42">
         <f>(I56-'2016b'!I56)/'2016b'!I56</f>
         <v>0.74662655490025986</v>
       </c>
-      <c r="P56" s="43">
+      <c r="P56" s="41">
         <f>(J56-'2016b'!J56)/'2016b'!J56</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="44">
+      <c r="Q56" s="42">
         <f>(K56-'2016b'!K56)/'2016b'!K56</f>
         <v>0.73132700938194417</v>
       </c>
@@ -12827,19 +12855,19 @@
       <c r="K57" s="11">
         <v>1.7059645073343703</v>
       </c>
-      <c r="N57" s="43">
+      <c r="N57" s="41">
         <f>(H57-'2016b'!H57)/'2016b'!H57</f>
         <v>1.2777404169468728E-2</v>
       </c>
-      <c r="O57" s="44">
+      <c r="O57" s="42">
         <f>(I57-'2016b'!I57)/'2016b'!I57</f>
         <v>1.864814829269696</v>
       </c>
-      <c r="P57" s="43">
+      <c r="P57" s="41">
         <f>(J57-'2016b'!J57)/'2016b'!J57</f>
         <v>0</v>
       </c>
-      <c r="Q57" s="44">
+      <c r="Q57" s="42">
         <f>(K57-'2016b'!K57)/'2016b'!K57</f>
         <v>3.8180454732476922E-2</v>
       </c>
@@ -12878,19 +12906,19 @@
       <c r="K58" s="11">
         <v>1.5921905339713558</v>
       </c>
-      <c r="N58" s="43">
+      <c r="N58" s="41">
         <f>(H58-'2016b'!H58)/'2016b'!H58</f>
         <v>-0.33328107239446558</v>
       </c>
-      <c r="O58" s="44">
+      <c r="O58" s="42">
         <f>(I58-'2016b'!I58)/'2016b'!I58</f>
         <v>0.40541514186823197</v>
       </c>
-      <c r="P58" s="43">
+      <c r="P58" s="41">
         <f>(J58-'2016b'!J58)/'2016b'!J58</f>
         <v>0</v>
       </c>
-      <c r="Q58" s="44">
+      <c r="Q58" s="42">
         <f>(K58-'2016b'!K58)/'2016b'!K58</f>
         <v>1.0696327559068697</v>
       </c>
@@ -12929,19 +12957,19 @@
       <c r="K59" s="11">
         <v>1.2904450952396158</v>
       </c>
-      <c r="N59" s="43">
+      <c r="N59" s="41">
         <f>(H59-'2016b'!H59)/'2016b'!H59</f>
         <v>3.2945736434108527E-3</v>
       </c>
-      <c r="O59" s="44">
+      <c r="O59" s="42">
         <f>(I59-'2016b'!I59)/'2016b'!I59</f>
         <v>1.0541917983210296</v>
       </c>
-      <c r="P59" s="43">
+      <c r="P59" s="41">
         <f>(J59-'2016b'!J59)/'2016b'!J59</f>
         <v>0</v>
       </c>
-      <c r="Q59" s="44">
+      <c r="Q59" s="42">
         <f>(K59-'2016b'!K59)/'2016b'!K59</f>
         <v>0.53065673800115076</v>
       </c>
@@ -12980,19 +13008,19 @@
       <c r="K60" s="11">
         <v>1.4358962954853365</v>
       </c>
-      <c r="N60" s="43">
+      <c r="N60" s="41">
         <f>(H60-'2016b'!H60)/'2016b'!H60</f>
         <v>-9.3595400454606233E-4</v>
       </c>
-      <c r="O60" s="44">
+      <c r="O60" s="42">
         <f>(I60-'2016b'!I60)/'2016b'!I60</f>
         <v>0.74715996600792844</v>
       </c>
-      <c r="P60" s="43">
+      <c r="P60" s="41">
         <f>(J60-'2016b'!J60)/'2016b'!J60</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="44">
+      <c r="Q60" s="42">
         <f>(K60-'2016b'!K60)/'2016b'!K60</f>
         <v>0.96170206617475573</v>
       </c>
@@ -13031,19 +13059,19 @@
       <c r="K61" s="11">
         <v>1.5515656337574146</v>
       </c>
-      <c r="N61" s="43">
+      <c r="N61" s="41">
         <f>(H61-'2016b'!H61)/'2016b'!H61</f>
         <v>2.5808671713695802E-2</v>
       </c>
-      <c r="O61" s="44">
+      <c r="O61" s="42">
         <f>(I61-'2016b'!I61)/'2016b'!I61</f>
         <v>1.9908254630117619</v>
       </c>
-      <c r="P61" s="43">
+      <c r="P61" s="41">
         <f>(J61-'2016b'!J61)/'2016b'!J61</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="44">
+      <c r="Q61" s="42">
         <f>(K61-'2016b'!K61)/'2016b'!K61</f>
         <v>0.53506502959038449</v>
       </c>
@@ -13082,19 +13110,19 @@
       <c r="K62" s="11">
         <v>1.5100443696334107</v>
       </c>
-      <c r="N62" s="43">
+      <c r="N62" s="41">
         <f>(H62-'2016b'!H62)/'2016b'!H62</f>
         <v>-0.43686207031402763</v>
       </c>
-      <c r="O62" s="44">
+      <c r="O62" s="42">
         <f>(I62-'2016b'!I62)/'2016b'!I62</f>
         <v>0.13385351767639397</v>
       </c>
-      <c r="P62" s="43">
+      <c r="P62" s="41">
         <f>(J62-'2016b'!J62)/'2016b'!J62</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="44">
+      <c r="Q62" s="42">
         <f>(K62-'2016b'!K62)/'2016b'!K62</f>
         <v>1.0692069982965793</v>
       </c>
@@ -13133,19 +13161,19 @@
       <c r="K63" s="11">
         <v>1.3306168717127622</v>
       </c>
-      <c r="N63" s="43">
+      <c r="N63" s="41">
         <f>(H63-'2016b'!H63)/'2016b'!H63</f>
         <v>-1.9312475859405175E-3</v>
       </c>
-      <c r="O63" s="44">
+      <c r="O63" s="42">
         <f>(I63-'2016b'!I63)/'2016b'!I63</f>
         <v>0.68047479159074042</v>
       </c>
-      <c r="P63" s="43">
+      <c r="P63" s="41">
         <f>(J63-'2016b'!J63)/'2016b'!J63</f>
         <v>0</v>
       </c>
-      <c r="Q63" s="44">
+      <c r="Q63" s="42">
         <f>(K63-'2016b'!K63)/'2016b'!K63</f>
         <v>0.65036573154946997</v>
       </c>
@@ -13184,19 +13212,19 @@
       <c r="K64" s="11">
         <v>5.5964465519260038</v>
       </c>
-      <c r="N64" s="43">
+      <c r="N64" s="41">
         <f>(H64-'2016b'!H64)/'2016b'!H64</f>
         <v>-6.6760130849856467E-5</v>
       </c>
-      <c r="O64" s="44">
+      <c r="O64" s="42">
         <f>(I64-'2016b'!I64)/'2016b'!I64</f>
         <v>0.94256439096953726</v>
       </c>
-      <c r="P64" s="43">
+      <c r="P64" s="41">
         <f>(J64-'2016b'!J64)/'2016b'!J64</f>
         <v>0</v>
       </c>
-      <c r="Q64" s="44">
+      <c r="Q64" s="42">
         <f>(K64-'2016b'!K64)/'2016b'!K64</f>
         <v>0.63512980651512652</v>
       </c>
@@ -13235,19 +13263,19 @@
       <c r="K65" s="11">
         <v>1.7093043942359012</v>
       </c>
-      <c r="N65" s="43">
+      <c r="N65" s="41">
         <f>(H65-'2016b'!H65)/'2016b'!H65</f>
         <v>1.2777404169468728E-2</v>
       </c>
-      <c r="O65" s="44">
+      <c r="O65" s="42">
         <f>(I65-'2016b'!I65)/'2016b'!I65</f>
         <v>2.2399228061511236</v>
       </c>
-      <c r="P65" s="43">
+      <c r="P65" s="41">
         <f>(J65-'2016b'!J65)/'2016b'!J65</f>
         <v>0</v>
       </c>
-      <c r="Q65" s="44">
+      <c r="Q65" s="42">
         <f>(K65-'2016b'!K65)/'2016b'!K65</f>
         <v>0.41543858142445356</v>
       </c>
@@ -13286,19 +13314,19 @@
       <c r="K66" s="13">
         <v>1.6262143488170886</v>
       </c>
-      <c r="N66" s="45">
+      <c r="N66" s="43">
         <f>(H66-'2016b'!H66)/'2016b'!H66</f>
         <v>-0.33328107239446558</v>
       </c>
-      <c r="O66" s="46">
+      <c r="O66" s="44">
         <f>(I66-'2016b'!I66)/'2016b'!I66</f>
         <v>0.32456958961224491</v>
       </c>
-      <c r="P66" s="45">
+      <c r="P66" s="43">
         <f>(J66-'2016b'!J66)/'2016b'!J66</f>
         <v>0</v>
       </c>
-      <c r="Q66" s="46">
+      <c r="Q66" s="44">
         <f>(K66-'2016b'!K66)/'2016b'!K66</f>
         <v>0.96937330495957619</v>
       </c>
@@ -13427,4 +13455,3524 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="G40" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:U1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="5" width="8.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="5.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8">
+        <v>6</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="50"/>
+      <c r="J1" s="48">
+        <v>0</v>
+      </c>
+      <c r="K1" s="49"/>
+      <c r="L1">
+        <v>7</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="51">
+        <v>1</v>
+      </c>
+      <c r="O1" s="52"/>
+      <c r="P1" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="52"/>
+      <c r="R1">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1">
+        <v>2</v>
+      </c>
+      <c r="U1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="14">
+        <v>2681</v>
+      </c>
+      <c r="I3" s="27">
+        <v>0.67406351187892155</v>
+      </c>
+      <c r="J3" s="15">
+        <v>10001</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0.89918179171041412</v>
+      </c>
+      <c r="N3" s="41">
+        <f>(H3-'2016b'!H3)/'2016b'!H3</f>
+        <v>8.2737871380218122E-3</v>
+      </c>
+      <c r="O3" s="42">
+        <f>(I3-'2016b'!I3)/'2016b'!I3</f>
+        <v>0.48191514107801808</v>
+      </c>
+      <c r="P3" s="41">
+        <f>(J3-'2016b'!J3)/'2016b'!J3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="42">
+        <f>(K3-'2016b'!K3)/'2016b'!K3</f>
+        <v>-0.15652002179733249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1762</v>
+      </c>
+      <c r="I4" s="28">
+        <v>2.0221224909964395</v>
+      </c>
+      <c r="J4" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K4" s="11">
+        <v>4.0542467838453664</v>
+      </c>
+      <c r="N4" s="41">
+        <f>(H4-'2016b'!H4)/'2016b'!H4</f>
+        <v>-1.0112359550561797E-2</v>
+      </c>
+      <c r="O4" s="42">
+        <f>(I4-'2016b'!I4)/'2016b'!I4</f>
+        <v>0.99790880233817914</v>
+      </c>
+      <c r="P4" s="41">
+        <f>(J4-'2016b'!J4)/'2016b'!J4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="42">
+        <f>(K4-'2016b'!K4)/'2016b'!K4</f>
+        <v>0.31276278582763062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2137</v>
+      </c>
+      <c r="I5" s="28">
+        <v>0.32510322638033684</v>
+      </c>
+      <c r="J5" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0.86438893252024418</v>
+      </c>
+      <c r="N5" s="41">
+        <f>(H5-'2016b'!H5)/'2016b'!H5</f>
+        <v>-1.747126436781609E-2</v>
+      </c>
+      <c r="O5" s="42">
+        <f>(I5-'2016b'!I5)/'2016b'!I5</f>
+        <v>0.20775877753994024</v>
+      </c>
+      <c r="P5" s="41">
+        <f>(J5-'2016b'!J5)/'2016b'!J5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="42">
+        <f>(K5-'2016b'!K5)/'2016b'!K5</f>
+        <v>-0.11220663600136047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1785</v>
+      </c>
+      <c r="I6" s="28">
+        <v>1.5277352234791262</v>
+      </c>
+      <c r="J6" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K6" s="11">
+        <v>4.3648306524758747</v>
+      </c>
+      <c r="N6" s="41">
+        <f>(H6-'2016b'!H6)/'2016b'!H6</f>
+        <v>-0.10301507537688442</v>
+      </c>
+      <c r="O6" s="42">
+        <f>(I6-'2016b'!I6)/'2016b'!I6</f>
+        <v>0.35993299132234663</v>
+      </c>
+      <c r="P6" s="41">
+        <f>(J6-'2016b'!J6)/'2016b'!J6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="42">
+        <f>(K6-'2016b'!K6)/'2016b'!K6</f>
+        <v>0.29491074873966433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2682</v>
+      </c>
+      <c r="I7" s="28">
+        <v>0.35118104968171077</v>
+      </c>
+      <c r="J7" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0.8643015008594912</v>
+      </c>
+      <c r="N7" s="41">
+        <f>(H7-'2016b'!H7)/'2016b'!H7</f>
+        <v>6.7567567567567571E-3</v>
+      </c>
+      <c r="O7" s="42">
+        <f>(I7-'2016b'!I7)/'2016b'!I7</f>
+        <v>0.35869514318562551</v>
+      </c>
+      <c r="P7" s="41">
+        <f>(J7-'2016b'!J7)/'2016b'!J7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="42">
+        <f>(K7-'2016b'!K7)/'2016b'!K7</f>
+        <v>-3.7614395568086739E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1739</v>
+      </c>
+      <c r="I8" s="28">
+        <v>1.4993689714919567</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K8" s="11">
+        <v>4.0615180569187714</v>
+      </c>
+      <c r="N8" s="41">
+        <f>(H8-'2016b'!H8)/'2016b'!H8</f>
+        <v>-1.0807736063708761E-2</v>
+      </c>
+      <c r="O8" s="42">
+        <f>(I8-'2016b'!I8)/'2016b'!I8</f>
+        <v>0.66927909516088513</v>
+      </c>
+      <c r="P8" s="41">
+        <f>(J8-'2016b'!J8)/'2016b'!J8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="42">
+        <f>(K8-'2016b'!K8)/'2016b'!K8</f>
+        <v>0.34708506464898231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2144</v>
+      </c>
+      <c r="I9" s="28">
+        <v>0.23314222546268454</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0.91576985858118942</v>
+      </c>
+      <c r="N9" s="41">
+        <f>(H9-'2016b'!H9)/'2016b'!H9</f>
+        <v>-2.5011368804001819E-2</v>
+      </c>
+      <c r="O9" s="42">
+        <f>(I9-'2016b'!I9)/'2016b'!I9</f>
+        <v>0.15382606960748119</v>
+      </c>
+      <c r="P9" s="41">
+        <f>(J9-'2016b'!J9)/'2016b'!J9</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="42">
+        <f>(K9-'2016b'!K9)/'2016b'!K9</f>
+        <v>-0.13564771303828932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1731</v>
+      </c>
+      <c r="I10" s="28">
+        <v>1.6853600625858636</v>
+      </c>
+      <c r="J10" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K10" s="11">
+        <v>4.3460723797301481</v>
+      </c>
+      <c r="N10" s="41">
+        <f>(H10-'2016b'!H10)/'2016b'!H10</f>
+        <v>-0.15970873786407766</v>
+      </c>
+      <c r="O10" s="42">
+        <f>(I10-'2016b'!I10)/'2016b'!I10</f>
+        <v>0.54649743429196251</v>
+      </c>
+      <c r="P10" s="41">
+        <f>(J10-'2016b'!J10)/'2016b'!J10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="42">
+        <f>(K10-'2016b'!K10)/'2016b'!K10</f>
+        <v>0.16556111989515887</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2706</v>
+      </c>
+      <c r="I11" s="28">
+        <v>0.26119220292052159</v>
+      </c>
+      <c r="J11" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0.87295723527403746</v>
+      </c>
+      <c r="N11" s="41">
+        <f>(H11-'2016b'!H11)/'2016b'!H11</f>
+        <v>1.7675817976682964E-2</v>
+      </c>
+      <c r="O11" s="42">
+        <f>(I11-'2016b'!I11)/'2016b'!I11</f>
+        <v>-1.1108175876853654E-2</v>
+      </c>
+      <c r="P11" s="41">
+        <f>(J11-'2016b'!J11)/'2016b'!J11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="42">
+        <f>(K11-'2016b'!K11)/'2016b'!K11</f>
+        <v>-7.8908586485496382E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1794</v>
+      </c>
+      <c r="I12" s="28">
+        <v>1.5754865952058559</v>
+      </c>
+      <c r="J12" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K12" s="11">
+        <v>4.3222776631873936</v>
+      </c>
+      <c r="N12" s="41">
+        <f>(H12-'2016b'!H12)/'2016b'!H12</f>
+        <v>1.7583664208735111E-2</v>
+      </c>
+      <c r="O12" s="42">
+        <f>(I12-'2016b'!I12)/'2016b'!I12</f>
+        <v>0.69135235824938168</v>
+      </c>
+      <c r="P12" s="41">
+        <f>(J12-'2016b'!J12)/'2016b'!J12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="42">
+        <f>(K12-'2016b'!K12)/'2016b'!K12</f>
+        <v>0.41551759348791484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2128</v>
+      </c>
+      <c r="I13" s="28">
+        <v>0.24129161652017428</v>
+      </c>
+      <c r="J13" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K13" s="11">
+        <v>1.0720425480474989</v>
+      </c>
+      <c r="N13" s="41">
+        <f>(H13-'2016b'!H13)/'2016b'!H13</f>
+        <v>-2.1609195402298852E-2</v>
+      </c>
+      <c r="O13" s="42">
+        <f>(I13-'2016b'!I13)/'2016b'!I13</f>
+        <v>0.16183875197007611</v>
+      </c>
+      <c r="P13" s="41">
+        <f>(J13-'2016b'!J13)/'2016b'!J13</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="42">
+        <f>(K13-'2016b'!K13)/'2016b'!K13</f>
+        <v>9.9427160521379787E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1765</v>
+      </c>
+      <c r="I14" s="28">
+        <v>1.6223244961465446</v>
+      </c>
+      <c r="J14" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K14" s="11">
+        <v>4.2342761760888852</v>
+      </c>
+      <c r="N14" s="41">
+        <f>(H14-'2016b'!H14)/'2016b'!H14</f>
+        <v>-0.11306532663316583</v>
+      </c>
+      <c r="O14" s="42">
+        <f>(I14-'2016b'!I14)/'2016b'!I14</f>
+        <v>0.52370159061969412</v>
+      </c>
+      <c r="P14" s="41">
+        <f>(J14-'2016b'!J14)/'2016b'!J14</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="42">
+        <f>(K14-'2016b'!K14)/'2016b'!K14</f>
+        <v>0.22212143789868993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2694</v>
+      </c>
+      <c r="I15" s="28">
+        <v>0.24683136257301494</v>
+      </c>
+      <c r="J15" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0.69751534425646211</v>
+      </c>
+      <c r="N15" s="41">
+        <f>(H15-'2016b'!H15)/'2016b'!H15</f>
+        <v>1.1261261261261261E-2</v>
+      </c>
+      <c r="O15" s="42">
+        <f>(I15-'2016b'!I15)/'2016b'!I15</f>
+        <v>0.33862482465213667</v>
+      </c>
+      <c r="P15" s="41">
+        <f>(J15-'2016b'!J15)/'2016b'!J15</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="42">
+        <f>(K15-'2016b'!K15)/'2016b'!K15</f>
+        <v>-0.23602748999711062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1801</v>
+      </c>
+      <c r="I16" s="28">
+        <v>1.4741388551622314</v>
+      </c>
+      <c r="J16" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K16" s="11">
+        <v>4.2110414023126053</v>
+      </c>
+      <c r="N16" s="41">
+        <f>(H16-'2016b'!H16)/'2016b'!H16</f>
+        <v>2.4459613196814563E-2</v>
+      </c>
+      <c r="O16" s="42">
+        <f>(I16-'2016b'!I16)/'2016b'!I16</f>
+        <v>0.72250641910200641</v>
+      </c>
+      <c r="P16" s="41">
+        <f>(J16-'2016b'!J16)/'2016b'!J16</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="42">
+        <f>(K16-'2016b'!K16)/'2016b'!K16</f>
+        <v>0.40584109400272034</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2119</v>
+      </c>
+      <c r="I17" s="28">
+        <v>0.19707856609035262</v>
+      </c>
+      <c r="J17" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K17" s="11">
+        <v>1.0281184022358176</v>
+      </c>
+      <c r="N17" s="41">
+        <f>(H17-'2016b'!H17)/'2016b'!H17</f>
+        <v>-3.6380172805820829E-2</v>
+      </c>
+      <c r="O17" s="42">
+        <f>(I17-'2016b'!I17)/'2016b'!I17</f>
+        <v>-8.4084087319600473E-2</v>
+      </c>
+      <c r="P17" s="41">
+        <f>(J17-'2016b'!J17)/'2016b'!J17</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="42">
+        <f>(K17-'2016b'!K17)/'2016b'!K17</f>
+        <v>0.110226255449864</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1811</v>
+      </c>
+      <c r="I18" s="28">
+        <v>1.5482417493022573</v>
+      </c>
+      <c r="J18" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K18" s="11">
+        <v>4.2466059409433345</v>
+      </c>
+      <c r="N18" s="41">
+        <f>(H18-'2016b'!H18)/'2016b'!H18</f>
+        <v>-0.12087378640776698</v>
+      </c>
+      <c r="O18" s="42">
+        <f>(I18-'2016b'!I18)/'2016b'!I18</f>
+        <v>0.35938626784103089</v>
+      </c>
+      <c r="P18" s="41">
+        <f>(J18-'2016b'!J18)/'2016b'!J18</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="42">
+        <f>(K18-'2016b'!K18)/'2016b'!K18</f>
+        <v>0.27694153505575458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2691</v>
+      </c>
+      <c r="I19" s="28">
+        <v>0.25322451766233589</v>
+      </c>
+      <c r="J19" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0.73138028742968408</v>
+      </c>
+      <c r="N19" s="41">
+        <f>(H19-'2016b'!H19)/'2016b'!H19</f>
+        <v>-7.4266617155588561E-4</v>
+      </c>
+      <c r="O19" s="42">
+        <f>(I19-'2016b'!I19)/'2016b'!I19</f>
+        <v>0.25424729541190055</v>
+      </c>
+      <c r="P19" s="41">
+        <f>(J19-'2016b'!J19)/'2016b'!J19</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="42">
+        <f>(K19-'2016b'!K19)/'2016b'!K19</f>
+        <v>-0.28182173077027434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1788</v>
+      </c>
+      <c r="I20" s="28">
+        <v>1.5777320683365861</v>
+      </c>
+      <c r="J20" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K20" s="11">
+        <v>4.2269330569986003</v>
+      </c>
+      <c r="N20" s="41">
+        <f>(H20-'2016b'!H20)/'2016b'!H20</f>
+        <v>3.9303761931499155E-3</v>
+      </c>
+      <c r="O20" s="42">
+        <f>(I20-'2016b'!I20)/'2016b'!I20</f>
+        <v>0.7009578235772681</v>
+      </c>
+      <c r="P20" s="41">
+        <f>(J20-'2016b'!J20)/'2016b'!J20</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="42">
+        <f>(K20-'2016b'!K20)/'2016b'!K20</f>
+        <v>0.18474248492065273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2194</v>
+      </c>
+      <c r="I21" s="28">
+        <v>0.20475430562915442</v>
+      </c>
+      <c r="J21" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K21" s="11">
+        <v>1.1004297076057181</v>
+      </c>
+      <c r="N21" s="41">
+        <f>(H21-'2016b'!H21)/'2016b'!H21</f>
+        <v>3.6596523330283625E-3</v>
+      </c>
+      <c r="O21" s="42">
+        <f>(I21-'2016b'!I21)/'2016b'!I21</f>
+        <v>-0.1417061979751206</v>
+      </c>
+      <c r="P21" s="41">
+        <f>(J21-'2016b'!J21)/'2016b'!J21</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="42">
+        <f>(K21-'2016b'!K21)/'2016b'!K21</f>
+        <v>-3.373301362569648E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1793</v>
+      </c>
+      <c r="I22" s="28">
+        <v>1.5548595657459479</v>
+      </c>
+      <c r="J22" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K22" s="11">
+        <v>4.1952539053442033</v>
+      </c>
+      <c r="N22" s="41">
+        <f>(H22-'2016b'!H22)/'2016b'!H22</f>
+        <v>-0.12918892666342885</v>
+      </c>
+      <c r="O22" s="42">
+        <f>(I22-'2016b'!I22)/'2016b'!I22</f>
+        <v>0.35900170147189964</v>
+      </c>
+      <c r="P22" s="41">
+        <f>(J22-'2016b'!J22)/'2016b'!J22</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="42">
+        <f>(K22-'2016b'!K22)/'2016b'!K22</f>
+        <v>0.16726317857368908</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2691</v>
+      </c>
+      <c r="I23" s="28">
+        <v>0.24322499663578176</v>
+      </c>
+      <c r="J23" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0.72033044606112762</v>
+      </c>
+      <c r="N23" s="41">
+        <f>(H23-'2016b'!H23)/'2016b'!H23</f>
+        <v>-1.1135857461024498E-3</v>
+      </c>
+      <c r="O23" s="42">
+        <f>(I23-'2016b'!I23)/'2016b'!I23</f>
+        <v>0.26327660141676618</v>
+      </c>
+      <c r="P23" s="41">
+        <f>(J23-'2016b'!J23)/'2016b'!J23</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="42">
+        <f>(K23-'2016b'!K23)/'2016b'!K23</f>
+        <v>-0.23981205873732311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1780</v>
+      </c>
+      <c r="I24" s="28">
+        <v>1.5679313593038311</v>
+      </c>
+      <c r="J24" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K24" s="11">
+        <v>4.8694459037506661</v>
+      </c>
+      <c r="N24" s="41">
+        <f>(H24-'2016b'!H24)/'2016b'!H24</f>
+        <v>-5.5865921787709499E-3</v>
+      </c>
+      <c r="O24" s="42">
+        <f>(I24-'2016b'!I24)/'2016b'!I24</f>
+        <v>0.77016548496305948</v>
+      </c>
+      <c r="P24" s="41">
+        <f>(J24-'2016b'!J24)/'2016b'!J24</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="42">
+        <f>(K24-'2016b'!K24)/'2016b'!K24</f>
+        <v>0.45758966913384957</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2141</v>
+      </c>
+      <c r="I25" s="28">
+        <v>0.24802879618767548</v>
+      </c>
+      <c r="J25" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K25" s="11">
+        <v>1.0378221761664335</v>
+      </c>
+      <c r="N25" s="41">
+        <f>(H25-'2016b'!H25)/'2016b'!H25</f>
+        <v>-2.0585544373284539E-2</v>
+      </c>
+      <c r="O25" s="42">
+        <f>(I25-'2016b'!I25)/'2016b'!I25</f>
+        <v>0.14813745178777896</v>
+      </c>
+      <c r="P25" s="41">
+        <f>(J25-'2016b'!J25)/'2016b'!J25</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="42">
+        <f>(K25-'2016b'!K25)/'2016b'!K25</f>
+        <v>-9.9614744131123686E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1812</v>
+      </c>
+      <c r="I26" s="28">
+        <v>1.5601081263547156</v>
+      </c>
+      <c r="J26" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K26" s="11">
+        <v>4.2336360242771116</v>
+      </c>
+      <c r="N26" s="41">
+        <f>(H26-'2016b'!H26)/'2016b'!H26</f>
+        <v>-0.11263467189030363</v>
+      </c>
+      <c r="O26" s="42">
+        <f>(I26-'2016b'!I26)/'2016b'!I26</f>
+        <v>0.49578985568901701</v>
+      </c>
+      <c r="P26" s="41">
+        <f>(J26-'2016b'!J26)/'2016b'!J26</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="42">
+        <f>(K26-'2016b'!K26)/'2016b'!K26</f>
+        <v>0.3480135827788805</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2686</v>
+      </c>
+      <c r="I27" s="28">
+        <v>0.216556439417842</v>
+      </c>
+      <c r="J27" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0.74025992292328902</v>
+      </c>
+      <c r="N27" s="41">
+        <f>(H27-'2016b'!H27)/'2016b'!H27</f>
+        <v>-2.5993316004455998E-3</v>
+      </c>
+      <c r="O27" s="42">
+        <f>(I27-'2016b'!I27)/'2016b'!I27</f>
+        <v>0.13834107818409902</v>
+      </c>
+      <c r="P27" s="41">
+        <f>(J27-'2016b'!J27)/'2016b'!J27</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="42">
+        <f>(K27-'2016b'!K27)/'2016b'!K27</f>
+        <v>-0.10974238317335189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1796</v>
+      </c>
+      <c r="I28" s="28">
+        <v>1.5230884207789324</v>
+      </c>
+      <c r="J28" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K28" s="11">
+        <v>4.1656658909324245</v>
+      </c>
+      <c r="N28" s="41">
+        <f>(H28-'2016b'!H28)/'2016b'!H28</f>
+        <v>5.5991041433370659E-3</v>
+      </c>
+      <c r="O28" s="42">
+        <f>(I28-'2016b'!I28)/'2016b'!I28</f>
+        <v>0.76143877834379514</v>
+      </c>
+      <c r="P28" s="41">
+        <f>(J28-'2016b'!J28)/'2016b'!J28</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="42">
+        <f>(K28-'2016b'!K28)/'2016b'!K28</f>
+        <v>0.30502331054371473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2152</v>
+      </c>
+      <c r="I29" s="28">
+        <v>0.22420670973372878</v>
+      </c>
+      <c r="J29" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K29" s="11">
+        <v>1.0909429922763632</v>
+      </c>
+      <c r="N29" s="41">
+        <f>(H29-'2016b'!H29)/'2016b'!H29</f>
+        <v>-1.555352241537054E-2</v>
+      </c>
+      <c r="O29" s="42">
+        <f>(I29-'2016b'!I29)/'2016b'!I29</f>
+        <v>1.7797604534606448E-2</v>
+      </c>
+      <c r="P29" s="41">
+        <f>(J29-'2016b'!J29)/'2016b'!J29</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="42">
+        <f>(K29-'2016b'!K29)/'2016b'!K29</f>
+        <v>-8.9505158137891963E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1771</v>
+      </c>
+      <c r="I30" s="28">
+        <v>1.5033151804931602</v>
+      </c>
+      <c r="J30" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K30" s="11">
+        <v>4.4487323549603781</v>
+      </c>
+      <c r="N30" s="41">
+        <f>(H30-'2016b'!H30)/'2016b'!H30</f>
+        <v>-0.14237288135593221</v>
+      </c>
+      <c r="O30" s="42">
+        <f>(I30-'2016b'!I30)/'2016b'!I30</f>
+        <v>0.49065615187424211</v>
+      </c>
+      <c r="P30" s="41">
+        <f>(J30-'2016b'!J30)/'2016b'!J30</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="42">
+        <f>(K30-'2016b'!K30)/'2016b'!K30</f>
+        <v>0.25371851262097683</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2686</v>
+      </c>
+      <c r="I31" s="28">
+        <v>0.21710915956886306</v>
+      </c>
+      <c r="J31" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0.72449599448952451</v>
+      </c>
+      <c r="N31" s="41">
+        <f>(H31-'2016b'!H31)/'2016b'!H31</f>
+        <v>-2.9695619896065329E-3</v>
+      </c>
+      <c r="O31" s="42">
+        <f>(I31-'2016b'!I31)/'2016b'!I31</f>
+        <v>0.15431314286084397</v>
+      </c>
+      <c r="P31" s="41">
+        <f>(J31-'2016b'!J31)/'2016b'!J31</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="42">
+        <f>(K31-'2016b'!K31)/'2016b'!K31</f>
+        <v>-0.22950417149558075</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1824</v>
+      </c>
+      <c r="I32" s="28">
+        <v>1.560286791052776</v>
+      </c>
+      <c r="J32" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K32" s="11">
+        <v>4.4037803169283665</v>
+      </c>
+      <c r="N32" s="41">
+        <f>(H32-'2016b'!H32)/'2016b'!H32</f>
+        <v>2.4143739472206625E-2</v>
+      </c>
+      <c r="O32" s="42">
+        <f>(I32-'2016b'!I32)/'2016b'!I32</f>
+        <v>0.70484842476336607</v>
+      </c>
+      <c r="P32" s="41">
+        <f>(J32-'2016b'!J32)/'2016b'!J32</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="42">
+        <f>(K32-'2016b'!K32)/'2016b'!K32</f>
+        <v>0.34061217198496341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="2">
+        <v>2173</v>
+      </c>
+      <c r="I33" s="28">
+        <v>0.23039649117738514</v>
+      </c>
+      <c r="J33" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K33" s="11">
+        <v>1.085770459198685</v>
+      </c>
+      <c r="N33" s="41">
+        <f>(H33-'2016b'!H33)/'2016b'!H33</f>
+        <v>-5.9469350411710887E-3</v>
+      </c>
+      <c r="O33" s="42">
+        <f>(I33-'2016b'!I33)/'2016b'!I33</f>
+        <v>0.14320320347256282</v>
+      </c>
+      <c r="P33" s="41">
+        <f>(J33-'2016b'!J33)/'2016b'!J33</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="42">
+        <f>(K33-'2016b'!K33)/'2016b'!K33</f>
+        <v>-2.6816433020855009E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1723</v>
+      </c>
+      <c r="I34" s="28">
+        <v>1.5295937164766105</v>
+      </c>
+      <c r="J34" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K34" s="11">
+        <v>4.2786287370382565</v>
+      </c>
+      <c r="N34" s="41">
+        <f>(H34-'2016b'!H34)/'2016b'!H34</f>
+        <v>-0.15621939275220373</v>
+      </c>
+      <c r="O34" s="42">
+        <f>(I34-'2016b'!I34)/'2016b'!I34</f>
+        <v>0.43652339291870657</v>
+      </c>
+      <c r="P34" s="41">
+        <f>(J34-'2016b'!J34)/'2016b'!J34</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="42">
+        <f>(K34-'2016b'!K34)/'2016b'!K34</f>
+        <v>0.23560694087038184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="2">
+        <v>10278</v>
+      </c>
+      <c r="I35" s="28">
+        <v>0.71894370389405415</v>
+      </c>
+      <c r="J35" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0.714965563329793</v>
+      </c>
+      <c r="N35" s="41">
+        <f>(H35-'2016b'!H35)/'2016b'!H35</f>
+        <v>-6.6685995940852418E-3</v>
+      </c>
+      <c r="O35" s="42">
+        <f>(I35-'2016b'!I35)/'2016b'!I35</f>
+        <v>-0.19874044323120543</v>
+      </c>
+      <c r="P35" s="41">
+        <f>(J35-'2016b'!J35)/'2016b'!J35</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="42">
+        <f>(K35-'2016b'!K35)/'2016b'!K35</f>
+        <v>-0.26938072768603483</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="2">
+        <v>13612</v>
+      </c>
+      <c r="I36" s="28">
+        <v>7.0045817991611123</v>
+      </c>
+      <c r="J36" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K36" s="11">
+        <v>4.1891363500550822</v>
+      </c>
+      <c r="N36" s="41">
+        <f>(H36-'2016b'!H36)/'2016b'!H36</f>
+        <v>-3.5139092240117132E-3</v>
+      </c>
+      <c r="O36" s="42">
+        <f>(I36-'2016b'!I36)/'2016b'!I36</f>
+        <v>0.33198033093287233</v>
+      </c>
+      <c r="P36" s="41">
+        <f>(J36-'2016b'!J36)/'2016b'!J36</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="42">
+        <f>(K36-'2016b'!K36)/'2016b'!K36</f>
+        <v>0.37566012154585765</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="2">
+        <v>2881</v>
+      </c>
+      <c r="I37" s="28">
+        <v>0.28785923958783954</v>
+      </c>
+      <c r="J37" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K37" s="11">
+        <v>1.0649693266925819</v>
+      </c>
+      <c r="N37" s="41">
+        <f>(H37-'2016b'!H37)/'2016b'!H37</f>
+        <v>2.0545518951470068E-2</v>
+      </c>
+      <c r="O37" s="42">
+        <f>(I37-'2016b'!I37)/'2016b'!I37</f>
+        <v>0.17858584862574239</v>
+      </c>
+      <c r="P37" s="41">
+        <f>(J37-'2016b'!J37)/'2016b'!J37</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="42">
+        <f>(K37-'2016b'!K37)/'2016b'!K37</f>
+        <v>9.8629843674745907E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="2">
+        <v>5716</v>
+      </c>
+      <c r="I38" s="28">
+        <v>3.8759618433026968</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1544</v>
+      </c>
+      <c r="K38" s="11">
+        <v>1.4022848553918346</v>
+      </c>
+      <c r="N38" s="41">
+        <f>(H38-'2016b'!H38)/'2016b'!H38</f>
+        <v>-0.53962628865979378</v>
+      </c>
+      <c r="O38" s="42">
+        <f>(I38-'2016b'!I38)/'2016b'!I38</f>
+        <v>-0.35615944301785191</v>
+      </c>
+      <c r="P38" s="41">
+        <f>(J38-'2016b'!J38)/'2016b'!J38</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="42">
+        <f>(K38-'2016b'!K38)/'2016b'!K38</f>
+        <v>0.86342929883492658</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="2">
+        <v>10282</v>
+      </c>
+      <c r="I39" s="28">
+        <v>0.69680144573953118</v>
+      </c>
+      <c r="J39" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0.71293714880032355</v>
+      </c>
+      <c r="N39" s="41">
+        <f>(H39-'2016b'!H39)/'2016b'!H39</f>
+        <v>-5.1282051282051282E-3</v>
+      </c>
+      <c r="O39" s="42">
+        <f>(I39-'2016b'!I39)/'2016b'!I39</f>
+        <v>-0.1856599881426676</v>
+      </c>
+      <c r="P39" s="41">
+        <f>(J39-'2016b'!J39)/'2016b'!J39</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="42">
+        <f>(K39-'2016b'!K39)/'2016b'!K39</f>
+        <v>-8.7490164151677735E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="2">
+        <v>13617</v>
+      </c>
+      <c r="I40" s="28">
+        <v>6.154833488302784</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1545</v>
+      </c>
+      <c r="K40" s="11">
+        <v>1.420939350557624</v>
+      </c>
+      <c r="N40" s="41">
+        <f>(H40-'2016b'!H40)/'2016b'!H40</f>
+        <v>1.25E-3</v>
+      </c>
+      <c r="O40" s="42">
+        <f>(I40-'2016b'!I40)/'2016b'!I40</f>
+        <v>0.38252072753990207</v>
+      </c>
+      <c r="P40" s="41">
+        <f>(J40-'2016b'!J40)/'2016b'!J40</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="42">
+        <f>(K40-'2016b'!K40)/'2016b'!K40</f>
+        <v>1.0386306414296131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="2">
+        <v>2850</v>
+      </c>
+      <c r="I41" s="28">
+        <v>0.2795380263100874</v>
+      </c>
+      <c r="J41" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K41" s="11">
+        <v>0.87096037216997024</v>
+      </c>
+      <c r="N41" s="41">
+        <f>(H41-'2016b'!H41)/'2016b'!H41</f>
+        <v>-2.6971662683509732E-2</v>
+      </c>
+      <c r="O41" s="42">
+        <f>(I41-'2016b'!I41)/'2016b'!I41</f>
+        <v>0.20615798430664328</v>
+      </c>
+      <c r="P41" s="41">
+        <f>(J41-'2016b'!J41)/'2016b'!J41</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="42">
+        <f>(K41-'2016b'!K41)/'2016b'!K41</f>
+        <v>-8.3334094806332679E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="2">
+        <v>6185</v>
+      </c>
+      <c r="I42" s="28">
+        <v>3.8411876108576437</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1544</v>
+      </c>
+      <c r="K42" s="11">
+        <v>1.4131974670667742</v>
+      </c>
+      <c r="N42" s="41">
+        <f>(H42-'2016b'!H42)/'2016b'!H42</f>
+        <v>-0.45883279377023362</v>
+      </c>
+      <c r="O42" s="42">
+        <f>(I42-'2016b'!I42)/'2016b'!I42</f>
+        <v>-0.28365432577559496</v>
+      </c>
+      <c r="P42" s="41">
+        <f>(J42-'2016b'!J42)/'2016b'!J42</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="42">
+        <f>(K42-'2016b'!K42)/'2016b'!K42</f>
+        <v>0.90739179856364416</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="2">
+        <v>10293</v>
+      </c>
+      <c r="I43" s="28">
+        <v>0.70326226533152181</v>
+      </c>
+      <c r="J43" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K43" s="11">
+        <v>0.71922918727329543</v>
+      </c>
+      <c r="N43" s="41">
+        <f>(H43-'2016b'!H43)/'2016b'!H43</f>
+        <v>-5.2189040301536677E-3</v>
+      </c>
+      <c r="O43" s="42">
+        <f>(I43-'2016b'!I43)/'2016b'!I43</f>
+        <v>-0.21415816326351161</v>
+      </c>
+      <c r="P43" s="41">
+        <f>(J43-'2016b'!J43)/'2016b'!J43</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="42">
+        <f>(K43-'2016b'!K43)/'2016b'!K43</f>
+        <v>-0.24964841290129094</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="2">
+        <v>13625</v>
+      </c>
+      <c r="I44" s="28">
+        <v>7.0370090617214309</v>
+      </c>
+      <c r="J44" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K44" s="11">
+        <v>4.233434551319724</v>
+      </c>
+      <c r="N44" s="41">
+        <f>(H44-'2016b'!H44)/'2016b'!H44</f>
+        <v>2.0592777818636463E-3</v>
+      </c>
+      <c r="O44" s="42">
+        <f>(I44-'2016b'!I44)/'2016b'!I44</f>
+        <v>0.34155126894529336</v>
+      </c>
+      <c r="P44" s="41">
+        <f>(J44-'2016b'!J44)/'2016b'!J44</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="42">
+        <f>(K44-'2016b'!K44)/'2016b'!K44</f>
+        <v>0.18591806519867604</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="2">
+        <v>2748</v>
+      </c>
+      <c r="I45" s="28">
+        <v>0.28787748619530107</v>
+      </c>
+      <c r="J45" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K45" s="11">
+        <v>1.0475673851014931</v>
+      </c>
+      <c r="N45" s="41">
+        <f>(H45-'2016b'!H45)/'2016b'!H45</f>
+        <v>-2.6567481402763018E-2</v>
+      </c>
+      <c r="O45" s="42">
+        <f>(I45-'2016b'!I45)/'2016b'!I45</f>
+        <v>0.23513171716805881</v>
+      </c>
+      <c r="P45" s="41">
+        <f>(J45-'2016b'!J45)/'2016b'!J45</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="42">
+        <f>(K45-'2016b'!K45)/'2016b'!K45</f>
+        <v>-6.8511054777398467E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="2">
+        <v>6440</v>
+      </c>
+      <c r="I46" s="28">
+        <v>4.4030820040553085</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1544</v>
+      </c>
+      <c r="K46" s="11">
+        <v>1.4197863930486507</v>
+      </c>
+      <c r="N46" s="41">
+        <f>(H46-'2016b'!H46)/'2016b'!H46</f>
+        <v>-0.48131443298969073</v>
+      </c>
+      <c r="O46" s="42">
+        <f>(I46-'2016b'!I46)/'2016b'!I46</f>
+        <v>-0.21406965922048887</v>
+      </c>
+      <c r="P46" s="41">
+        <f>(J46-'2016b'!J46)/'2016b'!J46</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="42">
+        <f>(K46-'2016b'!K46)/'2016b'!K46</f>
+        <v>0.95285612697635325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="2">
+        <v>10316</v>
+      </c>
+      <c r="I47" s="28">
+        <v>0.83475150021325717</v>
+      </c>
+      <c r="J47" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0.72795980880596478</v>
+      </c>
+      <c r="N47" s="41">
+        <f>(H47-'2016b'!H47)/'2016b'!H47</f>
+        <v>-1.838413159167876E-3</v>
+      </c>
+      <c r="O47" s="42">
+        <f>(I47-'2016b'!I47)/'2016b'!I47</f>
+        <v>-3.0701316340083027E-2</v>
+      </c>
+      <c r="P47" s="41">
+        <f>(J47-'2016b'!J47)/'2016b'!J47</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="42">
+        <f>(K47-'2016b'!K47)/'2016b'!K47</f>
+        <v>-6.6738324589406942E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="2">
+        <v>13624</v>
+      </c>
+      <c r="I48" s="28">
+        <v>5.9613373394773719</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1545</v>
+      </c>
+      <c r="K48" s="11">
+        <v>1.4006730717327358</v>
+      </c>
+      <c r="N48" s="41">
+        <f>(H48-'2016b'!H48)/'2016b'!H48</f>
+        <v>1.7647058823529412E-3</v>
+      </c>
+      <c r="O48" s="42">
+        <f>(I48-'2016b'!I48)/'2016b'!I48</f>
+        <v>0.33361159092099757</v>
+      </c>
+      <c r="P48" s="41">
+        <f>(J48-'2016b'!J48)/'2016b'!J48</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="42">
+        <f>(K48-'2016b'!K48)/'2016b'!K48</f>
+        <v>1.0153116720722355</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="2">
+        <v>2783</v>
+      </c>
+      <c r="I49" s="28">
+        <v>0.24182609006373387</v>
+      </c>
+      <c r="J49" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K49" s="11">
+        <v>0.905379556044835</v>
+      </c>
+      <c r="N49" s="41">
+        <f>(H49-'2016b'!H49)/'2016b'!H49</f>
+        <v>-4.9846363946739504E-2</v>
+      </c>
+      <c r="O49" s="42">
+        <f>(I49-'2016b'!I49)/'2016b'!I49</f>
+        <v>3.5649015206363523E-2</v>
+      </c>
+      <c r="P49" s="41">
+        <f>(J49-'2016b'!J49)/'2016b'!J49</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="42">
+        <f>(K49-'2016b'!K49)/'2016b'!K49</f>
+        <v>-4.195946730539786E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="2">
+        <v>5763</v>
+      </c>
+      <c r="I50" s="28">
+        <v>3.8494020054542153</v>
+      </c>
+      <c r="J50" s="3">
+        <v>1544</v>
+      </c>
+      <c r="K50" s="11">
+        <v>1.4375498455500706</v>
+      </c>
+      <c r="N50" s="41">
+        <f>(H50-'2016b'!H50)/'2016b'!H50</f>
+        <v>-0.49575640913465746</v>
+      </c>
+      <c r="O50" s="42">
+        <f>(I50-'2016b'!I50)/'2016b'!I50</f>
+        <v>-0.24688791328187781</v>
+      </c>
+      <c r="P50" s="41">
+        <f>(J50-'2016b'!J50)/'2016b'!J50</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="42">
+        <f>(K50-'2016b'!K50)/'2016b'!K50</f>
+        <v>0.99482421517356479</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="2">
+        <v>10341</v>
+      </c>
+      <c r="I51" s="28">
+        <v>0.7955235749969779</v>
+      </c>
+      <c r="J51" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K51" s="11">
+        <v>0.74813675528182266</v>
+      </c>
+      <c r="N51" s="41">
+        <f>(H51-'2016b'!H51)/'2016b'!H51</f>
+        <v>2.0348837209302325E-3</v>
+      </c>
+      <c r="O51" s="42">
+        <f>(I51-'2016b'!I51)/'2016b'!I51</f>
+        <v>-0.15124107181067081</v>
+      </c>
+      <c r="P51" s="41">
+        <f>(J51-'2016b'!J51)/'2016b'!J51</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="42">
+        <f>(K51-'2016b'!K51)/'2016b'!K51</f>
+        <v>-0.11627381517191514</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="2">
+        <v>14977</v>
+      </c>
+      <c r="I52" s="28">
+        <v>8.6270328811469206</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1526</v>
+      </c>
+      <c r="K52" s="11">
+        <v>1.3459127219148599</v>
+      </c>
+      <c r="N52" s="41">
+        <f>(H52-'2016b'!H52)/'2016b'!H52</f>
+        <v>1.4710799063858242E-3</v>
+      </c>
+      <c r="O52" s="42">
+        <f>(I52-'2016b'!I52)/'2016b'!I52</f>
+        <v>0.46973785952970631</v>
+      </c>
+      <c r="P52" s="41">
+        <f>(J52-'2016b'!J52)/'2016b'!J52</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="42">
+        <f>(K52-'2016b'!K52)/'2016b'!K52</f>
+        <v>0.86947597651041597</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="2">
+        <v>2966</v>
+      </c>
+      <c r="I53" s="28">
+        <v>0.33717069625252699</v>
+      </c>
+      <c r="J53" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K53" s="11">
+        <v>0.89726665820226825</v>
+      </c>
+      <c r="N53" s="41">
+        <f>(H53-'2016b'!H53)/'2016b'!H53</f>
+        <v>2.0646937370956641E-2</v>
+      </c>
+      <c r="O53" s="42">
+        <f>(I53-'2016b'!I53)/'2016b'!I53</f>
+        <v>0.35119190447045767</v>
+      </c>
+      <c r="P53" s="41">
+        <f>(J53-'2016b'!J53)/'2016b'!J53</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="42">
+        <f>(K53-'2016b'!K53)/'2016b'!K53</f>
+        <v>-0.33814096261276572</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="2">
+        <v>9212</v>
+      </c>
+      <c r="I54" s="28">
+        <v>6.0219012508809691</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1524</v>
+      </c>
+      <c r="K54" s="11">
+        <v>1.4159074684124615</v>
+      </c>
+      <c r="N54" s="41">
+        <f>(H54-'2016b'!H54)/'2016b'!H54</f>
+        <v>-0.68271681476889168</v>
+      </c>
+      <c r="O54" s="42">
+        <f>(I54-'2016b'!I54)/'2016b'!I54</f>
+        <v>-0.47193206953978833</v>
+      </c>
+      <c r="P54" s="41">
+        <f>(J54-'2016b'!J54)/'2016b'!J54</f>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="42">
+        <f>(K54-'2016b'!K54)/'2016b'!K54</f>
+        <v>0.88185494549165089</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="2">
+        <v>10340</v>
+      </c>
+      <c r="I55" s="28">
+        <v>0.68193350175965717</v>
+      </c>
+      <c r="J55" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K55" s="11">
+        <v>0.73494103684826351</v>
+      </c>
+      <c r="N55" s="41">
+        <f>(H55-'2016b'!H55)/'2016b'!H55</f>
+        <v>-1.544998068752414E-3</v>
+      </c>
+      <c r="O55" s="42">
+        <f>(I55-'2016b'!I55)/'2016b'!I55</f>
+        <v>-0.19335590593638807</v>
+      </c>
+      <c r="P55" s="41">
+        <f>(J55-'2016b'!J55)/'2016b'!J55</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="42">
+        <f>(K55-'2016b'!K55)/'2016b'!K55</f>
+        <v>-9.120259746963387E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="2">
+        <v>14973</v>
+      </c>
+      <c r="I56" s="28">
+        <v>7.7083006098168267</v>
+      </c>
+      <c r="J56" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K56" s="11">
+        <v>4.3146357558999267</v>
+      </c>
+      <c r="N56" s="41">
+        <f>(H56-'2016b'!H56)/'2016b'!H56</f>
+        <v>1.6724645437516724E-3</v>
+      </c>
+      <c r="O56" s="42">
+        <f>(I56-'2016b'!I56)/'2016b'!I56</f>
+        <v>0.15443107408226839</v>
+      </c>
+      <c r="P56" s="41">
+        <f>(J56-'2016b'!J56)/'2016b'!J56</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="42">
+        <f>(K56-'2016b'!K56)/'2016b'!K56</f>
+        <v>0.30718890263940918</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="2">
+        <v>2989</v>
+      </c>
+      <c r="I57" s="28">
+        <v>0.31701731831130692</v>
+      </c>
+      <c r="J57" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K57" s="11">
+        <v>1.0790336596688392</v>
+      </c>
+      <c r="N57" s="41">
+        <f>(H57-'2016b'!H57)/'2016b'!H57</f>
+        <v>5.0437121721587088E-3</v>
+      </c>
+      <c r="O57" s="42">
+        <f>(I57-'2016b'!I57)/'2016b'!I57</f>
+        <v>0.10163036527598775</v>
+      </c>
+      <c r="P57" s="41">
+        <f>(J57-'2016b'!J57)/'2016b'!J57</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="42">
+        <f>(K57-'2016b'!K57)/'2016b'!K57</f>
+        <v>-0.34334410203114618</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="2">
+        <v>549</v>
+      </c>
+      <c r="I58" s="28">
+        <v>1.2657914884137844</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1524</v>
+      </c>
+      <c r="K58" s="11">
+        <v>2.0178193327367708</v>
+      </c>
+      <c r="N58" s="41">
+        <f>(H58-'2016b'!H58)/'2016b'!H58</f>
+        <v>-0.978481558421197</v>
+      </c>
+      <c r="O58" s="42">
+        <f>(I58-'2016b'!I58)/'2016b'!I58</f>
+        <v>-0.86817184521804336</v>
+      </c>
+      <c r="P58" s="41">
+        <f>(J58-'2016b'!J58)/'2016b'!J58</f>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="42">
+        <f>(K58-'2016b'!K58)/'2016b'!K58</f>
+        <v>1.6228927364099592</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="2">
+        <v>10328</v>
+      </c>
+      <c r="I59" s="28">
+        <v>0.69136205602772871</v>
+      </c>
+      <c r="J59" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K59" s="11">
+        <v>0.74772430592566175</v>
+      </c>
+      <c r="N59" s="41">
+        <f>(H59-'2016b'!H59)/'2016b'!H59</f>
+        <v>7.7519379844961239E-4</v>
+      </c>
+      <c r="O59" s="42">
+        <f>(I59-'2016b'!I59)/'2016b'!I59</f>
+        <v>-6.4557607730345329E-2</v>
+      </c>
+      <c r="P59" s="41">
+        <f>(J59-'2016b'!J59)/'2016b'!J59</f>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="42">
+        <f>(K59-'2016b'!K59)/'2016b'!K59</f>
+        <v>-0.11308954464286587</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="2">
+        <v>14923</v>
+      </c>
+      <c r="I60" s="28">
+        <v>8.0473503265002329</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1526</v>
+      </c>
+      <c r="K60" s="11">
+        <v>1.3522648221373923</v>
+      </c>
+      <c r="N60" s="41">
+        <f>(H60-'2016b'!H60)/'2016b'!H60</f>
+        <v>-2.3398850113651557E-3</v>
+      </c>
+      <c r="O60" s="42">
+        <f>(I60-'2016b'!I60)/'2016b'!I60</f>
+        <v>0.21093910541375935</v>
+      </c>
+      <c r="P60" s="41">
+        <f>(J60-'2016b'!J60)/'2016b'!J60</f>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="42">
+        <f>(K60-'2016b'!K60)/'2016b'!K60</f>
+        <v>0.84744588027906853</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="2">
+        <v>2868</v>
+      </c>
+      <c r="I61" s="28">
+        <v>0.32007210451048534</v>
+      </c>
+      <c r="J61" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K61" s="11">
+        <v>1.3704224773875116</v>
+      </c>
+      <c r="N61" s="41">
+        <f>(H61-'2016b'!H61)/'2016b'!H61</f>
+        <v>-1.307639366827254E-2</v>
+      </c>
+      <c r="O61" s="42">
+        <f>(I61-'2016b'!I61)/'2016b'!I61</f>
+        <v>0.14666597735073003</v>
+      </c>
+      <c r="P61" s="41">
+        <f>(J61-'2016b'!J61)/'2016b'!J61</f>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="42">
+        <f>(K61-'2016b'!K61)/'2016b'!K61</f>
+        <v>0.35584829609025576</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="2">
+        <v>9198</v>
+      </c>
+      <c r="I62" s="28">
+        <v>5.9026813389664667</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1524</v>
+      </c>
+      <c r="K62" s="11">
+        <v>1.4310475909536362</v>
+      </c>
+      <c r="N62" s="41">
+        <f>(H62-'2016b'!H62)/'2016b'!H62</f>
+        <v>-0.64029564741308509</v>
+      </c>
+      <c r="O62" s="42">
+        <f>(I62-'2016b'!I62)/'2016b'!I62</f>
+        <v>-0.46139030838394202</v>
+      </c>
+      <c r="P62" s="41">
+        <f>(J62-'2016b'!J62)/'2016b'!J62</f>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="42">
+        <f>(K62-'2016b'!K62)/'2016b'!K62</f>
+        <v>0.96095806828218633</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="2">
+        <v>10308</v>
+      </c>
+      <c r="I63" s="28">
+        <v>0.84770050930843077</v>
+      </c>
+      <c r="J63" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K63" s="11">
+        <v>0.72830307310883413</v>
+      </c>
+      <c r="N63" s="41">
+        <f>(H63-'2016b'!H63)/'2016b'!H63</f>
+        <v>-4.6349942062572421E-3</v>
+      </c>
+      <c r="O63" s="42">
+        <f>(I63-'2016b'!I63)/'2016b'!I63</f>
+        <v>6.0625421673424556E-3</v>
+      </c>
+      <c r="P63" s="41">
+        <f>(J63-'2016b'!J63)/'2016b'!J63</f>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="42">
+        <f>(K63-'2016b'!K63)/'2016b'!K63</f>
+        <v>-9.6684808682890019E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="2">
+        <v>14929</v>
+      </c>
+      <c r="I64" s="28">
+        <v>8.2370580234514517</v>
+      </c>
+      <c r="J64" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K64" s="11">
+        <v>4.7786983022292029</v>
+      </c>
+      <c r="N64" s="41">
+        <f>(H64-'2016b'!H64)/'2016b'!H64</f>
+        <v>-3.3380065424928234E-3</v>
+      </c>
+      <c r="O64" s="42">
+        <f>(I64-'2016b'!I64)/'2016b'!I64</f>
+        <v>0.38675989390134385</v>
+      </c>
+      <c r="P64" s="41">
+        <f>(J64-'2016b'!J64)/'2016b'!J64</f>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="42">
+        <f>(K64-'2016b'!K64)/'2016b'!K64</f>
+        <v>0.39620595994597713</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="2">
+        <v>2923</v>
+      </c>
+      <c r="I65" s="28">
+        <v>0.31958324748557948</v>
+      </c>
+      <c r="J65" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K65" s="11">
+        <v>1.1039596658742064</v>
+      </c>
+      <c r="N65" s="41">
+        <f>(H65-'2016b'!H65)/'2016b'!H65</f>
+        <v>-1.714862138533961E-2</v>
+      </c>
+      <c r="O65" s="42">
+        <f>(I65-'2016b'!I65)/'2016b'!I65</f>
+        <v>0.29288700138058521</v>
+      </c>
+      <c r="P65" s="41">
+        <f>(J65-'2016b'!J65)/'2016b'!J65</f>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="42">
+        <f>(K65-'2016b'!K65)/'2016b'!K65</f>
+        <v>-8.5834501634617769E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="4">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="4">
+        <v>8423</v>
+      </c>
+      <c r="I66" s="29">
+        <v>6.3720479460022066</v>
+      </c>
+      <c r="J66" s="5">
+        <v>1524</v>
+      </c>
+      <c r="K66" s="13">
+        <v>1.4349523649503959</v>
+      </c>
+      <c r="N66" s="43">
+        <f>(H66-'2016b'!H66)/'2016b'!H66</f>
+        <v>-0.66985458393760045</v>
+      </c>
+      <c r="O66" s="44">
+        <f>(I66-'2016b'!I66)/'2016b'!I66</f>
+        <v>-0.38998016880759728</v>
+      </c>
+      <c r="P66" s="43">
+        <f>(J66-'2016b'!J66)/'2016b'!J66</f>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="44">
+        <f>(K66-'2016b'!K66)/'2016b'!K66</f>
+        <v>0.7377517812934854</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N3:N66">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{509624A8-5F17-423A-99A6-4526E8C806C4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O66">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9D2DAB79-89A2-4D47-A2AA-612EE1636D9F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P66">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ACBC0566-EE03-4D9B-ABC3-F58723141529}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q66">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3BFBDB7B-C629-4C28-9D8D-6BAC3167560F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{509624A8-5F17-423A-99A6-4526E8C806C4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N3:N66</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9D2DAB79-89A2-4D47-A2AA-612EE1636D9F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O3:O66</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ACBC0566-EE03-4D9B-ABC3-F58723141529}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P3:P66</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3BFBDB7B-C629-4C28-9D8D-6BAC3167560F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q3:Q66</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/SimResults/Hydraulic_Lift_Res.xlsx
+++ b/SimResults/Hydraulic_Lift_Res.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SMILLER\TMW\Simscape\zECLArch\zR2017b\Demos\ssczAll\Hydraulic_Lift\SimResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SMILLER\TMW\Simscape\zECLArch\zR18a\Demos\ssczAll\Hydraulic_Lift\SimResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21204" windowHeight="11460" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21204" windowHeight="11460" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2015b" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="2016b" sheetId="11" r:id="rId4"/>
     <sheet name="2017a" sheetId="10" r:id="rId5"/>
     <sheet name="2017b" sheetId="12" r:id="rId6"/>
+    <sheet name="2018a" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2805" uniqueCount="23">
   <si>
     <t>Run</t>
   </si>
@@ -94,22 +95,10 @@
     <t>with rel.</t>
   </si>
   <si>
-    <t>-</t>
+    <t>:</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>:</t>
+    <t>10-Feb-2018 18:43:08</t>
   </si>
 </sst>
 </file>
@@ -244,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -333,6 +322,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -693,14 +694,14 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="48" t="s">
+      <c r="I1" s="56"/>
+      <c r="J1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="49"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
@@ -3019,14 +3020,14 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="48" t="s">
+      <c r="I1" s="56"/>
+      <c r="J1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="49"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
@@ -5345,14 +5346,14 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="48" t="s">
+      <c r="I1" s="56"/>
+      <c r="J1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="49"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
@@ -7671,14 +7672,14 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="48" t="s">
+      <c r="I1" s="56"/>
+      <c r="J1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="49"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
@@ -9970,10 +9971,10 @@
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H67" sqref="H67"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9997,25 +9998,25 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="48" t="s">
+      <c r="I1" s="56"/>
+      <c r="J1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="49"/>
+      <c r="K1" s="55"/>
       <c r="M1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="51" t="s">
+      <c r="O1" s="58"/>
+      <c r="P1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="52"/>
+      <c r="Q1" s="58"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
@@ -13461,11 +13462,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:U1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13484,51 +13485,35 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
-      <c r="B1" s="8">
-        <v>2</v>
-      </c>
-      <c r="C1" s="8">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="56"/>
+      <c r="J1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="K1" s="55"/>
+      <c r="M1" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="58"/>
+      <c r="P1" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="58"/>
+      <c r="R1">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="48">
-        <v>0</v>
-      </c>
-      <c r="K1" s="49"/>
-      <c r="L1">
-        <v>7</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="51">
-        <v>1</v>
-      </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="52"/>
-      <c r="R1">
-        <v>9</v>
-      </c>
-      <c r="S1" t="s">
-        <v>26</v>
       </c>
       <c r="T1">
         <v>2</v>
@@ -16975,4 +16960,3501 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="5" width="8.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="5.5546875" customWidth="1"/>
+    <col min="22" max="22" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="56"/>
+      <c r="J1" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="55"/>
+      <c r="M1" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="58"/>
+      <c r="P1" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="58"/>
+    </row>
+    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="14">
+        <v>2661</v>
+      </c>
+      <c r="I3" s="27">
+        <v>1.3407285087929375</v>
+      </c>
+      <c r="J3" s="15">
+        <v>10001</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0.96062356070817911</v>
+      </c>
+      <c r="N3" s="41">
+        <f>(H3-'2016b'!H3)/'2016b'!H3</f>
+        <v>7.5216246709289205E-4</v>
+      </c>
+      <c r="O3" s="42">
+        <f>(I3-'2016b'!I3)/'2016b'!I3</f>
+        <v>1.9475647950694792</v>
+      </c>
+      <c r="P3" s="41">
+        <f>(J3-'2016b'!J3)/'2016b'!J3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="42">
+        <f>(K3-'2016b'!K3)/'2016b'!K3</f>
+        <v>-9.8884399665363637E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1763</v>
+      </c>
+      <c r="I4" s="28">
+        <v>2.3314725651687009</v>
+      </c>
+      <c r="J4" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K4" s="11">
+        <v>4.4335821706858498</v>
+      </c>
+      <c r="N4" s="41">
+        <f>(H4-'2016b'!H4)/'2016b'!H4</f>
+        <v>-9.5505617977528091E-3</v>
+      </c>
+      <c r="O4" s="42">
+        <f>(I4-'2016b'!I4)/'2016b'!I4</f>
+        <v>1.3035545972613998</v>
+      </c>
+      <c r="P4" s="41">
+        <f>(J4-'2016b'!J4)/'2016b'!J4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="42">
+        <f>(K4-'2016b'!K4)/'2016b'!K4</f>
+        <v>0.43559136675565047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2161</v>
+      </c>
+      <c r="I5" s="28">
+        <v>0.36602165105446066</v>
+      </c>
+      <c r="J5" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0.88571386213361492</v>
+      </c>
+      <c r="N5" s="41">
+        <f>(H5-'2016b'!H5)/'2016b'!H5</f>
+        <v>-6.4367816091954024E-3</v>
+      </c>
+      <c r="O5" s="42">
+        <f>(I5-'2016b'!I5)/'2016b'!I5</f>
+        <v>0.35977076189799195</v>
+      </c>
+      <c r="P5" s="41">
+        <f>(J5-'2016b'!J5)/'2016b'!J5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="42">
+        <f>(K5-'2016b'!K5)/'2016b'!K5</f>
+        <v>-9.0304306753241345E-2</v>
+      </c>
+      <c r="V5" s="51"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1769</v>
+      </c>
+      <c r="I6" s="28">
+        <v>1.7021337821985119</v>
+      </c>
+      <c r="J6" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K6" s="11">
+        <v>4.31140173813613</v>
+      </c>
+      <c r="N6" s="41">
+        <f>(H6-'2016b'!H6)/'2016b'!H6</f>
+        <v>-0.11105527638190955</v>
+      </c>
+      <c r="O6" s="42">
+        <f>(I6-'2016b'!I6)/'2016b'!I6</f>
+        <v>0.51517609234966322</v>
+      </c>
+      <c r="P6" s="41">
+        <f>(J6-'2016b'!J6)/'2016b'!J6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="42">
+        <f>(K6-'2016b'!K6)/'2016b'!K6</f>
+        <v>0.27906003631104315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2622</v>
+      </c>
+      <c r="I7" s="28">
+        <v>0.52294579937764052</v>
+      </c>
+      <c r="J7" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0.91126207598624509</v>
+      </c>
+      <c r="N7" s="41">
+        <f>(H7-'2016b'!H7)/'2016b'!H7</f>
+        <v>-1.5765765765765764E-2</v>
+      </c>
+      <c r="O7" s="42">
+        <f>(I7-'2016b'!I7)/'2016b'!I7</f>
+        <v>1.0232410558818608</v>
+      </c>
+      <c r="P7" s="41">
+        <f>(J7-'2016b'!J7)/'2016b'!J7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="42">
+        <f>(K7-'2016b'!K7)/'2016b'!K7</f>
+        <v>1.46754378209432E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1754</v>
+      </c>
+      <c r="I8" s="28">
+        <v>1.5155989012534621</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K8" s="11">
+        <v>4.5606922133599737</v>
+      </c>
+      <c r="N8" s="41">
+        <f>(H8-'2016b'!H8)/'2016b'!H8</f>
+        <v>-2.2753128555176336E-3</v>
+      </c>
+      <c r="O8" s="42">
+        <f>(I8-'2016b'!I8)/'2016b'!I8</f>
+        <v>0.6873482182266053</v>
+      </c>
+      <c r="P8" s="41">
+        <f>(J8-'2016b'!J8)/'2016b'!J8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="42">
+        <f>(K8-'2016b'!K8)/'2016b'!K8</f>
+        <v>0.5126463255807705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2171</v>
+      </c>
+      <c r="I9" s="28">
+        <v>0.24688877282054439</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0.8792344355010997</v>
+      </c>
+      <c r="N9" s="41">
+        <f>(H9-'2016b'!H9)/'2016b'!H9</f>
+        <v>-1.2733060482037289E-2</v>
+      </c>
+      <c r="O9" s="42">
+        <f>(I9-'2016b'!I9)/'2016b'!I9</f>
+        <v>0.22185803883620067</v>
+      </c>
+      <c r="P9" s="41">
+        <f>(J9-'2016b'!J9)/'2016b'!J9</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="42">
+        <f>(K9-'2016b'!K9)/'2016b'!K9</f>
+        <v>-0.17013178804739212</v>
+      </c>
+      <c r="V9" s="52"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1767</v>
+      </c>
+      <c r="I10" s="28">
+        <v>1.6149456746928688</v>
+      </c>
+      <c r="J10" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K10" s="11">
+        <v>4.1560388104160442</v>
+      </c>
+      <c r="N10" s="41">
+        <f>(H10-'2016b'!H10)/'2016b'!H10</f>
+        <v>-0.14223300970873787</v>
+      </c>
+      <c r="O10" s="42">
+        <f>(I10-'2016b'!I10)/'2016b'!I10</f>
+        <v>0.48188473067379567</v>
+      </c>
+      <c r="P10" s="41">
+        <f>(J10-'2016b'!J10)/'2016b'!J10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="42">
+        <f>(K10-'2016b'!K10)/'2016b'!K10</f>
+        <v>0.11459654302790148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2669</v>
+      </c>
+      <c r="I11" s="28">
+        <v>0.36264223757466829</v>
+      </c>
+      <c r="J11" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0.89688987521639274</v>
+      </c>
+      <c r="N11" s="41">
+        <f>(H11-'2016b'!H11)/'2016b'!H11</f>
+        <v>3.7608123354644601E-3</v>
+      </c>
+      <c r="O11" s="42">
+        <f>(I11-'2016b'!I11)/'2016b'!I11</f>
+        <v>0.37298870260853878</v>
+      </c>
+      <c r="P11" s="41">
+        <f>(J11-'2016b'!J11)/'2016b'!J11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="42">
+        <f>(K11-'2016b'!K11)/'2016b'!K11</f>
+        <v>-5.3656319521104216E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1829</v>
+      </c>
+      <c r="I12" s="28">
+        <v>1.7363396048253006</v>
+      </c>
+      <c r="J12" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K12" s="11">
+        <v>4.4349365970332624</v>
+      </c>
+      <c r="N12" s="41">
+        <f>(H12-'2016b'!H12)/'2016b'!H12</f>
+        <v>3.7436188315371523E-2</v>
+      </c>
+      <c r="O12" s="42">
+        <f>(I12-'2016b'!I12)/'2016b'!I12</f>
+        <v>0.86403495547313691</v>
+      </c>
+      <c r="P12" s="41">
+        <f>(J12-'2016b'!J12)/'2016b'!J12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="42">
+        <f>(K12-'2016b'!K12)/'2016b'!K12</f>
+        <v>0.45241265561699129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2123</v>
+      </c>
+      <c r="I13" s="28">
+        <v>0.23777271942809225</v>
+      </c>
+      <c r="J13" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0.9124195916269614</v>
+      </c>
+      <c r="N13" s="41">
+        <f>(H13-'2016b'!H13)/'2016b'!H13</f>
+        <v>-2.3908045977011495E-2</v>
+      </c>
+      <c r="O13" s="42">
+        <f>(I13-'2016b'!I13)/'2016b'!I13</f>
+        <v>0.14489497636470239</v>
+      </c>
+      <c r="P13" s="41">
+        <f>(J13-'2016b'!J13)/'2016b'!J13</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="42">
+        <f>(K13-'2016b'!K13)/'2016b'!K13</f>
+        <v>-6.4273257947163945E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1811</v>
+      </c>
+      <c r="I14" s="28">
+        <v>1.6117920622937285</v>
+      </c>
+      <c r="J14" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K14" s="11">
+        <v>4.1617058853493116</v>
+      </c>
+      <c r="N14" s="41">
+        <f>(H14-'2016b'!H14)/'2016b'!H14</f>
+        <v>-8.9949748743718597E-2</v>
+      </c>
+      <c r="O14" s="42">
+        <f>(I14-'2016b'!I14)/'2016b'!I14</f>
+        <v>0.51380943510287147</v>
+      </c>
+      <c r="P14" s="41">
+        <f>(J14-'2016b'!J14)/'2016b'!J14</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="42">
+        <f>(K14-'2016b'!K14)/'2016b'!K14</f>
+        <v>0.20117577814975629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2706</v>
+      </c>
+      <c r="I15" s="28">
+        <v>0.28926524936574227</v>
+      </c>
+      <c r="J15" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0.88438604534116105</v>
+      </c>
+      <c r="N15" s="41">
+        <f>(H15-'2016b'!H15)/'2016b'!H15</f>
+        <v>1.5765765765765764E-2</v>
+      </c>
+      <c r="O15" s="42">
+        <f>(I15-'2016b'!I15)/'2016b'!I15</f>
+        <v>0.56875382315175149</v>
+      </c>
+      <c r="P15" s="41">
+        <f>(J15-'2016b'!J15)/'2016b'!J15</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="42">
+        <f>(K15-'2016b'!K15)/'2016b'!K15</f>
+        <v>-3.1352310118650938E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1801</v>
+      </c>
+      <c r="I16" s="28">
+        <v>1.6054247759285405</v>
+      </c>
+      <c r="J16" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K16" s="11">
+        <v>4.4900696942258023</v>
+      </c>
+      <c r="N16" s="41">
+        <f>(H16-'2016b'!H16)/'2016b'!H16</f>
+        <v>2.4459613196814563E-2</v>
+      </c>
+      <c r="O16" s="42">
+        <f>(I16-'2016b'!I16)/'2016b'!I16</f>
+        <v>0.87591180589156881</v>
+      </c>
+      <c r="P16" s="41">
+        <f>(J16-'2016b'!J16)/'2016b'!J16</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="42">
+        <f>(K16-'2016b'!K16)/'2016b'!K16</f>
+        <v>0.49899369016231498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2166</v>
+      </c>
+      <c r="I17" s="28">
+        <v>0.23897281035674289</v>
+      </c>
+      <c r="J17" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0.88996606901606223</v>
+      </c>
+      <c r="N17" s="41">
+        <f>(H17-'2016b'!H17)/'2016b'!H17</f>
+        <v>-1.5006821282401092E-2</v>
+      </c>
+      <c r="O17" s="42">
+        <f>(I17-'2016b'!I17)/'2016b'!I17</f>
+        <v>0.11061798370985178</v>
+      </c>
+      <c r="P17" s="41">
+        <f>(J17-'2016b'!J17)/'2016b'!J17</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="42">
+        <f>(K17-'2016b'!K17)/'2016b'!K17</f>
+        <v>-3.8959234527437582E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1755</v>
+      </c>
+      <c r="I18" s="28">
+        <v>1.5762926351594331</v>
+      </c>
+      <c r="J18" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K18" s="11">
+        <v>4.2500020907507468</v>
+      </c>
+      <c r="N18" s="41">
+        <f>(H18-'2016b'!H18)/'2016b'!H18</f>
+        <v>-0.14805825242718446</v>
+      </c>
+      <c r="O18" s="42">
+        <f>(I18-'2016b'!I18)/'2016b'!I18</f>
+        <v>0.38401548937714158</v>
+      </c>
+      <c r="P18" s="41">
+        <f>(J18-'2016b'!J18)/'2016b'!J18</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="42">
+        <f>(K18-'2016b'!K18)/'2016b'!K18</f>
+        <v>0.27796274700917473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2691</v>
+      </c>
+      <c r="I19" s="28">
+        <v>0.30615471403471556</v>
+      </c>
+      <c r="J19" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0.94776316279649697</v>
+      </c>
+      <c r="N19" s="41">
+        <f>(H19-'2016b'!H19)/'2016b'!H19</f>
+        <v>-7.4266617155588561E-4</v>
+      </c>
+      <c r="O19" s="42">
+        <f>(I19-'2016b'!I19)/'2016b'!I19</f>
+        <v>0.51641604691566678</v>
+      </c>
+      <c r="P19" s="41">
+        <f>(J19-'2016b'!J19)/'2016b'!J19</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="42">
+        <f>(K19-'2016b'!K19)/'2016b'!K19</f>
+        <v>-6.934474500405674E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1770</v>
+      </c>
+      <c r="I20" s="28">
+        <v>1.5038534436945619</v>
+      </c>
+      <c r="J20" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K20" s="11">
+        <v>4.4650787604813136</v>
+      </c>
+      <c r="N20" s="41">
+        <f>(H20-'2016b'!H20)/'2016b'!H20</f>
+        <v>-6.1763054463784394E-3</v>
+      </c>
+      <c r="O20" s="42">
+        <f>(I20-'2016b'!I20)/'2016b'!I20</f>
+        <v>0.62130904980767099</v>
+      </c>
+      <c r="P20" s="41">
+        <f>(J20-'2016b'!J20)/'2016b'!J20</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="42">
+        <f>(K20-'2016b'!K20)/'2016b'!K20</f>
+        <v>0.25149095921932674</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2132</v>
+      </c>
+      <c r="I21" s="28">
+        <v>0.2834932567586369</v>
+      </c>
+      <c r="J21" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0.90714139633259516</v>
+      </c>
+      <c r="N21" s="41">
+        <f>(H21-'2016b'!H21)/'2016b'!H21</f>
+        <v>-2.4702653247941447E-2</v>
+      </c>
+      <c r="O21" s="42">
+        <f>(I21-'2016b'!I21)/'2016b'!I21</f>
+        <v>0.18835354618857914</v>
+      </c>
+      <c r="P21" s="41">
+        <f>(J21-'2016b'!J21)/'2016b'!J21</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="42">
+        <f>(K21-'2016b'!K21)/'2016b'!K21</f>
+        <v>-0.20345590709576036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1788</v>
+      </c>
+      <c r="I22" s="28">
+        <v>1.6225518259096476</v>
+      </c>
+      <c r="J22" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K22" s="11">
+        <v>4.2637253985160992</v>
+      </c>
+      <c r="N22" s="41">
+        <f>(H22-'2016b'!H22)/'2016b'!H22</f>
+        <v>-0.13161728994657601</v>
+      </c>
+      <c r="O22" s="42">
+        <f>(I22-'2016b'!I22)/'2016b'!I22</f>
+        <v>0.41816710699507442</v>
+      </c>
+      <c r="P22" s="41">
+        <f>(J22-'2016b'!J22)/'2016b'!J22</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="42">
+        <f>(K22-'2016b'!K22)/'2016b'!K22</f>
+        <v>0.1863142907506424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2691</v>
+      </c>
+      <c r="I23" s="28">
+        <v>0.30662836411298572</v>
+      </c>
+      <c r="J23" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0.9444145403731572</v>
+      </c>
+      <c r="N23" s="41">
+        <f>(H23-'2016b'!H23)/'2016b'!H23</f>
+        <v>-1.1135857461024498E-3</v>
+      </c>
+      <c r="O23" s="42">
+        <f>(I23-'2016b'!I23)/'2016b'!I23</f>
+        <v>0.59258482093714959</v>
+      </c>
+      <c r="P23" s="41">
+        <f>(J23-'2016b'!J23)/'2016b'!J23</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="42">
+        <f>(K23-'2016b'!K23)/'2016b'!K23</f>
+        <v>-3.3288901356760339E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1780</v>
+      </c>
+      <c r="I24" s="28">
+        <v>1.5611449559307755</v>
+      </c>
+      <c r="J24" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K24" s="11">
+        <v>4.484311386532676</v>
+      </c>
+      <c r="N24" s="41">
+        <f>(H24-'2016b'!H24)/'2016b'!H24</f>
+        <v>-5.5865921787709499E-3</v>
+      </c>
+      <c r="O24" s="42">
+        <f>(I24-'2016b'!I24)/'2016b'!I24</f>
+        <v>0.76250376115943974</v>
+      </c>
+      <c r="P24" s="41">
+        <f>(J24-'2016b'!J24)/'2016b'!J24</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="42">
+        <f>(K24-'2016b'!K24)/'2016b'!K24</f>
+        <v>0.3423058966842154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2200</v>
+      </c>
+      <c r="I25" s="28">
+        <v>0.24317750017676348</v>
+      </c>
+      <c r="J25" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K25" s="11">
+        <v>1.1338616470402192</v>
+      </c>
+      <c r="N25" s="41">
+        <f>(H25-'2016b'!H25)/'2016b'!H25</f>
+        <v>6.4043915827996338E-3</v>
+      </c>
+      <c r="O25" s="42">
+        <f>(I25-'2016b'!I25)/'2016b'!I25</f>
+        <v>0.12568056482364554</v>
+      </c>
+      <c r="P25" s="41">
+        <f>(J25-'2016b'!J25)/'2016b'!J25</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="42">
+        <f>(K25-'2016b'!K25)/'2016b'!K25</f>
+        <v>-1.6293607290877917E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1763</v>
+      </c>
+      <c r="I26" s="28">
+        <v>1.6389391302628948</v>
+      </c>
+      <c r="J26" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K26" s="11">
+        <v>4.7132052577439509</v>
+      </c>
+      <c r="N26" s="41">
+        <f>(H26-'2016b'!H26)/'2016b'!H26</f>
+        <v>-0.13663075416258569</v>
+      </c>
+      <c r="O26" s="42">
+        <f>(I26-'2016b'!I26)/'2016b'!I26</f>
+        <v>0.57137090931454371</v>
+      </c>
+      <c r="P26" s="41">
+        <f>(J26-'2016b'!J26)/'2016b'!J26</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="42">
+        <f>(K26-'2016b'!K26)/'2016b'!K26</f>
+        <v>0.50071113091223451</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2686</v>
+      </c>
+      <c r="I27" s="28">
+        <v>0.30995988039385181</v>
+      </c>
+      <c r="J27" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0.75551673094774874</v>
+      </c>
+      <c r="N27" s="41">
+        <f>(H27-'2016b'!H27)/'2016b'!H27</f>
+        <v>-2.5993316004455998E-3</v>
+      </c>
+      <c r="O27" s="42">
+        <f>(I27-'2016b'!I27)/'2016b'!I27</f>
+        <v>0.62932150800906306</v>
+      </c>
+      <c r="P27" s="41">
+        <f>(J27-'2016b'!J27)/'2016b'!J27</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="42">
+        <f>(K27-'2016b'!K27)/'2016b'!K27</f>
+        <v>-9.139411234085848E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1814</v>
+      </c>
+      <c r="I28" s="28">
+        <v>1.6019088934454584</v>
+      </c>
+      <c r="J28" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K28" s="11">
+        <v>4.0830009039645958</v>
+      </c>
+      <c r="N28" s="41">
+        <f>(H28-'2016b'!H28)/'2016b'!H28</f>
+        <v>1.5677491601343786E-2</v>
+      </c>
+      <c r="O28" s="42">
+        <f>(I28-'2016b'!I28)/'2016b'!I28</f>
+        <v>0.8525939832472651</v>
+      </c>
+      <c r="P28" s="41">
+        <f>(J28-'2016b'!J28)/'2016b'!J28</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="42">
+        <f>(K28-'2016b'!K28)/'2016b'!K28</f>
+        <v>0.27912595396655021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2135</v>
+      </c>
+      <c r="I29" s="28">
+        <v>0.24091188664025479</v>
+      </c>
+      <c r="J29" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K29" s="11">
+        <v>1.1216771318244956</v>
+      </c>
+      <c r="N29" s="41">
+        <f>(H29-'2016b'!H29)/'2016b'!H29</f>
+        <v>-2.3330283623055809E-2</v>
+      </c>
+      <c r="O29" s="42">
+        <f>(I29-'2016b'!I29)/'2016b'!I29</f>
+        <v>9.36315929954398E-2</v>
+      </c>
+      <c r="P29" s="41">
+        <f>(J29-'2016b'!J29)/'2016b'!J29</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="42">
+        <f>(K29-'2016b'!K29)/'2016b'!K29</f>
+        <v>-6.3854619360192086E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1753</v>
+      </c>
+      <c r="I30" s="28">
+        <v>1.5854193323738688</v>
+      </c>
+      <c r="J30" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K30" s="11">
+        <v>4.6788853941673372</v>
+      </c>
+      <c r="N30" s="41">
+        <f>(H30-'2016b'!H30)/'2016b'!H30</f>
+        <v>-0.15108958837772396</v>
+      </c>
+      <c r="O30" s="42">
+        <f>(I30-'2016b'!I30)/'2016b'!I30</f>
+        <v>0.57206892591091874</v>
+      </c>
+      <c r="P30" s="41">
+        <f>(J30-'2016b'!J30)/'2016b'!J30</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="42">
+        <f>(K30-'2016b'!K30)/'2016b'!K30</f>
+        <v>0.31857903983790714</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2686</v>
+      </c>
+      <c r="I31" s="28">
+        <v>0.32103363675828717</v>
+      </c>
+      <c r="J31" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0.76614078583337708</v>
+      </c>
+      <c r="N31" s="41">
+        <f>(H31-'2016b'!H31)/'2016b'!H31</f>
+        <v>-2.9695619896065329E-3</v>
+      </c>
+      <c r="O31" s="42">
+        <f>(I31-'2016b'!I31)/'2016b'!I31</f>
+        <v>0.70685265857226964</v>
+      </c>
+      <c r="P31" s="41">
+        <f>(J31-'2016b'!J31)/'2016b'!J31</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="42">
+        <f>(K31-'2016b'!K31)/'2016b'!K31</f>
+        <v>-0.18521526133813571</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1842</v>
+      </c>
+      <c r="I32" s="28">
+        <v>1.6889620524938094</v>
+      </c>
+      <c r="J32" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K32" s="11">
+        <v>4.0548643406874545</v>
+      </c>
+      <c r="N32" s="41">
+        <f>(H32-'2016b'!H32)/'2016b'!H32</f>
+        <v>3.4250421111734979E-2</v>
+      </c>
+      <c r="O32" s="42">
+        <f>(I32-'2016b'!I32)/'2016b'!I32</f>
+        <v>0.84544553680181556</v>
+      </c>
+      <c r="P32" s="41">
+        <f>(J32-'2016b'!J32)/'2016b'!J32</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="42">
+        <f>(K32-'2016b'!K32)/'2016b'!K32</f>
+        <v>0.2343941113449981</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="2">
+        <v>2154</v>
+      </c>
+      <c r="I33" s="28">
+        <v>0.29759860170590058</v>
+      </c>
+      <c r="J33" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K33" s="11">
+        <v>1.0943000812731836</v>
+      </c>
+      <c r="N33" s="41">
+        <f>(H33-'2016b'!H33)/'2016b'!H33</f>
+        <v>-1.463860933211345E-2</v>
+      </c>
+      <c r="O33" s="42">
+        <f>(I33-'2016b'!I33)/'2016b'!I33</f>
+        <v>0.4766530214091001</v>
+      </c>
+      <c r="P33" s="41">
+        <f>(J33-'2016b'!J33)/'2016b'!J33</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="42">
+        <f>(K33-'2016b'!K33)/'2016b'!K33</f>
+        <v>-1.9171273802238237E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1837</v>
+      </c>
+      <c r="I34" s="28">
+        <v>1.7126958748347356</v>
+      </c>
+      <c r="J34" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K34" s="11">
+        <v>4.5953557203320567</v>
+      </c>
+      <c r="N34" s="41">
+        <f>(H34-'2016b'!H34)/'2016b'!H34</f>
+        <v>-0.10039177277179236</v>
+      </c>
+      <c r="O34" s="42">
+        <f>(I34-'2016b'!I34)/'2016b'!I34</f>
+        <v>0.60848443783018669</v>
+      </c>
+      <c r="P34" s="41">
+        <f>(J34-'2016b'!J34)/'2016b'!J34</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="42">
+        <f>(K34-'2016b'!K34)/'2016b'!K34</f>
+        <v>0.32707317525781704</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="2">
+        <v>10321</v>
+      </c>
+      <c r="I35" s="28">
+        <v>0.87783971468474897</v>
+      </c>
+      <c r="J35" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0.75283790903637682</v>
+      </c>
+      <c r="N35" s="41">
+        <f>(H35-'2016b'!H35)/'2016b'!H35</f>
+        <v>-2.512805644148062E-3</v>
+      </c>
+      <c r="O35" s="42">
+        <f>(I35-'2016b'!I35)/'2016b'!I35</f>
+        <v>-2.1651546716933211E-2</v>
+      </c>
+      <c r="P35" s="41">
+        <f>(J35-'2016b'!J35)/'2016b'!J35</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="42">
+        <f>(K35-'2016b'!K35)/'2016b'!K35</f>
+        <v>-0.23067919144406665</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="2">
+        <v>13603</v>
+      </c>
+      <c r="I36" s="28">
+        <v>7.4891246748882585</v>
+      </c>
+      <c r="J36" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K36" s="11">
+        <v>4.1484832173536876</v>
+      </c>
+      <c r="N36" s="41">
+        <f>(H36-'2016b'!H36)/'2016b'!H36</f>
+        <v>-4.1727672035139088E-3</v>
+      </c>
+      <c r="O36" s="42">
+        <f>(I36-'2016b'!I36)/'2016b'!I36</f>
+        <v>0.42412024712879781</v>
+      </c>
+      <c r="P36" s="41">
+        <f>(J36-'2016b'!J36)/'2016b'!J36</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="42">
+        <f>(K36-'2016b'!K36)/'2016b'!K36</f>
+        <v>0.36231013987899569</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="2">
+        <v>2906</v>
+      </c>
+      <c r="I37" s="28">
+        <v>0.60449838327946803</v>
+      </c>
+      <c r="J37" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K37" s="11">
+        <v>1.2559861995245252</v>
+      </c>
+      <c r="N37" s="41">
+        <f>(H37-'2016b'!H37)/'2016b'!H37</f>
+        <v>2.9401346085724405E-2</v>
+      </c>
+      <c r="O37" s="42">
+        <f>(I37-'2016b'!I37)/'2016b'!I37</f>
+        <v>1.4750056349430385</v>
+      </c>
+      <c r="P37" s="41">
+        <f>(J37-'2016b'!J37)/'2016b'!J37</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="42">
+        <f>(K37-'2016b'!K37)/'2016b'!K37</f>
+        <v>0.29568419245147332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="2">
+        <v>5658</v>
+      </c>
+      <c r="I38" s="28">
+        <v>4.2792866662561195</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1544</v>
+      </c>
+      <c r="K38" s="11">
+        <v>1.3927710962452398</v>
+      </c>
+      <c r="N38" s="41">
+        <f>(H38-'2016b'!H38)/'2016b'!H38</f>
+        <v>-0.54429768041237114</v>
+      </c>
+      <c r="O38" s="42">
+        <f>(I38-'2016b'!I38)/'2016b'!I38</f>
+        <v>-0.28916268475415652</v>
+      </c>
+      <c r="P38" s="41">
+        <f>(J38-'2016b'!J38)/'2016b'!J38</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="42">
+        <f>(K38-'2016b'!K38)/'2016b'!K38</f>
+        <v>0.85078691917314964</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="2">
+        <v>10311</v>
+      </c>
+      <c r="I39" s="28">
+        <v>1.0434499820195435</v>
+      </c>
+      <c r="J39" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K39" s="11">
+        <v>1.0531860380425404</v>
+      </c>
+      <c r="N39" s="41">
+        <f>(H39-'2016b'!H39)/'2016b'!H39</f>
+        <v>-2.3222060957910013E-3</v>
+      </c>
+      <c r="O39" s="42">
+        <f>(I39-'2016b'!I39)/'2016b'!I39</f>
+        <v>0.21946226708599609</v>
+      </c>
+      <c r="P39" s="41">
+        <f>(J39-'2016b'!J39)/'2016b'!J39</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="42">
+        <f>(K39-'2016b'!K39)/'2016b'!K39</f>
+        <v>0.34800468780328381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="2">
+        <v>13607</v>
+      </c>
+      <c r="I40" s="28">
+        <v>7.3625122308918689</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1545</v>
+      </c>
+      <c r="K40" s="11">
+        <v>1.3103723284957163</v>
+      </c>
+      <c r="N40" s="41">
+        <f>(H40-'2016b'!H40)/'2016b'!H40</f>
+        <v>5.1470588235294121E-4</v>
+      </c>
+      <c r="O40" s="42">
+        <f>(I40-'2016b'!I40)/'2016b'!I40</f>
+        <v>0.65379384922741424</v>
+      </c>
+      <c r="P40" s="41">
+        <f>(J40-'2016b'!J40)/'2016b'!J40</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="42">
+        <f>(K40-'2016b'!K40)/'2016b'!K40</f>
+        <v>0.87999943805096603</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="2">
+        <v>2887</v>
+      </c>
+      <c r="I41" s="28">
+        <v>0.30960027126540596</v>
+      </c>
+      <c r="J41" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K41" s="11">
+        <v>0.86414149592835798</v>
+      </c>
+      <c r="N41" s="41">
+        <f>(H41-'2016b'!H41)/'2016b'!H41</f>
+        <v>-1.4339364970979856E-2</v>
+      </c>
+      <c r="O41" s="42">
+        <f>(I41-'2016b'!I41)/'2016b'!I41</f>
+        <v>0.3358713448024247</v>
+      </c>
+      <c r="P41" s="41">
+        <f>(J41-'2016b'!J41)/'2016b'!J41</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="42">
+        <f>(K41-'2016b'!K41)/'2016b'!K41</f>
+        <v>-9.0510806356190965E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="2">
+        <v>5580</v>
+      </c>
+      <c r="I42" s="28">
+        <v>4.2098938886975539</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1544</v>
+      </c>
+      <c r="K42" s="11">
+        <v>1.3559343489060052</v>
+      </c>
+      <c r="N42" s="41">
+        <f>(H42-'2016b'!H42)/'2016b'!H42</f>
+        <v>-0.51176830868842416</v>
+      </c>
+      <c r="O42" s="42">
+        <f>(I42-'2016b'!I42)/'2016b'!I42</f>
+        <v>-0.21489404277264385</v>
+      </c>
+      <c r="P42" s="41">
+        <f>(J42-'2016b'!J42)/'2016b'!J42</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="42">
+        <f>(K42-'2016b'!K42)/'2016b'!K42</f>
+        <v>0.83010380131954009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="2">
+        <v>10295</v>
+      </c>
+      <c r="I43" s="28">
+        <v>1.0602964912640831</v>
+      </c>
+      <c r="J43" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K43" s="11">
+        <v>0.74798698716735201</v>
+      </c>
+      <c r="N43" s="41">
+        <f>(H43-'2016b'!H43)/'2016b'!H43</f>
+        <v>-5.0256112882961241E-3</v>
+      </c>
+      <c r="O43" s="42">
+        <f>(I43-'2016b'!I43)/'2016b'!I43</f>
+        <v>0.18480029891470706</v>
+      </c>
+      <c r="P43" s="41">
+        <f>(J43-'2016b'!J43)/'2016b'!J43</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="42">
+        <f>(K43-'2016b'!K43)/'2016b'!K43</f>
+        <v>-0.2196462089115174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="2">
+        <v>13618</v>
+      </c>
+      <c r="I44" s="28">
+        <v>8.0703427386706021</v>
+      </c>
+      <c r="J44" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K44" s="11">
+        <v>4.0812378308803128</v>
+      </c>
+      <c r="N44" s="41">
+        <f>(H44-'2016b'!H44)/'2016b'!H44</f>
+        <v>1.5444583363977348E-3</v>
+      </c>
+      <c r="O44" s="42">
+        <f>(I44-'2016b'!I44)/'2016b'!I44</f>
+        <v>0.5385483302530345</v>
+      </c>
+      <c r="P44" s="41">
+        <f>(J44-'2016b'!J44)/'2016b'!J44</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="42">
+        <f>(K44-'2016b'!K44)/'2016b'!K44</f>
+        <v>0.14328298060127184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="2">
+        <v>2918</v>
+      </c>
+      <c r="I45" s="28">
+        <v>0.38179009318666146</v>
+      </c>
+      <c r="J45" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K45" s="11">
+        <v>1.139509335012016</v>
+      </c>
+      <c r="N45" s="41">
+        <f>(H45-'2016b'!H45)/'2016b'!H45</f>
+        <v>3.3652143110166489E-2</v>
+      </c>
+      <c r="O45" s="42">
+        <f>(I45-'2016b'!I45)/'2016b'!I45</f>
+        <v>0.63806159219925651</v>
+      </c>
+      <c r="P45" s="41">
+        <f>(J45-'2016b'!J45)/'2016b'!J45</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="42">
+        <f>(K45-'2016b'!K45)/'2016b'!K45</f>
+        <v>1.3243027262455055E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="2">
+        <v>5765</v>
+      </c>
+      <c r="I46" s="28">
+        <v>5.519178646668446</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1544</v>
+      </c>
+      <c r="K46" s="11">
+        <v>1.4592520282182926</v>
+      </c>
+      <c r="N46" s="41">
+        <f>(H46-'2016b'!H46)/'2016b'!H46</f>
+        <v>-0.53567976804123707</v>
+      </c>
+      <c r="O46" s="42">
+        <f>(I46-'2016b'!I46)/'2016b'!I46</f>
+        <v>-1.4851426658860429E-2</v>
+      </c>
+      <c r="P46" s="41">
+        <f>(J46-'2016b'!J46)/'2016b'!J46</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="42">
+        <f>(K46-'2016b'!K46)/'2016b'!K46</f>
+        <v>1.0071394387642325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="2">
+        <v>10333</v>
+      </c>
+      <c r="I47" s="28">
+        <v>0.90169708138798477</v>
+      </c>
+      <c r="J47" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0.74516523393220035</v>
+      </c>
+      <c r="N47" s="41">
+        <f>(H47-'2016b'!H47)/'2016b'!H47</f>
+        <v>-1.9351717464925012E-4</v>
+      </c>
+      <c r="O47" s="42">
+        <f>(I47-'2016b'!I47)/'2016b'!I47</f>
+        <v>4.7034708923643739E-2</v>
+      </c>
+      <c r="P47" s="41">
+        <f>(J47-'2016b'!J47)/'2016b'!J47</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="42">
+        <f>(K47-'2016b'!K47)/'2016b'!K47</f>
+        <v>-4.4680563041005157E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="2">
+        <v>13620</v>
+      </c>
+      <c r="I48" s="28">
+        <v>7.0769403877544352</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1545</v>
+      </c>
+      <c r="K48" s="11">
+        <v>1.3245255706419061</v>
+      </c>
+      <c r="N48" s="41">
+        <f>(H48-'2016b'!H48)/'2016b'!H48</f>
+        <v>1.4705882352941176E-3</v>
+      </c>
+      <c r="O48" s="42">
+        <f>(I48-'2016b'!I48)/'2016b'!I48</f>
+        <v>0.58318330131501506</v>
+      </c>
+      <c r="P48" s="41">
+        <f>(J48-'2016b'!J48)/'2016b'!J48</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="42">
+        <f>(K48-'2016b'!K48)/'2016b'!K48</f>
+        <v>0.90574938316663101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="2">
+        <v>2801</v>
+      </c>
+      <c r="I49" s="28">
+        <v>0.42424563812373745</v>
+      </c>
+      <c r="J49" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K49" s="11">
+        <v>0.86913915048615653</v>
+      </c>
+      <c r="N49" s="41">
+        <f>(H49-'2016b'!H49)/'2016b'!H49</f>
+        <v>-4.3700921816319564E-2</v>
+      </c>
+      <c r="O49" s="42">
+        <f>(I49-'2016b'!I49)/'2016b'!I49</f>
+        <v>0.81688244313360481</v>
+      </c>
+      <c r="P49" s="41">
+        <f>(J49-'2016b'!J49)/'2016b'!J49</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="42">
+        <f>(K49-'2016b'!K49)/'2016b'!K49</f>
+        <v>-8.0307779032447055E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="2">
+        <v>5706</v>
+      </c>
+      <c r="I50" s="28">
+        <v>4.0775957430794252</v>
+      </c>
+      <c r="J50" s="3">
+        <v>1544</v>
+      </c>
+      <c r="K50" s="11">
+        <v>1.6060991380785012</v>
+      </c>
+      <c r="N50" s="41">
+        <f>(H50-'2016b'!H50)/'2016b'!H50</f>
+        <v>-0.50074372211042084</v>
+      </c>
+      <c r="O50" s="42">
+        <f>(I50-'2016b'!I50)/'2016b'!I50</f>
+        <v>-0.20224319660239681</v>
+      </c>
+      <c r="P50" s="41">
+        <f>(J50-'2016b'!J50)/'2016b'!J50</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="42">
+        <f>(K50-'2016b'!K50)/'2016b'!K50</f>
+        <v>1.228712599097693</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="2">
+        <v>10338</v>
+      </c>
+      <c r="I51" s="28">
+        <v>0.88291149585993334</v>
+      </c>
+      <c r="J51" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K51" s="11">
+        <v>1.3321302013126874</v>
+      </c>
+      <c r="N51" s="41">
+        <f>(H51-'2016b'!H51)/'2016b'!H51</f>
+        <v>1.7441860465116279E-3</v>
+      </c>
+      <c r="O51" s="42">
+        <f>(I51-'2016b'!I51)/'2016b'!I51</f>
+        <v>-5.8005270409539809E-2</v>
+      </c>
+      <c r="P51" s="41">
+        <f>(J51-'2016b'!J51)/'2016b'!J51</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="42">
+        <f>(K51-'2016b'!K51)/'2016b'!K51</f>
+        <v>0.57356035803489558</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="2">
+        <v>14967</v>
+      </c>
+      <c r="I52" s="28">
+        <v>8.5730713584633964</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1526</v>
+      </c>
+      <c r="K52" s="11">
+        <v>1.3934823316356437</v>
+      </c>
+      <c r="N52" s="41">
+        <f>(H52-'2016b'!H52)/'2016b'!H52</f>
+        <v>8.0240722166499494E-4</v>
+      </c>
+      <c r="O52" s="42">
+        <f>(I52-'2016b'!I52)/'2016b'!I52</f>
+        <v>0.46054474598319772</v>
+      </c>
+      <c r="P52" s="41">
+        <f>(J52-'2016b'!J52)/'2016b'!J52</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="42">
+        <f>(K52-'2016b'!K52)/'2016b'!K52</f>
+        <v>0.93555027771655863</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="2">
+        <v>3022</v>
+      </c>
+      <c r="I53" s="28">
+        <v>0.50235988738836346</v>
+      </c>
+      <c r="J53" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K53" s="11">
+        <v>0.92704268248642718</v>
+      </c>
+      <c r="N53" s="41">
+        <f>(H53-'2016b'!H53)/'2016b'!H53</f>
+        <v>3.9917412250516177E-2</v>
+      </c>
+      <c r="O53" s="42">
+        <f>(I53-'2016b'!I53)/'2016b'!I53</f>
+        <v>1.0131779555998712</v>
+      </c>
+      <c r="P53" s="41">
+        <f>(J53-'2016b'!J53)/'2016b'!J53</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="42">
+        <f>(K53-'2016b'!K53)/'2016b'!K53</f>
+        <v>-0.31617700062913684</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="2">
+        <v>9095</v>
+      </c>
+      <c r="I54" s="28">
+        <v>6.9538107543656773</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1524</v>
+      </c>
+      <c r="K54" s="11">
+        <v>1.380901334051031</v>
+      </c>
+      <c r="N54" s="41">
+        <f>(H54-'2016b'!H54)/'2016b'!H54</f>
+        <v>-0.68674657298339881</v>
+      </c>
+      <c r="O54" s="42">
+        <f>(I54-'2016b'!I54)/'2016b'!I54</f>
+        <v>-0.39021177849227567</v>
+      </c>
+      <c r="P54" s="41">
+        <f>(J54-'2016b'!J54)/'2016b'!J54</f>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="42">
+        <f>(K54-'2016b'!K54)/'2016b'!K54</f>
+        <v>0.83532897642923398</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="2">
+        <v>10326</v>
+      </c>
+      <c r="I55" s="28">
+        <v>1.0350090510500511</v>
+      </c>
+      <c r="J55" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K55" s="11">
+        <v>0.82828816171310793</v>
+      </c>
+      <c r="N55" s="41">
+        <f>(H55-'2016b'!H55)/'2016b'!H55</f>
+        <v>-2.8968713789107765E-3</v>
+      </c>
+      <c r="O55" s="42">
+        <f>(I55-'2016b'!I55)/'2016b'!I55</f>
+        <v>0.22428937158473314</v>
+      </c>
+      <c r="P55" s="41">
+        <f>(J55-'2016b'!J55)/'2016b'!J55</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="42">
+        <f>(K55-'2016b'!K55)/'2016b'!K55</f>
+        <v>2.4226559915087299E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="2">
+        <v>15007</v>
+      </c>
+      <c r="I56" s="28">
+        <v>8.7185830488011629</v>
+      </c>
+      <c r="J56" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K56" s="11">
+        <v>4.5955845625047038</v>
+      </c>
+      <c r="N56" s="41">
+        <f>(H56-'2016b'!H56)/'2016b'!H56</f>
+        <v>3.9470163232539473E-3</v>
+      </c>
+      <c r="O56" s="42">
+        <f>(I56-'2016b'!I56)/'2016b'!I56</f>
+        <v>0.3057356871480601</v>
+      </c>
+      <c r="P56" s="41">
+        <f>(J56-'2016b'!J56)/'2016b'!J56</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="42">
+        <f>(K56-'2016b'!K56)/'2016b'!K56</f>
+        <v>0.39230690169677118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="2">
+        <v>2962</v>
+      </c>
+      <c r="I57" s="28">
+        <v>0.41500946159747043</v>
+      </c>
+      <c r="J57" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K57" s="11">
+        <v>1.1557366018990098</v>
+      </c>
+      <c r="N57" s="41">
+        <f>(H57-'2016b'!H57)/'2016b'!H57</f>
+        <v>-4.0349697377269674E-3</v>
+      </c>
+      <c r="O57" s="42">
+        <f>(I57-'2016b'!I57)/'2016b'!I57</f>
+        <v>0.44215157458262455</v>
+      </c>
+      <c r="P57" s="41">
+        <f>(J57-'2016b'!J57)/'2016b'!J57</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="42">
+        <f>(K57-'2016b'!K57)/'2016b'!K57</f>
+        <v>-0.29666581822073768</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="2">
+        <v>553</v>
+      </c>
+      <c r="I58" s="28">
+        <v>1.3574126997522271</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1524</v>
+      </c>
+      <c r="K58" s="11">
+        <v>1.5202654569202709</v>
+      </c>
+      <c r="N58" s="41">
+        <f>(H58-'2016b'!H58)/'2016b'!H58</f>
+        <v>-0.97832477560459374</v>
+      </c>
+      <c r="O58" s="42">
+        <f>(I58-'2016b'!I58)/'2016b'!I58</f>
+        <v>-0.85862978766733999</v>
+      </c>
+      <c r="P58" s="41">
+        <f>(J58-'2016b'!J58)/'2016b'!J58</f>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="42">
+        <f>(K58-'2016b'!K58)/'2016b'!K58</f>
+        <v>0.97613986528858598</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="2">
+        <v>10332</v>
+      </c>
+      <c r="I59" s="28">
+        <v>0.88582600240094211</v>
+      </c>
+      <c r="J59" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K59" s="11">
+        <v>0.80808390676924269</v>
+      </c>
+      <c r="N59" s="41">
+        <f>(H59-'2016b'!H59)/'2016b'!H59</f>
+        <v>1.1627906976744186E-3</v>
+      </c>
+      <c r="O59" s="42">
+        <f>(I59-'2016b'!I59)/'2016b'!I59</f>
+        <v>0.19856041794021687</v>
+      </c>
+      <c r="P59" s="41">
+        <f>(J59-'2016b'!J59)/'2016b'!J59</f>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="42">
+        <f>(K59-'2016b'!K59)/'2016b'!K59</f>
+        <v>-4.1494224489293789E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="2">
+        <v>14900</v>
+      </c>
+      <c r="I60" s="28">
+        <v>8.7402968257842026</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1526</v>
+      </c>
+      <c r="K60" s="11">
+        <v>1.5313859700741341</v>
+      </c>
+      <c r="N60" s="41">
+        <f>(H60-'2016b'!H60)/'2016b'!H60</f>
+        <v>-3.877523733119401E-3</v>
+      </c>
+      <c r="O60" s="42">
+        <f>(I60-'2016b'!I60)/'2016b'!I60</f>
+        <v>0.31521144101461984</v>
+      </c>
+      <c r="P60" s="41">
+        <f>(J60-'2016b'!J60)/'2016b'!J60</f>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="42">
+        <f>(K60-'2016b'!K60)/'2016b'!K60</f>
+        <v>1.0921587659574403</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="2">
+        <v>2876</v>
+      </c>
+      <c r="I61" s="28">
+        <v>0.48179336236055642</v>
+      </c>
+      <c r="J61" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K61" s="11">
+        <v>0.9169622227949612</v>
+      </c>
+      <c r="N61" s="41">
+        <f>(H61-'2016b'!H61)/'2016b'!H61</f>
+        <v>-1.0323468685478321E-2</v>
+      </c>
+      <c r="O61" s="42">
+        <f>(I61-'2016b'!I61)/'2016b'!I61</f>
+        <v>0.72603625541557859</v>
+      </c>
+      <c r="P61" s="41">
+        <f>(J61-'2016b'!J61)/'2016b'!J61</f>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="42">
+        <f>(K61-'2016b'!K61)/'2016b'!K61</f>
+        <v>-9.278949530530281E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="2">
+        <v>626</v>
+      </c>
+      <c r="I62" s="28">
+        <v>1.306726819466334</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1524</v>
+      </c>
+      <c r="K62" s="11">
+        <v>2.8834934848405367</v>
+      </c>
+      <c r="N62" s="41">
+        <f>(H62-'2016b'!H62)/'2016b'!H62</f>
+        <v>-0.97551914277892926</v>
+      </c>
+      <c r="O62" s="42">
+        <f>(I62-'2016b'!I62)/'2016b'!I62</f>
+        <v>-0.88076338720625746</v>
+      </c>
+      <c r="P62" s="41">
+        <f>(J62-'2016b'!J62)/'2016b'!J62</f>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="42">
+        <f>(K62-'2016b'!K62)/'2016b'!K62</f>
+        <v>2.9512381346934276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="2">
+        <v>10301</v>
+      </c>
+      <c r="I63" s="28">
+        <v>0.85335512275747971</v>
+      </c>
+      <c r="J63" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K63" s="11">
+        <v>0.8324217660077381</v>
+      </c>
+      <c r="N63" s="41">
+        <f>(H63-'2016b'!H63)/'2016b'!H63</f>
+        <v>-5.3109308613364234E-3</v>
+      </c>
+      <c r="O63" s="42">
+        <f>(I63-'2016b'!I63)/'2016b'!I63</f>
+        <v>1.2773514638227158E-2</v>
+      </c>
+      <c r="P63" s="41">
+        <f>(J63-'2016b'!J63)/'2016b'!J63</f>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="42">
+        <f>(K63-'2016b'!K63)/'2016b'!K63</f>
+        <v>3.2453733317476051E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="2">
+        <v>14948</v>
+      </c>
+      <c r="I64" s="28">
+        <v>8.4290281354228682</v>
+      </c>
+      <c r="J64" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K64" s="11">
+        <v>5.0082945784172184</v>
+      </c>
+      <c r="N64" s="41">
+        <f>(H64-'2016b'!H64)/'2016b'!H64</f>
+        <v>-2.0695640563455505E-3</v>
+      </c>
+      <c r="O64" s="42">
+        <f>(I64-'2016b'!I64)/'2016b'!I64</f>
+        <v>0.4190792549343455</v>
+      </c>
+      <c r="P64" s="41">
+        <f>(J64-'2016b'!J64)/'2016b'!J64</f>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="42">
+        <f>(K64-'2016b'!K64)/'2016b'!K64</f>
+        <v>0.46328776108114628</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="2">
+        <v>2931</v>
+      </c>
+      <c r="I65" s="28">
+        <v>0.41480456802428617</v>
+      </c>
+      <c r="J65" s="3">
+        <v>10001</v>
+      </c>
+      <c r="K65" s="11">
+        <v>1.2703291297839228</v>
+      </c>
+      <c r="N65" s="41">
+        <f>(H65-'2016b'!H65)/'2016b'!H65</f>
+        <v>-1.4458641560188298E-2</v>
+      </c>
+      <c r="O65" s="42">
+        <f>(I65-'2016b'!I65)/'2016b'!I65</f>
+        <v>0.67810871918775251</v>
+      </c>
+      <c r="P65" s="41">
+        <f>(J65-'2016b'!J65)/'2016b'!J65</f>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="42">
+        <f>(K65-'2016b'!K65)/'2016b'!K65</f>
+        <v>5.1932509778222731E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="4">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="4">
+        <v>9413</v>
+      </c>
+      <c r="I66" s="29">
+        <v>7.1878851257909693</v>
+      </c>
+      <c r="J66" s="5">
+        <v>1524</v>
+      </c>
+      <c r="K66" s="13">
+        <v>1.512149922794277</v>
+      </c>
+      <c r="N66" s="43">
+        <f>(H66-'2016b'!H66)/'2016b'!H66</f>
+        <v>-0.63105083682828367</v>
+      </c>
+      <c r="O66" s="44">
+        <f>(I66-'2016b'!I66)/'2016b'!I66</f>
+        <v>-0.3118770435780599</v>
+      </c>
+      <c r="P66" s="43">
+        <f>(J66-'2016b'!J66)/'2016b'!J66</f>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="44">
+        <f>(K66-'2016b'!K66)/'2016b'!K66</f>
+        <v>0.83123934013614331</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N3:N66">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F235343C-F015-4073-8551-B8372E4959AE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O66">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9F0F0624-C025-47FB-8764-5520E93D83B7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P66">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0F91C6E9-6C12-463E-B147-5DC235BBB9D0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q66">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{62BC1971-3F6F-496E-BFAA-973331AD95EF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F235343C-F015-4073-8551-B8372E4959AE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N3:N66</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9F0F0624-C025-47FB-8764-5520E93D83B7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O3:O66</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0F91C6E9-6C12-463E-B147-5DC235BBB9D0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P3:P66</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{62BC1971-3F6F-496E-BFAA-973331AD95EF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>Q3:Q66</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/SimResults/Hydraulic_Lift_Res.xlsx
+++ b/SimResults/Hydraulic_Lift_Res.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SMILLER\TMW\Simscape\zECLArch\zR18a\Demos\ssczAll\Hydraulic_Lift\SimResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SMILLER\TMW\Simscape\zECLArch\zR18b\Demos\ssczAll\Hydraulic_Lift\SimResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1611C997-E08D-4D5E-8DDF-AF11F9965F9A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21204" windowHeight="11460" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21204" windowHeight="11460" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2015b" sheetId="4" r:id="rId1"/>
@@ -19,8 +20,10 @@
     <sheet name="2017a" sheetId="10" r:id="rId5"/>
     <sheet name="2017b" sheetId="12" r:id="rId6"/>
     <sheet name="2018a" sheetId="13" r:id="rId7"/>
+    <sheet name="2018b_Bash" sheetId="14" r:id="rId8"/>
+    <sheet name="2018b" sheetId="15" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2805" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="25">
   <si>
     <t>Run</t>
   </si>
@@ -100,11 +103,17 @@
   <si>
     <t>10-Feb-2018 18:43:08</t>
   </si>
+  <si>
+    <t>24-Jun-2018 13:04:11</t>
+  </si>
+  <si>
+    <t>11-Sep-2018 20:23:43</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -233,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -334,6 +343,7 @@
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -663,7 +673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -694,14 +704,14 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="54" t="s">
+      <c r="I1" s="57"/>
+      <c r="J1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="55"/>
+      <c r="K1" s="56"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
@@ -2989,7 +2999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3020,14 +3030,14 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="54" t="s">
+      <c r="I1" s="57"/>
+      <c r="J1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="55"/>
+      <c r="K1" s="56"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
@@ -5315,7 +5325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5346,14 +5356,14 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="54" t="s">
+      <c r="I1" s="57"/>
+      <c r="J1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="55"/>
+      <c r="K1" s="56"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
@@ -7641,7 +7651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7672,14 +7682,14 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="54" t="s">
+      <c r="I1" s="57"/>
+      <c r="J1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="55"/>
+      <c r="K1" s="56"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
@@ -9967,7 +9977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9998,25 +10008,25 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="54" t="s">
+      <c r="I1" s="57"/>
+      <c r="J1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="55"/>
+      <c r="K1" s="56"/>
       <c r="M1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="N1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="57" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="58"/>
+      <c r="Q1" s="59"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
@@ -13459,7 +13469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13490,25 +13500,25 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="54" t="s">
+      <c r="I1" s="57"/>
+      <c r="J1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="55"/>
+      <c r="K1" s="56"/>
       <c r="M1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="N1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="57" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="58"/>
+      <c r="Q1" s="59"/>
       <c r="R1">
         <v>9</v>
       </c>
@@ -16963,14 +16973,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="G40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomRight" activeCell="K2" activeCellId="1" sqref="I1:I1048576 K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16997,25 +17007,25 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="54" t="s">
+      <c r="I1" s="57"/>
+      <c r="J1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="55"/>
+      <c r="K1" s="56"/>
       <c r="M1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="N1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="57" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="58"/>
+      <c r="Q1" s="59"/>
     </row>
     <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="49" t="s">
@@ -20457,4 +20467,4592 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:K66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>2661</v>
+      </c>
+      <c r="I3">
+        <v>0.86555690960585852</v>
+      </c>
+      <c r="J3">
+        <v>10001</v>
+      </c>
+      <c r="K3">
+        <v>0.90727188483802168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>1763</v>
+      </c>
+      <c r="I4">
+        <v>2.364359773986437</v>
+      </c>
+      <c r="J4">
+        <v>10001</v>
+      </c>
+      <c r="K4">
+        <v>4.5304051290297105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>2161</v>
+      </c>
+      <c r="I5">
+        <v>0.36150075319048103</v>
+      </c>
+      <c r="J5">
+        <v>10001</v>
+      </c>
+      <c r="K5">
+        <v>0.89591831409453526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>1769</v>
+      </c>
+      <c r="I6">
+        <v>1.5799284610089932</v>
+      </c>
+      <c r="J6">
+        <v>10001</v>
+      </c>
+      <c r="K6">
+        <v>4.7905834264242912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>2622</v>
+      </c>
+      <c r="I7">
+        <v>0.38994779853988243</v>
+      </c>
+      <c r="J7">
+        <v>10001</v>
+      </c>
+      <c r="K7">
+        <v>0.89437702402310915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>1754</v>
+      </c>
+      <c r="I8">
+        <v>1.4485785292756959</v>
+      </c>
+      <c r="J8">
+        <v>10001</v>
+      </c>
+      <c r="K8">
+        <v>4.3566162988163342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>2171</v>
+      </c>
+      <c r="I9">
+        <v>0.26407612865734631</v>
+      </c>
+      <c r="J9">
+        <v>10001</v>
+      </c>
+      <c r="K9">
+        <v>0.85416278787673627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>1767</v>
+      </c>
+      <c r="I10">
+        <v>1.4817414779459057</v>
+      </c>
+      <c r="J10">
+        <v>10001</v>
+      </c>
+      <c r="K10">
+        <v>4.1576290861288827</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>2669</v>
+      </c>
+      <c r="I11">
+        <v>0.25329556097175676</v>
+      </c>
+      <c r="J11">
+        <v>10001</v>
+      </c>
+      <c r="K11">
+        <v>0.9033335025896212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>1829</v>
+      </c>
+      <c r="I12">
+        <v>1.3803432094377306</v>
+      </c>
+      <c r="J12">
+        <v>10001</v>
+      </c>
+      <c r="K12">
+        <v>4.054789318235672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>2123</v>
+      </c>
+      <c r="I13">
+        <v>0.25793706204935513</v>
+      </c>
+      <c r="J13">
+        <v>10001</v>
+      </c>
+      <c r="K13">
+        <v>1.1232379715198086</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>1811</v>
+      </c>
+      <c r="I14">
+        <v>1.5238848831567426</v>
+      </c>
+      <c r="J14">
+        <v>10001</v>
+      </c>
+      <c r="K14">
+        <v>4.5285933815149564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>2706</v>
+      </c>
+      <c r="I15">
+        <v>0.20987532863929229</v>
+      </c>
+      <c r="J15">
+        <v>10001</v>
+      </c>
+      <c r="K15">
+        <v>0.68583106247813774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>1801</v>
+      </c>
+      <c r="I16">
+        <v>1.4783563521884837</v>
+      </c>
+      <c r="J16">
+        <v>10001</v>
+      </c>
+      <c r="K16">
+        <v>3.9879341423783892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>2166</v>
+      </c>
+      <c r="I17">
+        <v>0.29009399365853106</v>
+      </c>
+      <c r="J17">
+        <v>10001</v>
+      </c>
+      <c r="K17">
+        <v>1.1754528310935084</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>1755</v>
+      </c>
+      <c r="I18">
+        <v>1.5886670221048711</v>
+      </c>
+      <c r="J18">
+        <v>10001</v>
+      </c>
+      <c r="K18">
+        <v>4.2639431919479138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>2691</v>
+      </c>
+      <c r="I19">
+        <v>0.21124877289191293</v>
+      </c>
+      <c r="J19">
+        <v>10001</v>
+      </c>
+      <c r="K19">
+        <v>0.97896355912122135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>1770</v>
+      </c>
+      <c r="I20">
+        <v>1.4690193995915282</v>
+      </c>
+      <c r="J20">
+        <v>10001</v>
+      </c>
+      <c r="K20">
+        <v>3.994263269692969</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>2132</v>
+      </c>
+      <c r="I21">
+        <v>0.25681785484580755</v>
+      </c>
+      <c r="J21">
+        <v>10001</v>
+      </c>
+      <c r="K21">
+        <v>1.1941979649752321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>1788</v>
+      </c>
+      <c r="I22">
+        <v>1.5225562212969546</v>
+      </c>
+      <c r="J22">
+        <v>10001</v>
+      </c>
+      <c r="K22">
+        <v>4.9788094653758055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>2691</v>
+      </c>
+      <c r="I23">
+        <v>0.22075145560407569</v>
+      </c>
+      <c r="J23">
+        <v>10001</v>
+      </c>
+      <c r="K23">
+        <v>0.74335034359026442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>1780</v>
+      </c>
+      <c r="I24">
+        <v>1.5135436765850852</v>
+      </c>
+      <c r="J24">
+        <v>10001</v>
+      </c>
+      <c r="K24">
+        <v>4.446898660618575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>2200</v>
+      </c>
+      <c r="I25">
+        <v>0.26554583742369364</v>
+      </c>
+      <c r="J25">
+        <v>10001</v>
+      </c>
+      <c r="K25">
+        <v>1.1592380787154577</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>1763</v>
+      </c>
+      <c r="I26">
+        <v>1.617799908037417</v>
+      </c>
+      <c r="J26">
+        <v>10001</v>
+      </c>
+      <c r="K26">
+        <v>4.3985460179637341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>2686</v>
+      </c>
+      <c r="I27">
+        <v>0.32289092560621963</v>
+      </c>
+      <c r="J27">
+        <v>10001</v>
+      </c>
+      <c r="K27">
+        <v>1.5190124177696536</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>1814</v>
+      </c>
+      <c r="I28">
+        <v>1.4844072644798754</v>
+      </c>
+      <c r="J28">
+        <v>10001</v>
+      </c>
+      <c r="K28">
+        <v>6.087882096069869</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>2135</v>
+      </c>
+      <c r="I29">
+        <v>0.20602686379382326</v>
+      </c>
+      <c r="J29">
+        <v>10001</v>
+      </c>
+      <c r="K29">
+        <v>1.208154203762003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>1753</v>
+      </c>
+      <c r="I30">
+        <v>1.4245885661735667</v>
+      </c>
+      <c r="J30">
+        <v>10001</v>
+      </c>
+      <c r="K30">
+        <v>4.7114698639179444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>2686</v>
+      </c>
+      <c r="I31">
+        <v>0.26584379901380001</v>
+      </c>
+      <c r="J31">
+        <v>10001</v>
+      </c>
+      <c r="K31">
+        <v>0.70491823510826757</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>1842</v>
+      </c>
+      <c r="I32">
+        <v>1.4648465268609729</v>
+      </c>
+      <c r="J32">
+        <v>10001</v>
+      </c>
+      <c r="K32">
+        <v>4.1570585513918505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>2154</v>
+      </c>
+      <c r="I33">
+        <v>0.23824127201742212</v>
+      </c>
+      <c r="J33">
+        <v>10001</v>
+      </c>
+      <c r="K33">
+        <v>1.1664247712219176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34">
+        <v>1837</v>
+      </c>
+      <c r="I34">
+        <v>1.504765974972637</v>
+      </c>
+      <c r="J34">
+        <v>10001</v>
+      </c>
+      <c r="K34">
+        <v>4.2538223711677556</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>10321</v>
+      </c>
+      <c r="I35">
+        <v>0.90448303487807902</v>
+      </c>
+      <c r="J35">
+        <v>10001</v>
+      </c>
+      <c r="K35">
+        <v>0.87472178497681186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>13603</v>
+      </c>
+      <c r="I36">
+        <v>7.2901557016801508</v>
+      </c>
+      <c r="J36">
+        <v>10001</v>
+      </c>
+      <c r="K36">
+        <v>4.7552085096419665</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>2906</v>
+      </c>
+      <c r="I37">
+        <v>0.33194825271092154</v>
+      </c>
+      <c r="J37">
+        <v>10001</v>
+      </c>
+      <c r="K37">
+        <v>0.87566962018889005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>5658</v>
+      </c>
+      <c r="I38">
+        <v>3.7595284237726099</v>
+      </c>
+      <c r="J38">
+        <v>1544</v>
+      </c>
+      <c r="K38">
+        <v>1.3652575375466864</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>10311</v>
+      </c>
+      <c r="I39">
+        <v>0.71441562856143437</v>
+      </c>
+      <c r="J39">
+        <v>10001</v>
+      </c>
+      <c r="K39">
+        <v>0.73069032587477289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <v>13607</v>
+      </c>
+      <c r="I40">
+        <v>6.6060023921555349</v>
+      </c>
+      <c r="J40">
+        <v>1545</v>
+      </c>
+      <c r="K40">
+        <v>1.7842331420737281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>2887</v>
+      </c>
+      <c r="I41">
+        <v>0.34438576893131578</v>
+      </c>
+      <c r="J41">
+        <v>10001</v>
+      </c>
+      <c r="K41">
+        <v>1.3453046895275493</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>5580</v>
+      </c>
+      <c r="I42">
+        <v>4.326904415332363</v>
+      </c>
+      <c r="J42">
+        <v>1544</v>
+      </c>
+      <c r="K42">
+        <v>1.3003928861582208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>10295</v>
+      </c>
+      <c r="I43">
+        <v>1.3912034686255261</v>
+      </c>
+      <c r="J43">
+        <v>10001</v>
+      </c>
+      <c r="K43">
+        <v>0.71523616894034281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>13618</v>
+      </c>
+      <c r="I44">
+        <v>7.0216394164043194</v>
+      </c>
+      <c r="J44">
+        <v>10001</v>
+      </c>
+      <c r="K44">
+        <v>4.1890321220224997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>2918</v>
+      </c>
+      <c r="I45">
+        <v>0.2550322010087675</v>
+      </c>
+      <c r="J45">
+        <v>10001</v>
+      </c>
+      <c r="K45">
+        <v>1.1359353666655383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <v>5765</v>
+      </c>
+      <c r="I46">
+        <v>3.9535444382383806</v>
+      </c>
+      <c r="J46">
+        <v>1544</v>
+      </c>
+      <c r="K46">
+        <v>1.1907539521343218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>10333</v>
+      </c>
+      <c r="I47">
+        <v>0.88694808345463372</v>
+      </c>
+      <c r="J47">
+        <v>10001</v>
+      </c>
+      <c r="K47">
+        <v>0.71549075860668221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48">
+        <v>13620</v>
+      </c>
+      <c r="I48">
+        <v>6.3000021862270517</v>
+      </c>
+      <c r="J48">
+        <v>1545</v>
+      </c>
+      <c r="K48">
+        <v>1.6637268965167056</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>2801</v>
+      </c>
+      <c r="I49">
+        <v>0.23592986583618247</v>
+      </c>
+      <c r="J49">
+        <v>10001</v>
+      </c>
+      <c r="K49">
+        <v>1.3398355957257146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50">
+        <v>5706</v>
+      </c>
+      <c r="I50">
+        <v>3.8806122564119923</v>
+      </c>
+      <c r="J50">
+        <v>1544</v>
+      </c>
+      <c r="K50">
+        <v>1.8887379686988706</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>10338</v>
+      </c>
+      <c r="I51">
+        <v>0.79859065930966</v>
+      </c>
+      <c r="J51">
+        <v>10001</v>
+      </c>
+      <c r="K51">
+        <v>0.7424525800300148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52">
+        <v>14967</v>
+      </c>
+      <c r="I52">
+        <v>7.7601257574218883</v>
+      </c>
+      <c r="J52">
+        <v>1526</v>
+      </c>
+      <c r="K52">
+        <v>1.335146138699886</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>3022</v>
+      </c>
+      <c r="I53">
+        <v>0.27210275549236657</v>
+      </c>
+      <c r="J53">
+        <v>10001</v>
+      </c>
+      <c r="K53">
+        <v>0.960443747672726</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54">
+        <v>9095</v>
+      </c>
+      <c r="I54">
+        <v>6.2755002228541121</v>
+      </c>
+      <c r="J54">
+        <v>1524</v>
+      </c>
+      <c r="K54">
+        <v>1.4090004146779054</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>10326</v>
+      </c>
+      <c r="I55">
+        <v>0.80068344278573278</v>
+      </c>
+      <c r="J55">
+        <v>10001</v>
+      </c>
+      <c r="K55">
+        <v>0.86447120104261876</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56">
+        <v>15007</v>
+      </c>
+      <c r="I56">
+        <v>8.0009929702221765</v>
+      </c>
+      <c r="J56">
+        <v>10001</v>
+      </c>
+      <c r="K56">
+        <v>4.5081013816954965</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>2962</v>
+      </c>
+      <c r="I57">
+        <v>0.25522684573981924</v>
+      </c>
+      <c r="J57">
+        <v>10001</v>
+      </c>
+      <c r="K57">
+        <v>1.6345220766618147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58">
+        <v>553</v>
+      </c>
+      <c r="I58">
+        <v>1.2045247142389672</v>
+      </c>
+      <c r="J58">
+        <v>1524</v>
+      </c>
+      <c r="K58">
+        <v>1.366415532649538</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>10332</v>
+      </c>
+      <c r="I59">
+        <v>0.64487950362772639</v>
+      </c>
+      <c r="J59">
+        <v>10001</v>
+      </c>
+      <c r="K59">
+        <v>0.7627181995644472</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60">
+        <v>14900</v>
+      </c>
+      <c r="I60">
+        <v>8.0733500332870705</v>
+      </c>
+      <c r="J60">
+        <v>1526</v>
+      </c>
+      <c r="K60">
+        <v>1.3463537258950837</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <v>2876</v>
+      </c>
+      <c r="I61">
+        <v>0.34403174119585211</v>
+      </c>
+      <c r="J61">
+        <v>10001</v>
+      </c>
+      <c r="K61">
+        <v>0.91871360989810769</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62">
+        <v>626</v>
+      </c>
+      <c r="I62">
+        <v>1.2178339003418976</v>
+      </c>
+      <c r="J62">
+        <v>1524</v>
+      </c>
+      <c r="K62">
+        <v>1.5588370118366563</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>10301</v>
+      </c>
+      <c r="I63">
+        <v>0.6407087466007696</v>
+      </c>
+      <c r="J63">
+        <v>10001</v>
+      </c>
+      <c r="K63">
+        <v>0.81662667986865711</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64">
+        <v>14948</v>
+      </c>
+      <c r="I64">
+        <v>8.0172838879297696</v>
+      </c>
+      <c r="J64">
+        <v>10001</v>
+      </c>
+      <c r="K64">
+        <v>4.4370616967378673</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65">
+        <v>2931</v>
+      </c>
+      <c r="I65">
+        <v>0.33279347629847783</v>
+      </c>
+      <c r="J65">
+        <v>10001</v>
+      </c>
+      <c r="K65">
+        <v>1.1968905504214482</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66">
+        <v>9413</v>
+      </c>
+      <c r="I66">
+        <v>6.5228873289101026</v>
+      </c>
+      <c r="J66">
+        <v>1524</v>
+      </c>
+      <c r="K66">
+        <v>1.2681361638626543</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758CE05B-3CB2-4320-9A66-7BBA607C331A}">
+  <dimension ref="A1:K66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>2661</v>
+      </c>
+      <c r="I3">
+        <v>0.48439176032762354</v>
+      </c>
+      <c r="J3">
+        <v>10001</v>
+      </c>
+      <c r="K3">
+        <v>0.74291504257145258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>1763</v>
+      </c>
+      <c r="I4">
+        <v>1.7925405985603353</v>
+      </c>
+      <c r="J4">
+        <v>10001</v>
+      </c>
+      <c r="K4">
+        <v>3.6881264682091075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>2161</v>
+      </c>
+      <c r="I5">
+        <v>0.32607095077536957</v>
+      </c>
+      <c r="J5">
+        <v>10001</v>
+      </c>
+      <c r="K5">
+        <v>0.79701671898327819</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>1769</v>
+      </c>
+      <c r="I6">
+        <v>1.5365706161418198</v>
+      </c>
+      <c r="J6">
+        <v>10001</v>
+      </c>
+      <c r="K6">
+        <v>3.6031961911720214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>2622</v>
+      </c>
+      <c r="I7">
+        <v>0.31012913540422959</v>
+      </c>
+      <c r="J7">
+        <v>10001</v>
+      </c>
+      <c r="K7">
+        <v>0.76038792103353459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>1754</v>
+      </c>
+      <c r="I8">
+        <v>1.2510453331490321</v>
+      </c>
+      <c r="J8">
+        <v>10001</v>
+      </c>
+      <c r="K8">
+        <v>3.7265962796083696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>2171</v>
+      </c>
+      <c r="I9">
+        <v>0.23469377680330106</v>
+      </c>
+      <c r="J9">
+        <v>10001</v>
+      </c>
+      <c r="K9">
+        <v>0.81039218769944898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>1767</v>
+      </c>
+      <c r="I10">
+        <v>1.4767544283408169</v>
+      </c>
+      <c r="J10">
+        <v>10001</v>
+      </c>
+      <c r="K10">
+        <v>3.7513926609114869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>2669</v>
+      </c>
+      <c r="I11">
+        <v>0.25312118953235224</v>
+      </c>
+      <c r="J11">
+        <v>10001</v>
+      </c>
+      <c r="K11">
+        <v>0.82979282339740856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>1829</v>
+      </c>
+      <c r="I12">
+        <v>1.3176903021152084</v>
+      </c>
+      <c r="J12">
+        <v>10001</v>
+      </c>
+      <c r="K12">
+        <v>3.8586517053616829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>2123</v>
+      </c>
+      <c r="I13">
+        <v>0.24177679483825104</v>
+      </c>
+      <c r="J13">
+        <v>10001</v>
+      </c>
+      <c r="K13">
+        <v>0.84851008731502597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>1811</v>
+      </c>
+      <c r="I14">
+        <v>1.5782058705091577</v>
+      </c>
+      <c r="J14">
+        <v>10001</v>
+      </c>
+      <c r="K14">
+        <v>3.5973332280183841</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>2706</v>
+      </c>
+      <c r="I15">
+        <v>0.20830109826096338</v>
+      </c>
+      <c r="J15">
+        <v>10001</v>
+      </c>
+      <c r="K15">
+        <v>0.76534747938777226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>1801</v>
+      </c>
+      <c r="I16">
+        <v>1.2600525822496824</v>
+      </c>
+      <c r="J16">
+        <v>10001</v>
+      </c>
+      <c r="K16">
+        <v>3.4952216867928705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>2166</v>
+      </c>
+      <c r="I17">
+        <v>0.23575797496278128</v>
+      </c>
+      <c r="J17">
+        <v>10001</v>
+      </c>
+      <c r="K17">
+        <v>1.0131945761860803</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>1755</v>
+      </c>
+      <c r="I18">
+        <v>1.3626235834492855</v>
+      </c>
+      <c r="J18">
+        <v>10001</v>
+      </c>
+      <c r="K18">
+        <v>3.7038422560718889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>2691</v>
+      </c>
+      <c r="I19">
+        <v>0.25819887458752622</v>
+      </c>
+      <c r="J19">
+        <v>10001</v>
+      </c>
+      <c r="K19">
+        <v>0.75867420232741334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>1770</v>
+      </c>
+      <c r="I20">
+        <v>1.3411365128574744</v>
+      </c>
+      <c r="J20">
+        <v>10001</v>
+      </c>
+      <c r="K20">
+        <v>3.8043948774620602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>2132</v>
+      </c>
+      <c r="I21">
+        <v>0.28842555796353797</v>
+      </c>
+      <c r="J21">
+        <v>10001</v>
+      </c>
+      <c r="K21">
+        <v>0.86143138531237284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>1788</v>
+      </c>
+      <c r="I22">
+        <v>1.408670076708306</v>
+      </c>
+      <c r="J22">
+        <v>10001</v>
+      </c>
+      <c r="K22">
+        <v>3.5590672292553647</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>2691</v>
+      </c>
+      <c r="I23">
+        <v>0.26182448276372755</v>
+      </c>
+      <c r="J23">
+        <v>10001</v>
+      </c>
+      <c r="K23">
+        <v>0.7698320626191405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>1780</v>
+      </c>
+      <c r="I24">
+        <v>1.3624232969832204</v>
+      </c>
+      <c r="J24">
+        <v>10001</v>
+      </c>
+      <c r="K24">
+        <v>3.515675942139779</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>2200</v>
+      </c>
+      <c r="I25">
+        <v>0.24808476066825155</v>
+      </c>
+      <c r="J25">
+        <v>10001</v>
+      </c>
+      <c r="K25">
+        <v>0.94886630102632707</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>1763</v>
+      </c>
+      <c r="I26">
+        <v>1.3941517762377034</v>
+      </c>
+      <c r="J26">
+        <v>10001</v>
+      </c>
+      <c r="K26">
+        <v>4.1946199105904292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>2686</v>
+      </c>
+      <c r="I27">
+        <v>0.20521887290906923</v>
+      </c>
+      <c r="J27">
+        <v>10001</v>
+      </c>
+      <c r="K27">
+        <v>0.72638188846159546</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>1814</v>
+      </c>
+      <c r="I28">
+        <v>1.3958679632629487</v>
+      </c>
+      <c r="J28">
+        <v>10001</v>
+      </c>
+      <c r="K28">
+        <v>3.8609722779553008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>2135</v>
+      </c>
+      <c r="I29">
+        <v>0.23139962862375693</v>
+      </c>
+      <c r="J29">
+        <v>10001</v>
+      </c>
+      <c r="K29">
+        <v>0.9702620438105487</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>1753</v>
+      </c>
+      <c r="I30">
+        <v>1.4488902789835321</v>
+      </c>
+      <c r="J30">
+        <v>10001</v>
+      </c>
+      <c r="K30">
+        <v>4.3184290347673331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>2686</v>
+      </c>
+      <c r="I31">
+        <v>0.20492443769927268</v>
+      </c>
+      <c r="J31">
+        <v>10001</v>
+      </c>
+      <c r="K31">
+        <v>0.65806904100160157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>1842</v>
+      </c>
+      <c r="I32">
+        <v>1.3961609880046744</v>
+      </c>
+      <c r="J32">
+        <v>10001</v>
+      </c>
+      <c r="K32">
+        <v>3.4597399520017715</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>2154</v>
+      </c>
+      <c r="I33">
+        <v>0.23475901095157933</v>
+      </c>
+      <c r="J33">
+        <v>10001</v>
+      </c>
+      <c r="K33">
+        <v>1.092900126871603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34">
+        <v>1837</v>
+      </c>
+      <c r="I34">
+        <v>1.4059179008849982</v>
+      </c>
+      <c r="J34">
+        <v>10001</v>
+      </c>
+      <c r="K34">
+        <v>4.3455763137275918</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>10321</v>
+      </c>
+      <c r="I35">
+        <v>0.8289779254694567</v>
+      </c>
+      <c r="J35">
+        <v>10001</v>
+      </c>
+      <c r="K35">
+        <v>0.63737324299755493</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>13603</v>
+      </c>
+      <c r="I36">
+        <v>7.577485121324937</v>
+      </c>
+      <c r="J36">
+        <v>10001</v>
+      </c>
+      <c r="K36">
+        <v>3.8510330620768154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>2906</v>
+      </c>
+      <c r="I37">
+        <v>0.25003014875501511</v>
+      </c>
+      <c r="J37">
+        <v>10001</v>
+      </c>
+      <c r="K37">
+        <v>0.92348210715466983</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>5658</v>
+      </c>
+      <c r="I38">
+        <v>3.6242819835976667</v>
+      </c>
+      <c r="J38">
+        <v>1544</v>
+      </c>
+      <c r="K38">
+        <v>1.1216447609221358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>10311</v>
+      </c>
+      <c r="I39">
+        <v>0.79023906728567406</v>
+      </c>
+      <c r="J39">
+        <v>10001</v>
+      </c>
+      <c r="K39">
+        <v>0.63302441731800907</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <v>13607</v>
+      </c>
+      <c r="I40">
+        <v>5.95486290602968</v>
+      </c>
+      <c r="J40">
+        <v>1545</v>
+      </c>
+      <c r="K40">
+        <v>1.0833724150527972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>2887</v>
+      </c>
+      <c r="I41">
+        <v>0.24714397846497349</v>
+      </c>
+      <c r="J41">
+        <v>10001</v>
+      </c>
+      <c r="K41">
+        <v>0.85164873138975539</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>5580</v>
+      </c>
+      <c r="I42">
+        <v>3.7645304657577139</v>
+      </c>
+      <c r="J42">
+        <v>1544</v>
+      </c>
+      <c r="K42">
+        <v>1.1293254648021218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>10295</v>
+      </c>
+      <c r="I43">
+        <v>0.80302883913541123</v>
+      </c>
+      <c r="J43">
+        <v>10001</v>
+      </c>
+      <c r="K43">
+        <v>0.63512742521169363</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>13618</v>
+      </c>
+      <c r="I44">
+        <v>7.0397275963014705</v>
+      </c>
+      <c r="J44">
+        <v>10001</v>
+      </c>
+      <c r="K44">
+        <v>3.3994269268228008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>2918</v>
+      </c>
+      <c r="I45">
+        <v>0.38874650997306709</v>
+      </c>
+      <c r="J45">
+        <v>10001</v>
+      </c>
+      <c r="K45">
+        <v>0.96311414424433817</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <v>5765</v>
+      </c>
+      <c r="I46">
+        <v>4.0072917673094404</v>
+      </c>
+      <c r="J46">
+        <v>1544</v>
+      </c>
+      <c r="K46">
+        <v>1.0987905941526226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>10333</v>
+      </c>
+      <c r="I47">
+        <v>0.81031038055133786</v>
+      </c>
+      <c r="J47">
+        <v>10001</v>
+      </c>
+      <c r="K47">
+        <v>0.70108831716349229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48">
+        <v>13620</v>
+      </c>
+      <c r="I48">
+        <v>5.9202207523577739</v>
+      </c>
+      <c r="J48">
+        <v>1545</v>
+      </c>
+      <c r="K48">
+        <v>1.2015840966904072</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>2801</v>
+      </c>
+      <c r="I49">
+        <v>0.29805447086642939</v>
+      </c>
+      <c r="J49">
+        <v>10001</v>
+      </c>
+      <c r="K49">
+        <v>0.80928567549784236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50">
+        <v>5706</v>
+      </c>
+      <c r="I50">
+        <v>3.699939843536777</v>
+      </c>
+      <c r="J50">
+        <v>1544</v>
+      </c>
+      <c r="K50">
+        <v>1.0998167096741889</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>10338</v>
+      </c>
+      <c r="I51">
+        <v>0.62261481033788468</v>
+      </c>
+      <c r="J51">
+        <v>10001</v>
+      </c>
+      <c r="K51">
+        <v>0.67515968261647474</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52">
+        <v>14967</v>
+      </c>
+      <c r="I52">
+        <v>8.0828526575686777</v>
+      </c>
+      <c r="J52">
+        <v>1526</v>
+      </c>
+      <c r="K52">
+        <v>1.0867942105927562</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>3022</v>
+      </c>
+      <c r="I53">
+        <v>0.43080525737868741</v>
+      </c>
+      <c r="J53">
+        <v>10001</v>
+      </c>
+      <c r="K53">
+        <v>0.95104441634478609</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54">
+        <v>9095</v>
+      </c>
+      <c r="I54">
+        <v>6.3041864808045878</v>
+      </c>
+      <c r="J54">
+        <v>1524</v>
+      </c>
+      <c r="K54">
+        <v>1.1076906476798858</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>10326</v>
+      </c>
+      <c r="I55">
+        <v>0.6275849472026539</v>
+      </c>
+      <c r="J55">
+        <v>10001</v>
+      </c>
+      <c r="K55">
+        <v>0.65789132202467049</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56">
+        <v>15007</v>
+      </c>
+      <c r="I56">
+        <v>6.8815869740452715</v>
+      </c>
+      <c r="J56">
+        <v>10001</v>
+      </c>
+      <c r="K56">
+        <v>3.4645972514208703</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>2962</v>
+      </c>
+      <c r="I57">
+        <v>0.27580927368651925</v>
+      </c>
+      <c r="J57">
+        <v>10001</v>
+      </c>
+      <c r="K57">
+        <v>0.98101404191487962</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58">
+        <v>553</v>
+      </c>
+      <c r="I58">
+        <v>1.0635881320395579</v>
+      </c>
+      <c r="J58">
+        <v>1524</v>
+      </c>
+      <c r="K58">
+        <v>1.1542396201891578</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>10332</v>
+      </c>
+      <c r="I59">
+        <v>0.56227921766977984</v>
+      </c>
+      <c r="J59">
+        <v>10001</v>
+      </c>
+      <c r="K59">
+        <v>0.66974736401148405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60">
+        <v>14900</v>
+      </c>
+      <c r="I60">
+        <v>7.2561085609064797</v>
+      </c>
+      <c r="J60">
+        <v>1526</v>
+      </c>
+      <c r="K60">
+        <v>1.1516168548113535</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <v>2876</v>
+      </c>
+      <c r="I61">
+        <v>0.28121242424904919</v>
+      </c>
+      <c r="J61">
+        <v>10001</v>
+      </c>
+      <c r="K61">
+        <v>0.86779506463117317</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62">
+        <v>626</v>
+      </c>
+      <c r="I62">
+        <v>1.180554722987597</v>
+      </c>
+      <c r="J62">
+        <v>1524</v>
+      </c>
+      <c r="K62">
+        <v>1.1146241560993224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>10301</v>
+      </c>
+      <c r="I63">
+        <v>0.56540410968081811</v>
+      </c>
+      <c r="J63">
+        <v>10001</v>
+      </c>
+      <c r="K63">
+        <v>0.67110811308286711</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64">
+        <v>14948</v>
+      </c>
+      <c r="I64">
+        <v>6.9525892314994193</v>
+      </c>
+      <c r="J64">
+        <v>10001</v>
+      </c>
+      <c r="K64">
+        <v>3.5141593363465633</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65">
+        <v>2931</v>
+      </c>
+      <c r="I65">
+        <v>0.28512788361381669</v>
+      </c>
+      <c r="J65">
+        <v>10001</v>
+      </c>
+      <c r="K65">
+        <v>0.93936750380297451</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66">
+        <v>9413</v>
+      </c>
+      <c r="I66">
+        <v>5.6176362106646902</v>
+      </c>
+      <c r="J66">
+        <v>1524</v>
+      </c>
+      <c r="K66">
+        <v>1.1172398691367724</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SimResults/Hydraulic_Lift_Res.xlsx
+++ b/SimResults/Hydraulic_Lift_Res.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SMILLER\TMW\Simscape\zECLArch\zR18b\Demos\ssczAll\Hydraulic_Lift\SimResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SMILLER\TMW\Simscape\zECLArch\zR19a\Demos\ssczAll\Hydraulic_Lift\SimResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1611C997-E08D-4D5E-8DDF-AF11F9965F9A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA155D8D-CCB7-4C5F-AA4E-6851C48E6C10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21204" windowHeight="11460" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,18 +22,24 @@
     <sheet name="2018a" sheetId="13" r:id="rId7"/>
     <sheet name="2018b_Bash" sheetId="14" r:id="rId8"/>
     <sheet name="2018b" sheetId="15" r:id="rId9"/>
+    <sheet name="2019a" sheetId="16" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3993" uniqueCount="26">
   <si>
     <t>Run</t>
   </si>
@@ -109,13 +115,17 @@
   <si>
     <t>11-Sep-2018 20:23:43</t>
   </si>
+  <si>
+    <t>09-Mar-2019 01:36:52</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -242,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -359,6 +369,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2998,6 +3010,2313 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE64A48B-2649-44F2-841F-E07BA9DDAEDB}">
+  <dimension ref="A1:K66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>2621</v>
+      </c>
+      <c r="I3" s="60">
+        <v>0.57348564053830575</v>
+      </c>
+      <c r="J3">
+        <v>10001</v>
+      </c>
+      <c r="K3" s="61">
+        <v>1.2760306565559507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>1737</v>
+      </c>
+      <c r="I4" s="60">
+        <v>1.8117432169637175</v>
+      </c>
+      <c r="J4">
+        <v>10001</v>
+      </c>
+      <c r="K4" s="61">
+        <v>6.8799351889235822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>2171</v>
+      </c>
+      <c r="I5" s="60">
+        <v>0.59768259850807581</v>
+      </c>
+      <c r="J5">
+        <v>10001</v>
+      </c>
+      <c r="K5" s="61">
+        <v>1.4539596288349346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>1786</v>
+      </c>
+      <c r="I6" s="60">
+        <v>3.1536110665441908</v>
+      </c>
+      <c r="J6">
+        <v>10001</v>
+      </c>
+      <c r="K6" s="61">
+        <v>7.1680680269470214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>2620</v>
+      </c>
+      <c r="I7" s="60">
+        <v>0.51783344822783317</v>
+      </c>
+      <c r="J7">
+        <v>10001</v>
+      </c>
+      <c r="K7" s="61">
+        <v>1.2792419431333935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>1767</v>
+      </c>
+      <c r="I8" s="60">
+        <v>1.7326031802562472</v>
+      </c>
+      <c r="J8">
+        <v>10001</v>
+      </c>
+      <c r="K8" s="61">
+        <v>5.7599267966296832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>2097</v>
+      </c>
+      <c r="I9" s="60">
+        <v>0.49553639275935452</v>
+      </c>
+      <c r="J9">
+        <v>10001</v>
+      </c>
+      <c r="K9" s="61">
+        <v>1.5898604869293549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>1694</v>
+      </c>
+      <c r="I10" s="60">
+        <v>1.9395472745320326</v>
+      </c>
+      <c r="J10">
+        <v>10001</v>
+      </c>
+      <c r="K10" s="61">
+        <v>7.1648190103087694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>2689</v>
+      </c>
+      <c r="I11" s="60">
+        <v>0.63572437309035645</v>
+      </c>
+      <c r="J11">
+        <v>10001</v>
+      </c>
+      <c r="K11" s="61">
+        <v>1.2884614774316054</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>1778</v>
+      </c>
+      <c r="I12" s="60">
+        <v>1.8254448709155886</v>
+      </c>
+      <c r="J12">
+        <v>10001</v>
+      </c>
+      <c r="K12" s="61">
+        <v>6.839824608109847</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>2158</v>
+      </c>
+      <c r="I13" s="60">
+        <v>0.48353717556996195</v>
+      </c>
+      <c r="J13">
+        <v>10001</v>
+      </c>
+      <c r="K13" s="61">
+        <v>1.9476761632406949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>1770</v>
+      </c>
+      <c r="I14" s="60">
+        <v>1.8008279456334506</v>
+      </c>
+      <c r="J14">
+        <v>10001</v>
+      </c>
+      <c r="K14" s="61">
+        <v>5.7866784675953431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>2648</v>
+      </c>
+      <c r="I15" s="60">
+        <v>0.63847796229462239</v>
+      </c>
+      <c r="J15">
+        <v>10001</v>
+      </c>
+      <c r="K15" s="61">
+        <v>1.2140151308122364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>1755</v>
+      </c>
+      <c r="I16" s="60">
+        <v>1.7795834530763224</v>
+      </c>
+      <c r="J16">
+        <v>10001</v>
+      </c>
+      <c r="K16" s="61">
+        <v>5.4677582525692587</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>2146</v>
+      </c>
+      <c r="I17" s="60">
+        <v>0.65350369454871149</v>
+      </c>
+      <c r="J17">
+        <v>10001</v>
+      </c>
+      <c r="K17" s="61">
+        <v>1.4586459139578305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>1703</v>
+      </c>
+      <c r="I18" s="60">
+        <v>1.8396415996840547</v>
+      </c>
+      <c r="J18">
+        <v>10001</v>
+      </c>
+      <c r="K18" s="61">
+        <v>5.9036039260420283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>2651</v>
+      </c>
+      <c r="I19" s="60">
+        <v>0.66314954327232467</v>
+      </c>
+      <c r="J19">
+        <v>10001</v>
+      </c>
+      <c r="K19" s="61">
+        <v>1.394203322713673</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>1785</v>
+      </c>
+      <c r="I20" s="60">
+        <v>1.9535652262833951</v>
+      </c>
+      <c r="J20">
+        <v>10001</v>
+      </c>
+      <c r="K20" s="61">
+        <v>5.8850312154545152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>2143</v>
+      </c>
+      <c r="I21" s="60">
+        <v>0.58922471777385588</v>
+      </c>
+      <c r="J21">
+        <v>10001</v>
+      </c>
+      <c r="K21" s="61">
+        <v>1.4983767258417418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>1761</v>
+      </c>
+      <c r="I22" s="60">
+        <v>1.9363289356067752</v>
+      </c>
+      <c r="J22">
+        <v>10001</v>
+      </c>
+      <c r="K22" s="61">
+        <v>5.843095487026325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>2651</v>
+      </c>
+      <c r="I23" s="60">
+        <v>0.60647299744176086</v>
+      </c>
+      <c r="J23">
+        <v>10001</v>
+      </c>
+      <c r="K23" s="61">
+        <v>1.3800929852059374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>1757</v>
+      </c>
+      <c r="I24" s="60">
+        <v>1.9051286436395756</v>
+      </c>
+      <c r="J24">
+        <v>10001</v>
+      </c>
+      <c r="K24" s="61">
+        <v>9.7430053932829921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>2137</v>
+      </c>
+      <c r="I25" s="60">
+        <v>0.6344200413620199</v>
+      </c>
+      <c r="J25">
+        <v>10001</v>
+      </c>
+      <c r="K25" s="61">
+        <v>1.5261326511362214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>1718</v>
+      </c>
+      <c r="I26" s="60">
+        <v>3.0919509791303397</v>
+      </c>
+      <c r="J26">
+        <v>10001</v>
+      </c>
+      <c r="K26" s="61">
+        <v>6.8791195848988078</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>2624</v>
+      </c>
+      <c r="I27" s="60">
+        <v>0.49832524370269415</v>
+      </c>
+      <c r="J27">
+        <v>10001</v>
+      </c>
+      <c r="K27" s="61">
+        <v>1.3764455109161529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>1804</v>
+      </c>
+      <c r="I28" s="60">
+        <v>1.8904276720023554</v>
+      </c>
+      <c r="J28">
+        <v>10001</v>
+      </c>
+      <c r="K28" s="61">
+        <v>6.6584614950624754</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>2138</v>
+      </c>
+      <c r="I29" s="60">
+        <v>0.60494404843552474</v>
+      </c>
+      <c r="J29">
+        <v>10001</v>
+      </c>
+      <c r="K29" s="61">
+        <v>1.5080246902696994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>1779</v>
+      </c>
+      <c r="I30" s="60">
+        <v>1.9071029484103126</v>
+      </c>
+      <c r="J30">
+        <v>10001</v>
+      </c>
+      <c r="K30" s="61">
+        <v>7.1548861310290963</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>2624</v>
+      </c>
+      <c r="I31" s="60">
+        <v>0.65246206277647412</v>
+      </c>
+      <c r="J31">
+        <v>10001</v>
+      </c>
+      <c r="K31" s="61">
+        <v>1.3346839754789865</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>1751</v>
+      </c>
+      <c r="I32" s="60">
+        <v>1.977789335792252</v>
+      </c>
+      <c r="J32">
+        <v>10001</v>
+      </c>
+      <c r="K32" s="61">
+        <v>6.2020885528053356</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>2115</v>
+      </c>
+      <c r="I33" s="60">
+        <v>1.0294484887700177</v>
+      </c>
+      <c r="J33">
+        <v>10001</v>
+      </c>
+      <c r="K33" s="61">
+        <v>1.5900248066334384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34">
+        <v>1760</v>
+      </c>
+      <c r="I34" s="60">
+        <v>1.9882257527058977</v>
+      </c>
+      <c r="J34">
+        <v>10001</v>
+      </c>
+      <c r="K34" s="61">
+        <v>6.0931431785284218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>10245</v>
+      </c>
+      <c r="I35" s="60">
+        <v>1.3580434671457562</v>
+      </c>
+      <c r="J35">
+        <v>10001</v>
+      </c>
+      <c r="K35" s="61">
+        <v>1.5981917780203001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>13312</v>
+      </c>
+      <c r="I36" s="60">
+        <v>9.2754675265829434</v>
+      </c>
+      <c r="J36">
+        <v>10001</v>
+      </c>
+      <c r="K36" s="61">
+        <v>8.079061050411946</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>2798</v>
+      </c>
+      <c r="I37" s="60">
+        <v>0.53433135808824961</v>
+      </c>
+      <c r="J37">
+        <v>10001</v>
+      </c>
+      <c r="K37" s="61">
+        <v>1.472057363797125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>5386</v>
+      </c>
+      <c r="I38" s="60">
+        <v>4.8101959318531629</v>
+      </c>
+      <c r="J38">
+        <v>1546</v>
+      </c>
+      <c r="K38" s="61">
+        <v>1.6363298171502521</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>10283</v>
+      </c>
+      <c r="I39" s="60">
+        <v>1.3373367161095018</v>
+      </c>
+      <c r="J39">
+        <v>10001</v>
+      </c>
+      <c r="K39" s="61">
+        <v>1.2635134444195653</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <v>13317</v>
+      </c>
+      <c r="I40" s="60">
+        <v>8.1584581451972635</v>
+      </c>
+      <c r="J40">
+        <v>10001</v>
+      </c>
+      <c r="K40" s="61">
+        <v>6.6543291718604269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>2734</v>
+      </c>
+      <c r="I41" s="60">
+        <v>0.54074723151271098</v>
+      </c>
+      <c r="J41">
+        <v>10001</v>
+      </c>
+      <c r="K41" s="61">
+        <v>1.6056700876430525</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>5470</v>
+      </c>
+      <c r="I42" s="60">
+        <v>6.4068090418151336</v>
+      </c>
+      <c r="J42">
+        <v>1545</v>
+      </c>
+      <c r="K42" s="61">
+        <v>1.7231484501584133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>10245</v>
+      </c>
+      <c r="I43" s="60">
+        <v>1.1093561735371227</v>
+      </c>
+      <c r="J43">
+        <v>10001</v>
+      </c>
+      <c r="K43" s="61">
+        <v>1.2723835348835568</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>13266</v>
+      </c>
+      <c r="I44" s="60">
+        <v>14.806537526424266</v>
+      </c>
+      <c r="J44">
+        <v>10001</v>
+      </c>
+      <c r="K44" s="61">
+        <v>5.823437420110122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>2763</v>
+      </c>
+      <c r="I45" s="60">
+        <v>0.60667963123273272</v>
+      </c>
+      <c r="J45">
+        <v>10001</v>
+      </c>
+      <c r="K45" s="61">
+        <v>1.4484379931133824</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <v>5759</v>
+      </c>
+      <c r="I46" s="60">
+        <v>4.9712905972809676</v>
+      </c>
+      <c r="J46">
+        <v>1546</v>
+      </c>
+      <c r="K46" s="61">
+        <v>1.631973581905086</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>10268</v>
+      </c>
+      <c r="I47" s="60">
+        <v>1.0712371757462706</v>
+      </c>
+      <c r="J47">
+        <v>10001</v>
+      </c>
+      <c r="K47" s="61">
+        <v>1.296846013748552</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48">
+        <v>13319</v>
+      </c>
+      <c r="I48" s="60">
+        <v>8.1878163639152515</v>
+      </c>
+      <c r="J48">
+        <v>10001</v>
+      </c>
+      <c r="K48" s="61">
+        <v>5.7452776597489015</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>2788</v>
+      </c>
+      <c r="I49" s="60">
+        <v>0.71597303887430419</v>
+      </c>
+      <c r="J49">
+        <v>10001</v>
+      </c>
+      <c r="K49" s="61">
+        <v>1.4463268727950394</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50">
+        <v>5758</v>
+      </c>
+      <c r="I50" s="60">
+        <v>6.5005082979687474</v>
+      </c>
+      <c r="J50">
+        <v>1545</v>
+      </c>
+      <c r="K50" s="61">
+        <v>2.0164086976605597</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>10268</v>
+      </c>
+      <c r="I51" s="60">
+        <v>1.0913240254096093</v>
+      </c>
+      <c r="J51">
+        <v>10001</v>
+      </c>
+      <c r="K51" s="61">
+        <v>1.2905884655325317</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52">
+        <v>14976</v>
+      </c>
+      <c r="I52" s="60">
+        <v>10.610057705835994</v>
+      </c>
+      <c r="J52">
+        <v>1528</v>
+      </c>
+      <c r="K52" s="61">
+        <v>1.6365688917411718</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>2902</v>
+      </c>
+      <c r="I53" s="60">
+        <v>0.58001047273650486</v>
+      </c>
+      <c r="J53">
+        <v>10001</v>
+      </c>
+      <c r="K53" s="61">
+        <v>2.3950217476775739</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54">
+        <v>8694</v>
+      </c>
+      <c r="I54" s="60">
+        <v>10.296737054974814</v>
+      </c>
+      <c r="J54">
+        <v>1526</v>
+      </c>
+      <c r="K54" s="61">
+        <v>2.2203573072020339</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>10291</v>
+      </c>
+      <c r="I55" s="60">
+        <v>1.0753349424440264</v>
+      </c>
+      <c r="J55">
+        <v>10001</v>
+      </c>
+      <c r="K55" s="61">
+        <v>1.2858062684793552</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56">
+        <v>14927</v>
+      </c>
+      <c r="I56" s="60">
+        <v>10.734352162514304</v>
+      </c>
+      <c r="J56">
+        <v>10001</v>
+      </c>
+      <c r="K56" s="61">
+        <v>5.5226502017853019</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>2990</v>
+      </c>
+      <c r="I57" s="60">
+        <v>0.59123922092713688</v>
+      </c>
+      <c r="J57">
+        <v>10001</v>
+      </c>
+      <c r="K57" s="61">
+        <v>1.4112544892601557</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58">
+        <v>545</v>
+      </c>
+      <c r="I58" s="60">
+        <v>2.1934903303496025</v>
+      </c>
+      <c r="J58">
+        <v>1526</v>
+      </c>
+      <c r="K58" s="61">
+        <v>1.7401943274440352</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>10303</v>
+      </c>
+      <c r="I59" s="60">
+        <v>1.0408651820299126</v>
+      </c>
+      <c r="J59">
+        <v>10001</v>
+      </c>
+      <c r="K59" s="61">
+        <v>1.7442727001853005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60">
+        <v>14864</v>
+      </c>
+      <c r="I60" s="60">
+        <v>14.54556469030496</v>
+      </c>
+      <c r="J60">
+        <v>1528</v>
+      </c>
+      <c r="K60" s="61">
+        <v>1.8972264879131573</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <v>2865</v>
+      </c>
+      <c r="I61" s="60">
+        <v>0.60959084041065825</v>
+      </c>
+      <c r="J61">
+        <v>10001</v>
+      </c>
+      <c r="K61" s="61">
+        <v>1.5238177179660324</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62">
+        <v>578</v>
+      </c>
+      <c r="I62" s="60">
+        <v>1.422684229363508</v>
+      </c>
+      <c r="J62">
+        <v>1526</v>
+      </c>
+      <c r="K62" s="61">
+        <v>2.2674934369088149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>10317</v>
+      </c>
+      <c r="I63" s="60">
+        <v>1.0359817837855945</v>
+      </c>
+      <c r="J63">
+        <v>10001</v>
+      </c>
+      <c r="K63" s="61">
+        <v>1.3201864640762218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64">
+        <v>14905</v>
+      </c>
+      <c r="I64" s="60">
+        <v>12.119928348146201</v>
+      </c>
+      <c r="J64">
+        <v>10001</v>
+      </c>
+      <c r="K64" s="61">
+        <v>7.5815771518035495</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65">
+        <v>2867</v>
+      </c>
+      <c r="I65" s="60">
+        <v>0.58482475797223843</v>
+      </c>
+      <c r="J65">
+        <v>10001</v>
+      </c>
+      <c r="K65" s="61">
+        <v>1.5036673971723611</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66">
+        <v>587</v>
+      </c>
+      <c r="I66" s="60">
+        <v>1.6403002889699516</v>
+      </c>
+      <c r="J66">
+        <v>1526</v>
+      </c>
+      <c r="K66" s="61">
+        <v>1.7627914603120312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K66"/>
@@ -22767,10 +25086,21 @@
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="54" t="s">
@@ -22778,37 +25108,37 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="40" t="s">
         <v>8</v>
       </c>
     </row>
@@ -22837,13 +25167,13 @@
       <c r="H3">
         <v>2661</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="61">
         <v>0.48439176032762354</v>
       </c>
       <c r="J3">
         <v>10001</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="61">
         <v>0.74291504257145258</v>
       </c>
     </row>
@@ -22872,13 +25202,13 @@
       <c r="H4">
         <v>1763</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="61">
         <v>1.7925405985603353</v>
       </c>
       <c r="J4">
         <v>10001</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="61">
         <v>3.6881264682091075</v>
       </c>
     </row>
@@ -22907,13 +25237,13 @@
       <c r="H5">
         <v>2161</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="61">
         <v>0.32607095077536957</v>
       </c>
       <c r="J5">
         <v>10001</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="61">
         <v>0.79701671898327819</v>
       </c>
     </row>
@@ -22942,13 +25272,13 @@
       <c r="H6">
         <v>1769</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="61">
         <v>1.5365706161418198</v>
       </c>
       <c r="J6">
         <v>10001</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="61">
         <v>3.6031961911720214</v>
       </c>
     </row>
@@ -22977,13 +25307,13 @@
       <c r="H7">
         <v>2622</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="61">
         <v>0.31012913540422959</v>
       </c>
       <c r="J7">
         <v>10001</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="61">
         <v>0.76038792103353459</v>
       </c>
     </row>
@@ -23012,13 +25342,13 @@
       <c r="H8">
         <v>1754</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="61">
         <v>1.2510453331490321</v>
       </c>
       <c r="J8">
         <v>10001</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="61">
         <v>3.7265962796083696</v>
       </c>
     </row>
@@ -23047,13 +25377,13 @@
       <c r="H9">
         <v>2171</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="61">
         <v>0.23469377680330106</v>
       </c>
       <c r="J9">
         <v>10001</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="61">
         <v>0.81039218769944898</v>
       </c>
     </row>
@@ -23082,13 +25412,13 @@
       <c r="H10">
         <v>1767</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="61">
         <v>1.4767544283408169</v>
       </c>
       <c r="J10">
         <v>10001</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="61">
         <v>3.7513926609114869</v>
       </c>
     </row>
@@ -23117,13 +25447,13 @@
       <c r="H11">
         <v>2669</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="61">
         <v>0.25312118953235224</v>
       </c>
       <c r="J11">
         <v>10001</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="61">
         <v>0.82979282339740856</v>
       </c>
     </row>
@@ -23152,13 +25482,13 @@
       <c r="H12">
         <v>1829</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="61">
         <v>1.3176903021152084</v>
       </c>
       <c r="J12">
         <v>10001</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="61">
         <v>3.8586517053616829</v>
       </c>
     </row>
@@ -23187,13 +25517,13 @@
       <c r="H13">
         <v>2123</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="61">
         <v>0.24177679483825104</v>
       </c>
       <c r="J13">
         <v>10001</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="61">
         <v>0.84851008731502597</v>
       </c>
     </row>
@@ -23222,13 +25552,13 @@
       <c r="H14">
         <v>1811</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="61">
         <v>1.5782058705091577</v>
       </c>
       <c r="J14">
         <v>10001</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="61">
         <v>3.5973332280183841</v>
       </c>
     </row>
@@ -23257,13 +25587,13 @@
       <c r="H15">
         <v>2706</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="61">
         <v>0.20830109826096338</v>
       </c>
       <c r="J15">
         <v>10001</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="61">
         <v>0.76534747938777226</v>
       </c>
     </row>
@@ -23292,13 +25622,13 @@
       <c r="H16">
         <v>1801</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="61">
         <v>1.2600525822496824</v>
       </c>
       <c r="J16">
         <v>10001</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="61">
         <v>3.4952216867928705</v>
       </c>
     </row>
@@ -23327,13 +25657,13 @@
       <c r="H17">
         <v>2166</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="61">
         <v>0.23575797496278128</v>
       </c>
       <c r="J17">
         <v>10001</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="61">
         <v>1.0131945761860803</v>
       </c>
     </row>
@@ -23362,13 +25692,13 @@
       <c r="H18">
         <v>1755</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="61">
         <v>1.3626235834492855</v>
       </c>
       <c r="J18">
         <v>10001</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="61">
         <v>3.7038422560718889</v>
       </c>
     </row>
@@ -23397,13 +25727,13 @@
       <c r="H19">
         <v>2691</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="61">
         <v>0.25819887458752622</v>
       </c>
       <c r="J19">
         <v>10001</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="61">
         <v>0.75867420232741334</v>
       </c>
     </row>
@@ -23432,13 +25762,13 @@
       <c r="H20">
         <v>1770</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="61">
         <v>1.3411365128574744</v>
       </c>
       <c r="J20">
         <v>10001</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="61">
         <v>3.8043948774620602</v>
       </c>
     </row>
@@ -23467,13 +25797,13 @@
       <c r="H21">
         <v>2132</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="61">
         <v>0.28842555796353797</v>
       </c>
       <c r="J21">
         <v>10001</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="61">
         <v>0.86143138531237284</v>
       </c>
     </row>
@@ -23502,13 +25832,13 @@
       <c r="H22">
         <v>1788</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="61">
         <v>1.408670076708306</v>
       </c>
       <c r="J22">
         <v>10001</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="61">
         <v>3.5590672292553647</v>
       </c>
     </row>
@@ -23537,13 +25867,13 @@
       <c r="H23">
         <v>2691</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="61">
         <v>0.26182448276372755</v>
       </c>
       <c r="J23">
         <v>10001</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="61">
         <v>0.7698320626191405</v>
       </c>
     </row>
@@ -23572,13 +25902,13 @@
       <c r="H24">
         <v>1780</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="61">
         <v>1.3624232969832204</v>
       </c>
       <c r="J24">
         <v>10001</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="61">
         <v>3.515675942139779</v>
       </c>
     </row>
@@ -23607,13 +25937,13 @@
       <c r="H25">
         <v>2200</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="61">
         <v>0.24808476066825155</v>
       </c>
       <c r="J25">
         <v>10001</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="61">
         <v>0.94886630102632707</v>
       </c>
     </row>
@@ -23642,13 +25972,13 @@
       <c r="H26">
         <v>1763</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="61">
         <v>1.3941517762377034</v>
       </c>
       <c r="J26">
         <v>10001</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="61">
         <v>4.1946199105904292</v>
       </c>
     </row>
@@ -23677,13 +26007,13 @@
       <c r="H27">
         <v>2686</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="61">
         <v>0.20521887290906923</v>
       </c>
       <c r="J27">
         <v>10001</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="61">
         <v>0.72638188846159546</v>
       </c>
     </row>
@@ -23712,13 +26042,13 @@
       <c r="H28">
         <v>1814</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="61">
         <v>1.3958679632629487</v>
       </c>
       <c r="J28">
         <v>10001</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="61">
         <v>3.8609722779553008</v>
       </c>
     </row>
@@ -23747,13 +26077,13 @@
       <c r="H29">
         <v>2135</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="61">
         <v>0.23139962862375693</v>
       </c>
       <c r="J29">
         <v>10001</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="61">
         <v>0.9702620438105487</v>
       </c>
     </row>
@@ -23782,13 +26112,13 @@
       <c r="H30">
         <v>1753</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="61">
         <v>1.4488902789835321</v>
       </c>
       <c r="J30">
         <v>10001</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="61">
         <v>4.3184290347673331</v>
       </c>
     </row>
@@ -23817,13 +26147,13 @@
       <c r="H31">
         <v>2686</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="61">
         <v>0.20492443769927268</v>
       </c>
       <c r="J31">
         <v>10001</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="61">
         <v>0.65806904100160157</v>
       </c>
     </row>
@@ -23852,13 +26182,13 @@
       <c r="H32">
         <v>1842</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="61">
         <v>1.3961609880046744</v>
       </c>
       <c r="J32">
         <v>10001</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="61">
         <v>3.4597399520017715</v>
       </c>
     </row>
@@ -23887,13 +26217,13 @@
       <c r="H33">
         <v>2154</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="61">
         <v>0.23475901095157933</v>
       </c>
       <c r="J33">
         <v>10001</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="61">
         <v>1.092900126871603</v>
       </c>
     </row>
@@ -23922,13 +26252,13 @@
       <c r="H34">
         <v>1837</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="61">
         <v>1.4059179008849982</v>
       </c>
       <c r="J34">
         <v>10001</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="61">
         <v>4.3455763137275918</v>
       </c>
     </row>
@@ -23957,13 +26287,13 @@
       <c r="H35">
         <v>10321</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="61">
         <v>0.8289779254694567</v>
       </c>
       <c r="J35">
         <v>10001</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="61">
         <v>0.63737324299755493</v>
       </c>
     </row>
@@ -23992,13 +26322,13 @@
       <c r="H36">
         <v>13603</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="61">
         <v>7.577485121324937</v>
       </c>
       <c r="J36">
         <v>10001</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="61">
         <v>3.8510330620768154</v>
       </c>
     </row>
@@ -24027,13 +26357,13 @@
       <c r="H37">
         <v>2906</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="61">
         <v>0.25003014875501511</v>
       </c>
       <c r="J37">
         <v>10001</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="61">
         <v>0.92348210715466983</v>
       </c>
     </row>
@@ -24062,13 +26392,13 @@
       <c r="H38">
         <v>5658</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="61">
         <v>3.6242819835976667</v>
       </c>
       <c r="J38">
         <v>1544</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="61">
         <v>1.1216447609221358</v>
       </c>
     </row>
@@ -24097,13 +26427,13 @@
       <c r="H39">
         <v>10311</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="61">
         <v>0.79023906728567406</v>
       </c>
       <c r="J39">
         <v>10001</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="61">
         <v>0.63302441731800907</v>
       </c>
     </row>
@@ -24132,13 +26462,13 @@
       <c r="H40">
         <v>13607</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="61">
         <v>5.95486290602968</v>
       </c>
       <c r="J40">
         <v>1545</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="61">
         <v>1.0833724150527972</v>
       </c>
     </row>
@@ -24167,13 +26497,13 @@
       <c r="H41">
         <v>2887</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="61">
         <v>0.24714397846497349</v>
       </c>
       <c r="J41">
         <v>10001</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="61">
         <v>0.85164873138975539</v>
       </c>
     </row>
@@ -24202,13 +26532,13 @@
       <c r="H42">
         <v>5580</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="61">
         <v>3.7645304657577139</v>
       </c>
       <c r="J42">
         <v>1544</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="61">
         <v>1.1293254648021218</v>
       </c>
     </row>
@@ -24237,13 +26567,13 @@
       <c r="H43">
         <v>10295</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="61">
         <v>0.80302883913541123</v>
       </c>
       <c r="J43">
         <v>10001</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="61">
         <v>0.63512742521169363</v>
       </c>
     </row>
@@ -24272,13 +26602,13 @@
       <c r="H44">
         <v>13618</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="61">
         <v>7.0397275963014705</v>
       </c>
       <c r="J44">
         <v>10001</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="61">
         <v>3.3994269268228008</v>
       </c>
     </row>
@@ -24307,13 +26637,13 @@
       <c r="H45">
         <v>2918</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="61">
         <v>0.38874650997306709</v>
       </c>
       <c r="J45">
         <v>10001</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="61">
         <v>0.96311414424433817</v>
       </c>
     </row>
@@ -24342,13 +26672,13 @@
       <c r="H46">
         <v>5765</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="61">
         <v>4.0072917673094404</v>
       </c>
       <c r="J46">
         <v>1544</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="61">
         <v>1.0987905941526226</v>
       </c>
     </row>
@@ -24377,13 +26707,13 @@
       <c r="H47">
         <v>10333</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="61">
         <v>0.81031038055133786</v>
       </c>
       <c r="J47">
         <v>10001</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="61">
         <v>0.70108831716349229</v>
       </c>
     </row>
@@ -24412,13 +26742,13 @@
       <c r="H48">
         <v>13620</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="61">
         <v>5.9202207523577739</v>
       </c>
       <c r="J48">
         <v>1545</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="61">
         <v>1.2015840966904072</v>
       </c>
     </row>
@@ -24447,13 +26777,13 @@
       <c r="H49">
         <v>2801</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="61">
         <v>0.29805447086642939</v>
       </c>
       <c r="J49">
         <v>10001</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="61">
         <v>0.80928567549784236</v>
       </c>
     </row>
@@ -24482,13 +26812,13 @@
       <c r="H50">
         <v>5706</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="61">
         <v>3.699939843536777</v>
       </c>
       <c r="J50">
         <v>1544</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="61">
         <v>1.0998167096741889</v>
       </c>
     </row>
@@ -24517,13 +26847,13 @@
       <c r="H51">
         <v>10338</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="61">
         <v>0.62261481033788468</v>
       </c>
       <c r="J51">
         <v>10001</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="61">
         <v>0.67515968261647474</v>
       </c>
     </row>
@@ -24552,13 +26882,13 @@
       <c r="H52">
         <v>14967</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="61">
         <v>8.0828526575686777</v>
       </c>
       <c r="J52">
         <v>1526</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="61">
         <v>1.0867942105927562</v>
       </c>
     </row>
@@ -24587,13 +26917,13 @@
       <c r="H53">
         <v>3022</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="61">
         <v>0.43080525737868741</v>
       </c>
       <c r="J53">
         <v>10001</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="61">
         <v>0.95104441634478609</v>
       </c>
     </row>
@@ -24622,13 +26952,13 @@
       <c r="H54">
         <v>9095</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="61">
         <v>6.3041864808045878</v>
       </c>
       <c r="J54">
         <v>1524</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="61">
         <v>1.1076906476798858</v>
       </c>
     </row>
@@ -24657,13 +26987,13 @@
       <c r="H55">
         <v>10326</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="61">
         <v>0.6275849472026539</v>
       </c>
       <c r="J55">
         <v>10001</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="61">
         <v>0.65789132202467049</v>
       </c>
     </row>
@@ -24692,13 +27022,13 @@
       <c r="H56">
         <v>15007</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="61">
         <v>6.8815869740452715</v>
       </c>
       <c r="J56">
         <v>10001</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="61">
         <v>3.4645972514208703</v>
       </c>
     </row>
@@ -24727,13 +27057,13 @@
       <c r="H57">
         <v>2962</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="61">
         <v>0.27580927368651925</v>
       </c>
       <c r="J57">
         <v>10001</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="61">
         <v>0.98101404191487962</v>
       </c>
     </row>
@@ -24762,13 +27092,13 @@
       <c r="H58">
         <v>553</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="61">
         <v>1.0635881320395579</v>
       </c>
       <c r="J58">
         <v>1524</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="61">
         <v>1.1542396201891578</v>
       </c>
     </row>
@@ -24797,13 +27127,13 @@
       <c r="H59">
         <v>10332</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="61">
         <v>0.56227921766977984</v>
       </c>
       <c r="J59">
         <v>10001</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="61">
         <v>0.66974736401148405</v>
       </c>
     </row>
@@ -24832,13 +27162,13 @@
       <c r="H60">
         <v>14900</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="61">
         <v>7.2561085609064797</v>
       </c>
       <c r="J60">
         <v>1526</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="61">
         <v>1.1516168548113535</v>
       </c>
     </row>
@@ -24867,13 +27197,13 @@
       <c r="H61">
         <v>2876</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="61">
         <v>0.28121242424904919</v>
       </c>
       <c r="J61">
         <v>10001</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="61">
         <v>0.86779506463117317</v>
       </c>
     </row>
@@ -24902,13 +27232,13 @@
       <c r="H62">
         <v>626</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="61">
         <v>1.180554722987597</v>
       </c>
       <c r="J62">
         <v>1524</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="61">
         <v>1.1146241560993224</v>
       </c>
     </row>
@@ -24937,13 +27267,13 @@
       <c r="H63">
         <v>10301</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="61">
         <v>0.56540410968081811</v>
       </c>
       <c r="J63">
         <v>10001</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="61">
         <v>0.67110811308286711</v>
       </c>
     </row>
@@ -24972,13 +27302,13 @@
       <c r="H64">
         <v>14948</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="61">
         <v>6.9525892314994193</v>
       </c>
       <c r="J64">
         <v>10001</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="61">
         <v>3.5141593363465633</v>
       </c>
     </row>
@@ -25007,13 +27337,13 @@
       <c r="H65">
         <v>2931</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="61">
         <v>0.28512788361381669</v>
       </c>
       <c r="J65">
         <v>10001</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="61">
         <v>0.93936750380297451</v>
       </c>
     </row>
@@ -25042,13 +27372,13 @@
       <c r="H66">
         <v>9413</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="61">
         <v>5.6176362106646902</v>
       </c>
       <c r="J66">
         <v>1524</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="61">
         <v>1.1172398691367724</v>
       </c>
     </row>
